--- a/Data_S2.xlsx
+++ b/Data_S2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22500638-7CB6-4370-AB88-ADE25390081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -14,10 +15,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sa_all_tot!$A$1:$I$224</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -961,8 +971,11 @@
     </r>
   </si>
   <si>
+    <t>This supporting information provides the analysis of material inflows to in-use stocks of the world, per region and country (including income classfication) that were used to create global map. Data was imported from Data_S1</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Rodrigues, J.F.D &amp; Tukker, A. (2020.) Global distribution of material inflows to capital formation and its implications for a circularity transition. </t>
+      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Merciai, S., Rodrigues, J.F.D &amp; Tukker, A. (2020.) Global distribution of material inflows to capital formation and its implications for a circularity transition. </t>
     </r>
     <r>
       <rPr>
@@ -975,21 +988,18 @@
       <t xml:space="preserve">Journal of Industrial Ecology. </t>
     </r>
   </si>
-  <si>
-    <t>This supporting information provides the analysis of material inflows to in-use stocks of the world, per region and country (including income classfication) that were used to create global map. Data was imported from Data_S1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,7 +1188,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1221,10 +1231,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1240,10 +1250,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1275,11 +1285,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1289,20 +1299,20 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1313,7 +1323,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_COUNTRY" xfId="1"/>
+    <cellStyle name="Normal_COUNTRY" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,7 +1358,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1432,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="esupp new graphic">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1506,7 @@
         <xdr:cNvPr id="4" name="Object 5" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,17 +1797,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1812,7 +1822,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="18">
+    <row r="2" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>307</v>
       </c>
@@ -1829,7 +1839,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="18">
+    <row r="3" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1844,9 +1854,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -1861,7 +1871,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1">
+    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="64"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -1872,7 +1882,7 @@
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1887,9 +1897,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7" s="65"/>
       <c r="C7" s="65"/>
@@ -1904,7 +1914,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="24.75" customHeight="1">
+    <row r="8" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="65"/>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -1919,7 +1929,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1934,7 +1944,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1949,23 +1959,23 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="12" spans="1:13" s="8" customFormat="1">
+    <row r="12" spans="1:13" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>300</v>
       </c>
       <c r="C12" s="9">
-        <v>43978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="14.25"/>
-    <row r="14" spans="1:13">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>303</v>
@@ -1977,7 +1987,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>304</v>
@@ -2000,25 +2010,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="16.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="15" customWidth="1"/>
-    <col min="4" max="5" width="32.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="39.42578125" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.1796875" style="15"/>
+    <col min="2" max="2" width="16.453125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="15" customWidth="1"/>
+    <col min="4" max="5" width="32.26953125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="22.7265625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="39.453125" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>291</v>
       </c>
@@ -2047,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -2063,22 +2075,22 @@
       <c r="E2" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="20">
-        <v>92549160.187754601</v>
+      <c r="F2">
+        <v>101389201.0326599</v>
       </c>
       <c r="G2" s="21">
         <f>+F2/1000000000</f>
-        <v>9.2549160187754595E-2</v>
+        <v>0.1013892010326599</v>
       </c>
       <c r="H2" s="22">
         <v>8391643</v>
       </c>
       <c r="I2" s="23">
         <f>+F2/H2</f>
-        <v>11.028729438055766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15">
+        <v>12.08216329420352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -2094,22 +2106,22 @@
       <c r="E3" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F3" s="20">
-        <v>112660934.4517082</v>
+      <c r="F3">
+        <v>108249943.57428239</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G66" si="0">+F3/1000000000</f>
-        <v>0.1126609344517082</v>
+        <v>0.10824994357428239</v>
       </c>
       <c r="H3" s="22">
         <v>22340024</v>
       </c>
       <c r="I3" s="23">
         <f t="shared" ref="I3:I49" si="1">+F3/H3</f>
-        <v>5.0430086579901703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15">
+        <v>4.8455607556322411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2125,22 +2137,22 @@
       <c r="E4" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F4" s="20">
-        <v>106220956.5845519</v>
+      <c r="F4">
+        <v>107443193.4190435</v>
       </c>
       <c r="G4" s="21">
         <f t="shared" si="0"/>
-        <v>0.1062209565845519</v>
+        <v>0.1074431934190435</v>
       </c>
       <c r="H4" s="22">
         <v>11047744</v>
       </c>
       <c r="I4" s="23">
         <f t="shared" si="1"/>
-        <v>9.6147192209153207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
+        <v>9.7253514761967228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -2156,22 +2168,22 @@
       <c r="E5" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="20">
-        <v>39729305.706589818</v>
+      <c r="F5">
+        <v>38671413.323814981</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="0"/>
-        <v>3.9729305706589821E-2</v>
+        <v>3.8671413323814983E-2</v>
       </c>
       <c r="H5" s="22">
         <v>7348328</v>
       </c>
       <c r="I5" s="23">
         <f t="shared" si="1"/>
-        <v>5.4065776196421576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>5.2626139339200675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -2187,22 +2199,22 @@
       <c r="E6" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F6" s="20">
-        <v>534910927.78213161</v>
+      <c r="F6">
+        <v>553471945.23378599</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>0.53491092778213156</v>
+        <v>0.55347194523378596</v>
       </c>
       <c r="H6" s="22">
         <v>198686688</v>
       </c>
       <c r="I6" s="23">
         <f t="shared" si="1"/>
-        <v>2.6922333507423084</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15">
+        <v>2.7856518763541218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -2218,22 +2230,22 @@
       <c r="E7" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="20">
-        <v>368741041.13499802</v>
+      <c r="F7">
+        <v>393587342.94323951</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="0"/>
-        <v>0.368741041134998</v>
+        <v>0.39358734294323949</v>
       </c>
       <c r="H7" s="22">
         <v>34342780</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" si="1"/>
-        <v>10.737076064750671</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+        <v>11.460555695934911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -2249,22 +2261,22 @@
       <c r="E8" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F8" s="20">
-        <v>63957556.503143221</v>
+      <c r="F8">
+        <v>67808079.461859137</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>6.395755650314322E-2</v>
+        <v>6.7808079461859141E-2</v>
       </c>
       <c r="H8" s="22">
         <v>7912398</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="1"/>
-        <v>8.0832077080985076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+        <v>8.5698519540926963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
@@ -2280,22 +2292,22 @@
       <c r="E9" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="20">
-        <v>13651427956.138</v>
+      <c r="F9">
+        <v>13795948442.759291</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="0"/>
-        <v>13.651427956138001</v>
+        <v>13.795948442759292</v>
       </c>
       <c r="H9" s="22">
         <v>1344130000</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="1"/>
-        <v>10.156330084246315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15">
+        <v>10.263849808247187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
@@ -2311,22 +2323,22 @@
       <c r="E10" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F10" s="20">
-        <v>11604615.553122239</v>
+      <c r="F10">
+        <v>11578761.17694564</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="0"/>
-        <v>1.1604615553122239E-2</v>
+        <v>1.157876117694564E-2</v>
       </c>
       <c r="H10" s="22">
         <v>1124835</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="1"/>
-        <v>10.316726944949473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+        <v>10.293741906097907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2342,22 +2354,22 @@
       <c r="E11" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F11" s="20">
-        <v>90241367.093096316</v>
+      <c r="F11">
+        <v>92349111.921214342</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="0"/>
-        <v>9.0241367093096311E-2</v>
+        <v>9.2349111921214339E-2</v>
       </c>
       <c r="H11" s="22">
         <v>10496088</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="1"/>
-        <v>8.5976191408738494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+        <v>8.79843156052182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
@@ -2373,22 +2385,22 @@
       <c r="E12" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="20">
-        <v>689341529.37134647</v>
+      <c r="F12">
+        <v>701305689.79150891</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>0.68934152937134652</v>
+        <v>0.70130568979150887</v>
       </c>
       <c r="H12" s="22">
         <v>80274983</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="1"/>
-        <v>8.5872522622813445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
+        <v>8.7362919751911861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -2404,22 +2416,22 @@
       <c r="E13" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="20">
-        <v>52471951.361834563</v>
+      <c r="F13">
+        <v>52411913.074053742</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>5.2471951361834565E-2</v>
+        <v>5.241191307405374E-2</v>
       </c>
       <c r="H13" s="22">
         <v>5570572</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="1"/>
-        <v>9.4194907384438373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
+        <v>9.4087129784973147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -2435,22 +2447,22 @@
       <c r="E14" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="20">
-        <v>12772729.08670879</v>
+      <c r="F14">
+        <v>12071398.906196009</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>1.2772729086708789E-2</v>
+        <v>1.2071398906196009E-2</v>
       </c>
       <c r="H14" s="22">
         <v>1327439</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="1"/>
-        <v>9.6220836412888193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
+        <v>9.0937503766244703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
@@ -2466,22 +2478,22 @@
       <c r="E15" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F15" s="20">
-        <v>282814663.09888661</v>
+      <c r="F15">
+        <v>282179865.86761689</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="0"/>
-        <v>0.28281466309888659</v>
+        <v>0.2821798658676169</v>
       </c>
       <c r="H15" s="22">
         <v>46742697</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="1"/>
-        <v>6.0504566755933364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
+        <v>6.0368760037020737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -2497,22 +2509,22 @@
       <c r="E16" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="20">
-        <v>69242414.749683648</v>
+      <c r="F16">
+        <v>82128969.216410249</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="0"/>
-        <v>6.9242414749683651E-2</v>
+        <v>8.2128969216410247E-2</v>
       </c>
       <c r="H16" s="22">
         <v>5388272</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="1"/>
-        <v>12.850578951783364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+        <v>15.242172113139473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -2528,22 +2540,22 @@
       <c r="E17" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F17" s="20">
-        <v>423361093.03921372</v>
+      <c r="F17">
+        <v>429742207.59714329</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v>0.42336109303921371</v>
+        <v>0.42974220759714327</v>
       </c>
       <c r="H17" s="22">
         <v>65342776</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="1"/>
-        <v>6.4790803047488179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
+        <v>6.5767363112510449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
@@ -2559,22 +2571,22 @@
       <c r="E18" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F18" s="20">
-        <v>343935714.6380133</v>
+      <c r="F18">
+        <v>342696173.40832651</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v>0.34393571463801331</v>
+        <v>0.34269617340832653</v>
       </c>
       <c r="H18" s="22">
         <v>63258918</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="1"/>
-        <v>5.4369522197330866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
+        <v>5.4173574927147268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
@@ -2590,22 +2602,22 @@
       <c r="E19" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="20">
-        <v>85746904.053285509</v>
+      <c r="F19">
+        <v>75210900.98792477</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="0"/>
-        <v>8.5746904053285514E-2</v>
+        <v>7.5210900987924767E-2</v>
       </c>
       <c r="H19" s="22">
         <v>11104899</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="1"/>
-        <v>7.7215383996995834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
+        <v>6.7727676755929762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
@@ -2621,22 +2633,22 @@
       <c r="E20" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="20">
-        <v>18834048.20803339</v>
+      <c r="F20">
+        <v>20155774.392564751</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v>1.8834048208033392E-2</v>
+        <v>2.0155774392564753E-2</v>
       </c>
       <c r="H20" s="22">
         <v>4280622</v>
       </c>
       <c r="I20" s="23">
         <f t="shared" si="1"/>
-        <v>4.3998391374041876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
+        <v>4.7086087939006882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>22</v>
       </c>
@@ -2652,22 +2664,22 @@
       <c r="E21" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F21" s="20">
-        <v>34378619.569476753</v>
+      <c r="F21">
+        <v>34644762.495037884</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="0"/>
-        <v>3.4378619569476757E-2</v>
+        <v>3.4644762495037881E-2</v>
       </c>
       <c r="H21" s="22">
         <v>9971727</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="1"/>
-        <v>3.4476093829561072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15">
+        <v>3.4742991354494444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>23</v>
       </c>
@@ -2683,22 +2695,22 @@
       <c r="E22" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="F22" s="20">
-        <v>335053913.60586298</v>
+      <c r="F22">
+        <v>376956215.84006202</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="0"/>
-        <v>0.33505391360586295</v>
+        <v>0.376956215840062</v>
       </c>
       <c r="H22" s="22">
         <v>245707511</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="1"/>
-        <v>1.3636291061768273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15">
+        <v>1.5341664335204714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
@@ -2714,22 +2726,22 @@
       <c r="E23" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="20">
-        <v>48728718.076640829</v>
+      <c r="F23">
+        <v>48414578.114542313</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="0"/>
-        <v>4.872871807664083E-2</v>
+        <v>4.8414578114542313E-2</v>
       </c>
       <c r="H23" s="22">
         <v>4576794</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="1"/>
-        <v>10.646910932989519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15">
+        <v>10.578273375323931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
@@ -2745,22 +2757,22 @@
       <c r="E24" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="F24" s="20">
-        <v>1348813963.3698461</v>
+      <c r="F24">
+        <v>1636484556.7544839</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="0"/>
-        <v>1.3488139633698462</v>
+        <v>1.6364845567544839</v>
       </c>
       <c r="H24" s="22">
         <v>1247236029</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="1"/>
-        <v>1.0814424311100832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15">
+        <v>1.3120889059519656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
@@ -2776,22 +2788,22 @@
       <c r="E25" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F25" s="20">
-        <v>380185201.39184368</v>
+      <c r="F25">
+        <v>385968407.95946461</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="0"/>
-        <v>0.3801852013918437</v>
+        <v>0.38596840795946463</v>
       </c>
       <c r="H25" s="22">
         <v>59379449</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="1"/>
-        <v>6.4026394281941501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15">
+        <v>6.5000335041752342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
@@ -2807,22 +2819,22 @@
       <c r="E26" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F26" s="20">
-        <v>633298490.09926581</v>
+      <c r="F26">
+        <v>648345996.24725461</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="0"/>
-        <v>0.63329849009926587</v>
+        <v>0.64834599624725464</v>
       </c>
       <c r="H26" s="22">
         <v>127833000</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="1"/>
-        <v>4.9541080167035574</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15">
+        <v>5.0718202361460234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -2838,22 +2850,22 @@
       <c r="E27" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F27" s="20">
-        <v>360972539.20595872</v>
+      <c r="F27">
+        <v>363442892.33756542</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="0"/>
-        <v>0.36097253920595873</v>
+        <v>0.36344289233756544</v>
       </c>
       <c r="H27" s="22">
         <v>49936638</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="1"/>
-        <v>7.2286111693374053</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15">
+        <v>7.278080922018928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>29</v>
       </c>
@@ -2869,22 +2881,22 @@
       <c r="E28" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F28" s="20">
-        <v>14492170.37266797</v>
+      <c r="F28">
+        <v>14202793.34639835</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="0"/>
-        <v>1.449217037266797E-2</v>
+        <v>1.4202793346398349E-2</v>
       </c>
       <c r="H28" s="22">
         <v>3028115</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="1"/>
-        <v>4.7858718617582126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15">
+        <v>4.6903084415216565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
@@ -2900,22 +2912,22 @@
       <c r="E29" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F29" s="20">
-        <v>10302245.38064893</v>
+      <c r="F29">
+        <v>9922494.775849076</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="0"/>
-        <v>1.0302245380648929E-2</v>
+        <v>9.9224947758490764E-3</v>
       </c>
       <c r="H29" s="22">
         <v>518347</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="1"/>
-        <v>19.875190520344344</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15">
+        <v>19.142572014208774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
@@ -2931,22 +2943,22 @@
       <c r="E30" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F30" s="20">
-        <v>13012637.219805351</v>
+      <c r="F30">
+        <v>12898672.5761442</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="0"/>
-        <v>1.301263721980535E-2</v>
+        <v>1.28986725761442E-2</v>
       </c>
       <c r="H30" s="22">
         <v>2059709</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="1"/>
-        <v>6.3177066371052177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15">
+        <v>6.2623761784524898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>32</v>
       </c>
@@ -2962,22 +2974,22 @@
       <c r="E31" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F31" s="20">
-        <v>2055454.8250833149</v>
+      <c r="F31">
+        <v>2041467.3933033559</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="0"/>
-        <v>2.055454825083315E-3</v>
+        <v>2.041467393303356E-3</v>
       </c>
       <c r="H31" s="22">
         <v>416268</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="1"/>
-        <v>4.9378160826278137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15">
+        <v>4.9042140959750835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>33</v>
       </c>
@@ -2993,22 +3005,22 @@
       <c r="E32" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F32" s="20">
-        <v>262823259.1642558</v>
+      <c r="F32">
+        <v>272770771.20221782</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="0"/>
-        <v>0.26282325916425581</v>
+        <v>0.27277077120221782</v>
       </c>
       <c r="H32" s="22">
         <v>119090017</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="1"/>
-        <v>2.2069293949656235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15">
+        <v>2.2904587477069369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>34</v>
       </c>
@@ -3024,22 +3036,22 @@
       <c r="E33" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F33" s="20">
-        <v>115635736.58471</v>
+      <c r="F33">
+        <v>117017944.5745475</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="0"/>
-        <v>0.11563573658471001</v>
+        <v>0.11701794457454751</v>
       </c>
       <c r="H33" s="22">
         <v>16693074</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="1"/>
-        <v>6.9271685122051219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15">
+        <v>7.0099697979262237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>35</v>
       </c>
@@ -3055,22 +3067,22 @@
       <c r="E34" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F34" s="20">
-        <v>69248891.908132568</v>
+      <c r="F34">
+        <v>73008136.784308568</v>
       </c>
       <c r="G34" s="21">
         <f t="shared" si="0"/>
-        <v>6.9248891908132562E-2</v>
+        <v>7.3008136784308564E-2</v>
       </c>
       <c r="H34" s="22">
         <v>4953088</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="1"/>
-        <v>13.98095327765882</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15">
+        <v>14.739923212409828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>36</v>
       </c>
@@ -3086,22 +3098,22 @@
       <c r="E35" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F35" s="20">
-        <v>373776843.45659059</v>
+      <c r="F35">
+        <v>375305395.37368208</v>
       </c>
       <c r="G35" s="21">
         <f t="shared" si="0"/>
-        <v>0.37377684345659057</v>
+        <v>0.37530539537368207</v>
       </c>
       <c r="H35" s="22">
         <v>38063255</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="1"/>
-        <v>9.8198864878106349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15">
+        <v>9.8600446907045143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>37</v>
       </c>
@@ -3117,22 +3129,22 @@
       <c r="E36" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F36" s="20">
-        <v>106646427.66591971</v>
+      <c r="F36">
+        <v>107966856.9287084</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="0"/>
-        <v>0.10664642766591971</v>
+        <v>0.1079668569287084</v>
       </c>
       <c r="H36" s="22">
         <v>10557560</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="1"/>
-        <v>10.101427570946289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15">
+        <v>10.226497119477266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>38</v>
       </c>
@@ -3148,22 +3160,22 @@
       <c r="E37" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F37" s="20">
-        <v>101105324.6875743</v>
+      <c r="F37">
+        <v>104495160.60823961</v>
       </c>
       <c r="G37" s="21">
         <f t="shared" si="0"/>
-        <v>0.1011053246875743</v>
+        <v>0.1044951606082396</v>
       </c>
       <c r="H37" s="22">
         <v>20147528</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="1"/>
-        <v>5.0182496178972578</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15">
+        <v>5.1865003293823246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>39</v>
       </c>
@@ -3179,22 +3191,22 @@
       <c r="E38" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F38" s="20">
-        <v>518133879.11002028</v>
+      <c r="F38">
+        <v>527970892.55368721</v>
       </c>
       <c r="G38" s="21">
         <f t="shared" si="0"/>
-        <v>0.51813387911002029</v>
+        <v>0.52797089255368723</v>
       </c>
       <c r="H38" s="22">
         <v>142960868</v>
       </c>
       <c r="I38" s="23">
         <f t="shared" si="1"/>
-        <v>3.6243056324337668</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15">
+        <v>3.6931147658790602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>40</v>
       </c>
@@ -3210,22 +3222,22 @@
       <c r="E39" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F39" s="20">
-        <v>102306980.303395</v>
+      <c r="F39">
+        <v>108938064.3344537</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" si="0"/>
-        <v>0.10230698030339501</v>
+        <v>0.1089380643344537</v>
       </c>
       <c r="H39" s="22">
         <v>9449213</v>
       </c>
       <c r="I39" s="23">
         <f t="shared" si="1"/>
-        <v>10.827037162078472</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15">
+        <v>11.528797618854998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
@@ -3241,22 +3253,22 @@
       <c r="E40" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F40" s="20">
-        <v>15357358.397783039</v>
+      <c r="F40">
+        <v>14090150.77847252</v>
       </c>
       <c r="G40" s="21">
         <f t="shared" si="0"/>
-        <v>1.5357358397783039E-2</v>
+        <v>1.409015077847252E-2</v>
       </c>
       <c r="H40" s="22">
         <v>2052843</v>
       </c>
       <c r="I40" s="23">
         <f t="shared" si="1"/>
-        <v>7.481019443660835</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15">
+        <v>6.8637254668148122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>42</v>
       </c>
@@ -3272,22 +3284,22 @@
       <c r="E41" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="20">
-        <v>38144230.556214146</v>
+      <c r="F41">
+        <v>40594280.950588249</v>
       </c>
       <c r="G41" s="21">
         <f t="shared" si="0"/>
-        <v>3.8144230556214145E-2</v>
+        <v>4.059428095058825E-2</v>
       </c>
       <c r="H41" s="22">
         <v>5398384</v>
       </c>
       <c r="I41" s="23">
         <f t="shared" si="1"/>
-        <v>7.0658609236049426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15">
+        <v>7.5197097780721505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>43</v>
       </c>
@@ -3303,22 +3315,22 @@
       <c r="E42" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="20">
-        <v>357300139.14851749</v>
+      <c r="F42">
+        <v>377571298.37313521</v>
       </c>
       <c r="G42" s="21">
         <f t="shared" si="0"/>
-        <v>0.35730013914851749</v>
+        <v>0.37757129837313519</v>
       </c>
       <c r="H42" s="22">
         <v>73409455</v>
       </c>
       <c r="I42" s="23">
         <f t="shared" si="1"/>
-        <v>4.8672223373476546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15">
+        <v>5.1433605980746648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>44</v>
       </c>
@@ -3334,22 +3346,22 @@
       <c r="E43" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F43" s="20">
-        <v>2043292736.1426079</v>
+      <c r="F43">
+        <v>2131730641.399236</v>
       </c>
       <c r="G43" s="21">
         <f t="shared" si="0"/>
-        <v>2.0432927361426079</v>
+        <v>2.1317306413992361</v>
       </c>
       <c r="H43" s="22">
         <v>311663358</v>
       </c>
       <c r="I43" s="23">
         <f t="shared" si="1"/>
-        <v>6.556089073976441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15">
+        <v>6.8398500711759516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>45</v>
       </c>
@@ -3365,22 +3377,22 @@
       <c r="E44" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F44" s="20">
-        <v>1757429364.646868</v>
+      <c r="F44">
+        <v>1726057111.111629</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="0"/>
-        <v>1.7574293646468679</v>
+        <v>1.726057111111629</v>
       </c>
       <c r="H44" s="22">
         <v>813751154</v>
       </c>
       <c r="I44" s="23">
         <f t="shared" si="1"/>
-        <v>2.1596643593169862</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15">
+        <v>2.1211117214730599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>46</v>
       </c>
@@ -3396,22 +3408,22 @@
       <c r="E45" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="20">
-        <v>168602803.35740989</v>
+      <c r="F45">
+        <v>193433124.08782101</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="0"/>
-        <v>0.1686028033574099</v>
+        <v>0.19343312408782101</v>
       </c>
       <c r="H45" s="22">
         <v>158263341</v>
       </c>
       <c r="I45" s="23">
         <f t="shared" si="1"/>
-        <v>1.0653307474243823</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15">
+        <v>1.2222231810954944</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>47</v>
       </c>
@@ -3427,22 +3439,22 @@
       <c r="E46" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="F46" s="20">
-        <v>748663224.67444539</v>
+      <c r="F46">
+        <v>927722064.01983166</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="0"/>
-        <v>0.74866322467444535</v>
+        <v>0.9277220640198317</v>
       </c>
       <c r="H46" s="22">
         <v>849726410</v>
       </c>
       <c r="I46" s="23">
         <f t="shared" si="1"/>
-        <v>0.881063852863471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15">
+        <v>1.0917891371880881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>48</v>
       </c>
@@ -3458,22 +3470,22 @@
       <c r="E47" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F47" s="20">
-        <v>738932671.19155633</v>
+      <c r="F47">
+        <v>746797950.35494196</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="0"/>
-        <v>0.73893267119155637</v>
+        <v>0.74679795035494201</v>
       </c>
       <c r="H47" s="22">
         <v>285822469</v>
       </c>
       <c r="I47" s="23">
         <f t="shared" si="1"/>
-        <v>2.5852854528086677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15">
+        <v>2.6128035104019132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>49</v>
       </c>
@@ -3489,22 +3501,22 @@
       <c r="E48" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="F48" s="20">
-        <v>1615997994.45859</v>
+      <c r="F48">
+        <v>1613080038.8132379</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="0"/>
-        <v>1.61599799445859</v>
+        <v>1.6130800388132378</v>
       </c>
       <c r="H48" s="22">
         <v>396156980</v>
       </c>
       <c r="I48" s="23">
         <f t="shared" si="1"/>
-        <v>4.0791859693058798</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15">
+        <v>4.0718203142936868</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>50</v>
       </c>
@@ -3520,22 +3532,22 @@
       <c r="E49" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F49" s="29">
-        <v>113632661.05947959</v>
+      <c r="F49">
+        <v>122102777.4418955</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" si="0"/>
-        <v>0.1136326610594796</v>
+        <v>0.1221027774418955</v>
       </c>
       <c r="H49" s="31">
         <v>51729345.359999999</v>
       </c>
       <c r="I49" s="32">
         <f t="shared" si="1"/>
-        <v>2.1966769590582653</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15">
+        <v>2.3604160576969555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>45</v>
       </c>
@@ -3565,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>45</v>
       </c>
@@ -3595,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
         <v>45</v>
       </c>
@@ -3625,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>45</v>
       </c>
@@ -3655,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
         <v>45</v>
       </c>
@@ -3685,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
         <v>45</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
         <v>45</v>
       </c>
@@ -3745,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
         <v>45</v>
       </c>
@@ -3775,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
         <v>45</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>45</v>
       </c>
@@ -3835,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>45</v>
       </c>
@@ -3865,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
         <v>45</v>
       </c>
@@ -3895,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>45</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>45</v>
       </c>
@@ -3955,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
         <v>45</v>
       </c>
@@ -3985,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
         <v>45</v>
       </c>
@@ -4015,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>45</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
         <v>45</v>
       </c>
@@ -4075,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
         <v>45</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
         <v>45</v>
       </c>
@@ -4135,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
         <v>45</v>
       </c>
@@ -4165,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>45</v>
       </c>
@@ -4195,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
         <v>45</v>
       </c>
@@ -4225,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
         <v>45</v>
       </c>
@@ -4255,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
         <v>45</v>
       </c>
@@ -4285,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="38" t="s">
         <v>45</v>
       </c>
@@ -4315,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="38" t="s">
         <v>45</v>
       </c>
@@ -4345,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>45</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
         <v>45</v>
       </c>
@@ -4405,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>45</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>45</v>
       </c>
@@ -4465,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>45</v>
       </c>
@@ -4495,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>45</v>
       </c>
@@ -4525,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>45</v>
       </c>
@@ -4555,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>45</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>45</v>
       </c>
@@ -4615,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>45</v>
       </c>
@@ -4645,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>45</v>
       </c>
@@ -4675,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>45</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>48</v>
       </c>
@@ -4735,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>48</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="38" t="s">
         <v>48</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>48</v>
       </c>
@@ -4825,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
         <v>48</v>
       </c>
@@ -4855,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="38" t="s">
         <v>48</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="38" t="s">
         <v>48</v>
       </c>
@@ -4915,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
         <v>48</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="38" t="s">
         <v>48</v>
       </c>
@@ -4975,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="38" t="s">
         <v>48</v>
       </c>
@@ -5005,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
         <v>48</v>
       </c>
@@ -5035,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
         <v>48</v>
       </c>
@@ -5065,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="38" t="s">
         <v>48</v>
       </c>
@@ -5095,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
         <v>48</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="38" t="s">
         <v>48</v>
       </c>
@@ -5155,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="38" t="s">
         <v>48</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="s">
         <v>48</v>
       </c>
@@ -5215,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
         <v>48</v>
       </c>
@@ -5245,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="38" t="s">
         <v>48</v>
       </c>
@@ -5275,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
         <v>48</v>
       </c>
@@ -5305,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="38" t="s">
         <v>48</v>
       </c>
@@ -5335,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="38" t="s">
         <v>48</v>
       </c>
@@ -5365,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="38" t="s">
         <v>48</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="38" t="s">
         <v>48</v>
       </c>
@@ -5425,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="38" t="s">
         <v>48</v>
       </c>
@@ -5455,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="38" t="s">
         <v>48</v>
       </c>
@@ -5485,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="38" t="s">
         <v>48</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="38" t="s">
         <v>48</v>
       </c>
@@ -5545,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="38" t="s">
         <v>48</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="38" t="s">
         <v>48</v>
       </c>
@@ -5605,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="38" t="s">
         <v>48</v>
       </c>
@@ -5635,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="38" t="s">
         <v>48</v>
       </c>
@@ -5665,7 +5677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
         <v>48</v>
       </c>
@@ -5695,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="38" t="s">
         <v>48</v>
       </c>
@@ -5725,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="38" t="s">
         <v>48</v>
       </c>
@@ -5755,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="38" t="s">
         <v>48</v>
       </c>
@@ -5785,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="38" t="s">
         <v>48</v>
       </c>
@@ -5815,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="38" t="s">
         <v>48</v>
       </c>
@@ -5845,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="38" t="s">
         <v>48</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="38" t="s">
         <v>48</v>
       </c>
@@ -5905,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="38" t="s">
         <v>48</v>
       </c>
@@ -5935,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="38" t="s">
         <v>46</v>
       </c>
@@ -5965,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="38" t="s">
         <v>46</v>
       </c>
@@ -5995,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="38" t="s">
         <v>46</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="38" t="s">
         <v>46</v>
       </c>
@@ -6055,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="38" t="s">
         <v>46</v>
       </c>
@@ -6085,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="38" t="s">
         <v>46</v>
       </c>
@@ -6115,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="38" t="s">
         <v>46</v>
       </c>
@@ -6145,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="38" t="s">
         <v>46</v>
       </c>
@@ -6175,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
         <v>46</v>
       </c>
@@ -6205,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>46</v>
       </c>
@@ -6235,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="38" t="s">
         <v>46</v>
       </c>
@@ -6265,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>46</v>
       </c>
@@ -6295,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="38" t="s">
         <v>46</v>
       </c>
@@ -6325,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="38" t="s">
         <v>46</v>
       </c>
@@ -6355,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
         <v>46</v>
       </c>
@@ -6385,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="38" t="s">
         <v>46</v>
       </c>
@@ -6415,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="38" t="s">
         <v>46</v>
       </c>
@@ -6445,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="38" t="s">
         <v>46</v>
       </c>
@@ -6475,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="38" t="s">
         <v>46</v>
       </c>
@@ -6505,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="38" t="s">
         <v>46</v>
       </c>
@@ -6535,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="38" t="s">
         <v>46</v>
       </c>
@@ -6565,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="38" t="s">
         <v>46</v>
       </c>
@@ -6595,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="38" t="s">
         <v>46</v>
       </c>
@@ -6625,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="38" t="s">
         <v>46</v>
       </c>
@@ -6655,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="38" t="s">
         <v>46</v>
       </c>
@@ -6685,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="38" t="s">
         <v>46</v>
       </c>
@@ -6715,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="38" t="s">
         <v>46</v>
       </c>
@@ -6745,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="38" t="s">
         <v>47</v>
       </c>
@@ -6775,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="38" t="s">
         <v>47</v>
       </c>
@@ -6805,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="38" t="s">
         <v>47</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="38" t="s">
         <v>47</v>
       </c>
@@ -6865,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="38" t="s">
         <v>47</v>
       </c>
@@ -6895,7 +6907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="38" t="s">
         <v>47</v>
       </c>
@@ -6925,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="38" t="s">
         <v>47</v>
       </c>
@@ -6955,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="38" t="s">
         <v>47</v>
       </c>
@@ -6985,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="38" t="s">
         <v>47</v>
       </c>
@@ -7015,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="38" t="s">
         <v>47</v>
       </c>
@@ -7045,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="38" t="s">
         <v>47</v>
       </c>
@@ -7075,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="38" t="s">
         <v>47</v>
       </c>
@@ -7105,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="38" t="s">
         <v>47</v>
       </c>
@@ -7135,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="38" t="s">
         <v>47</v>
       </c>
@@ -7165,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="38" t="s">
         <v>47</v>
       </c>
@@ -7195,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="38" t="s">
         <v>47</v>
       </c>
@@ -7225,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="38" t="s">
         <v>47</v>
       </c>
@@ -7255,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="38" t="s">
         <v>47</v>
       </c>
@@ -7285,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="38" t="s">
         <v>47</v>
       </c>
@@ -7315,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="38" t="s">
         <v>47</v>
       </c>
@@ -7345,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="38" t="s">
         <v>47</v>
       </c>
@@ -7375,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="38" t="s">
         <v>47</v>
       </c>
@@ -7405,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="38" t="s">
         <v>47</v>
       </c>
@@ -7435,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="38" t="s">
         <v>47</v>
       </c>
@@ -7465,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="38" t="s">
         <v>47</v>
       </c>
@@ -7495,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="38" t="s">
         <v>47</v>
       </c>
@@ -7525,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="38" t="s">
         <v>47</v>
       </c>
@@ -7555,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="38" t="s">
         <v>47</v>
       </c>
@@ -7585,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="38" t="s">
         <v>47</v>
       </c>
@@ -7615,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="38" t="s">
         <v>47</v>
       </c>
@@ -7645,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="38" t="s">
         <v>47</v>
       </c>
@@ -7675,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="38" t="s">
         <v>47</v>
       </c>
@@ -7705,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="38" t="s">
         <v>47</v>
       </c>
@@ -7735,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="38" t="s">
         <v>47</v>
       </c>
@@ -7765,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="38" t="s">
         <v>47</v>
       </c>
@@ -7795,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="38" t="s">
         <v>47</v>
       </c>
@@ -7825,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="38" t="s">
         <v>47</v>
       </c>
@@ -7855,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="38" t="s">
         <v>47</v>
       </c>
@@ -7885,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="38" t="s">
         <v>47</v>
       </c>
@@ -7915,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="38" t="s">
         <v>47</v>
       </c>
@@ -7945,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="38" t="s">
         <v>47</v>
       </c>
@@ -7975,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="38" t="s">
         <v>47</v>
       </c>
@@ -8005,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="38" t="s">
         <v>47</v>
       </c>
@@ -8035,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="38" t="s">
         <v>47</v>
       </c>
@@ -8065,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="38" t="s">
         <v>47</v>
       </c>
@@ -8095,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="38" t="s">
         <v>47</v>
       </c>
@@ -8125,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="38" t="s">
         <v>47</v>
       </c>
@@ -8155,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="38" t="s">
         <v>47</v>
       </c>
@@ -8185,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="38" t="s">
         <v>49</v>
       </c>
@@ -8215,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="38" t="s">
         <v>49</v>
       </c>
@@ -8245,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="38" t="s">
         <v>49</v>
       </c>
@@ -8275,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="38" t="s">
         <v>49</v>
       </c>
@@ -8305,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="38" t="s">
         <v>49</v>
       </c>
@@ -8335,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="38" t="s">
         <v>49</v>
       </c>
@@ -8365,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="38" t="s">
         <v>49</v>
       </c>
@@ -8395,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="38" t="s">
         <v>49</v>
       </c>
@@ -8425,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="38" t="s">
         <v>49</v>
       </c>
@@ -8455,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="38" t="s">
         <v>49</v>
       </c>
@@ -8485,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="38" t="s">
         <v>49</v>
       </c>
@@ -8515,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="38" t="s">
         <v>49</v>
       </c>
@@ -8545,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="38" t="s">
         <v>49</v>
       </c>
@@ -8575,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="38" t="s">
         <v>49</v>
       </c>
@@ -8605,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="38" t="s">
         <v>49</v>
       </c>
@@ -8635,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="38" t="s">
         <v>49</v>
       </c>
@@ -8665,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="38" t="s">
         <v>49</v>
       </c>
@@ -8695,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="38" t="s">
         <v>49</v>
       </c>
@@ -8725,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="38" t="s">
         <v>49</v>
       </c>
@@ -8755,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="40" t="s">
         <v>49</v>
       </c>
@@ -8790,23 +8802,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="28.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="46"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="2" width="9.1796875" style="8"/>
+    <col min="3" max="3" width="28.81640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="46"/>
+    <col min="8" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>291</v>
       </c>
@@ -8832,7 +8844,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -8843,29 +8855,30 @@
         <v>285</v>
       </c>
       <c r="D2" s="20">
-        <v>92549160.187754601</v>
+        <f>sa_all_tot!F2</f>
+        <v>101389201.0326599</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" ref="E2:E35" si="0">+D2/1000000000</f>
-        <v>9.2549160187754595E-2</v>
+        <v>0.1013892010326599</v>
       </c>
       <c r="F2" s="22">
         <v>8391643</v>
       </c>
       <c r="G2" s="46">
         <f>+D2/F2</f>
-        <v>11.028729438055766</v>
+        <v>12.08216329420352</v>
       </c>
       <c r="H2" s="48">
         <f>+E2/$E$54*100</f>
-        <v>0.31395063461867406</v>
+        <v>0.33371057488916933</v>
       </c>
       <c r="I2" s="48">
         <f>+F2/$F$54*100</f>
         <v>0.12005789459663738</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -8876,29 +8889,30 @@
         <v>285</v>
       </c>
       <c r="D3" s="20">
-        <v>112660934.4517082</v>
+        <f>sa_all_tot!F3</f>
+        <v>108249943.57428239</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" si="0"/>
-        <v>0.1126609344517082</v>
+        <v>0.10824994357428239</v>
       </c>
       <c r="F3" s="22">
         <v>22340024</v>
       </c>
       <c r="G3" s="46">
         <f t="shared" ref="G3:G54" si="1">+D3/F3</f>
-        <v>5.0430086579901703</v>
+        <v>4.8455607556322411</v>
       </c>
       <c r="H3" s="48">
         <f t="shared" ref="H3:H54" si="2">+E3/$E$54*100</f>
-        <v>0.38217496297201969</v>
+        <v>0.35629189828862995</v>
       </c>
       <c r="I3" s="48">
         <f t="shared" ref="I3:I54" si="3">+F3/$F$54*100</f>
         <v>0.31961515124968365</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -8909,29 +8923,30 @@
         <v>285</v>
       </c>
       <c r="D4" s="20">
-        <v>106220956.5845519</v>
+        <f>sa_all_tot!F4</f>
+        <v>107443193.4190435</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>0.1062209565845519</v>
+        <v>0.1074431934190435</v>
       </c>
       <c r="F4" s="22">
         <v>11047744</v>
       </c>
       <c r="G4" s="46">
         <f t="shared" si="1"/>
-        <v>9.6147192209153207</v>
+        <v>9.7253514761967228</v>
       </c>
       <c r="H4" s="48">
         <f t="shared" si="2"/>
-        <v>0.36032889614416042</v>
+        <v>0.35363657547954724</v>
       </c>
       <c r="I4" s="48">
         <f t="shared" si="3"/>
         <v>0.15805830689921305</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -8942,29 +8957,30 @@
         <v>285</v>
       </c>
       <c r="D5" s="20">
-        <v>39729305.706589818</v>
+        <f>sa_all_tot!F5</f>
+        <v>38671413.323814981</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>3.9729305706589821E-2</v>
+        <v>3.8671413323814983E-2</v>
       </c>
       <c r="F5" s="22">
         <v>7348328</v>
       </c>
       <c r="G5" s="46">
         <f t="shared" si="1"/>
-        <v>5.4065776196421576</v>
+        <v>5.2626139339200675</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="2"/>
-        <v>0.13477205751234381</v>
+        <v>0.12728238747941165</v>
       </c>
       <c r="I5" s="48">
         <f t="shared" si="3"/>
         <v>0.10513135371529973</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
@@ -8975,29 +8991,30 @@
         <v>285</v>
       </c>
       <c r="D6" s="20">
-        <v>368741041.13499802</v>
+        <f>sa_all_tot!F7</f>
+        <v>393587342.94323951</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>0.368741041134998</v>
+        <v>0.39358734294323949</v>
       </c>
       <c r="F6" s="22">
         <v>34342780</v>
       </c>
       <c r="G6" s="46">
         <f t="shared" si="1"/>
-        <v>10.737076064750671</v>
+        <v>11.460555695934911</v>
       </c>
       <c r="H6" s="48">
         <f t="shared" si="2"/>
-        <v>1.2508647689447165</v>
+        <v>1.2954462323889893</v>
       </c>
       <c r="I6" s="48">
         <f t="shared" si="3"/>
         <v>0.49133666212868038</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
@@ -9008,29 +9025,30 @@
         <v>285</v>
       </c>
       <c r="D7" s="20">
-        <v>63957556.503143221</v>
+        <f>sa_all_tot!F8</f>
+        <v>67808079.461859137</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>6.395755650314322E-2</v>
+        <v>6.7808079461859141E-2</v>
       </c>
       <c r="F7" s="22">
         <v>7912398</v>
       </c>
       <c r="G7" s="46">
         <f t="shared" si="1"/>
-        <v>8.0832077080985076</v>
+        <v>8.5698519540926963</v>
       </c>
       <c r="H7" s="48">
         <f t="shared" si="2"/>
-        <v>0.21696053656333758</v>
+        <v>0.22318228123780537</v>
       </c>
       <c r="I7" s="48">
         <f t="shared" si="3"/>
         <v>0.11320141301180763</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
@@ -9041,29 +9059,30 @@
         <v>285</v>
       </c>
       <c r="D8" s="20">
-        <v>11604615.553122239</v>
+        <f>sa_all_tot!F10</f>
+        <v>11578761.17694564</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>1.1604615553122239E-2</v>
+        <v>1.157876117694564E-2</v>
       </c>
       <c r="F8" s="22">
         <v>1124835</v>
       </c>
       <c r="G8" s="46">
         <f t="shared" si="1"/>
-        <v>10.316726944949473</v>
+        <v>10.293741906097907</v>
       </c>
       <c r="H8" s="48">
         <f t="shared" si="2"/>
-        <v>3.9365850646481751E-2</v>
+        <v>3.8110124249013971E-2</v>
       </c>
       <c r="I8" s="48">
         <f t="shared" si="3"/>
         <v>1.6092834486477629E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
@@ -9074,29 +9093,30 @@
         <v>285</v>
       </c>
       <c r="D9" s="20">
-        <v>90241367.093096316</v>
+        <f>sa_all_tot!F11</f>
+        <v>92349111.921214342</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="0"/>
-        <v>9.0241367093096311E-2</v>
+        <v>9.2349111921214339E-2</v>
       </c>
       <c r="F9" s="22">
         <v>10496088</v>
       </c>
       <c r="G9" s="46">
         <f t="shared" si="1"/>
-        <v>8.5976191408738494</v>
+        <v>8.79843156052182</v>
       </c>
       <c r="H9" s="48">
         <f t="shared" si="2"/>
-        <v>0.30612200489187047</v>
+        <v>0.30395618977020539</v>
       </c>
       <c r="I9" s="48">
         <f t="shared" si="3"/>
         <v>0.15016585271573518</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>13</v>
       </c>
@@ -9107,29 +9127,30 @@
         <v>285</v>
       </c>
       <c r="D10" s="20">
-        <v>689341529.37134647</v>
+        <f>sa_all_tot!F12</f>
+        <v>701305689.79150891</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>0.68934152937134652</v>
+        <v>0.70130568979150887</v>
       </c>
       <c r="F10" s="22">
         <v>80274983</v>
       </c>
       <c r="G10" s="46">
         <f t="shared" si="1"/>
-        <v>8.5872522622813445</v>
+        <v>8.7362919751911861</v>
       </c>
       <c r="H10" s="48">
         <f t="shared" si="2"/>
-        <v>2.3384243592928522</v>
+        <v>2.3082648105490264</v>
       </c>
       <c r="I10" s="48">
         <f t="shared" si="3"/>
         <v>1.148481345996351</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
@@ -9140,29 +9161,30 @@
         <v>285</v>
       </c>
       <c r="D11" s="20">
-        <v>52471951.361834563</v>
+        <f>sa_all_tot!F13</f>
+        <v>52411913.074053742</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>5.2471951361834565E-2</v>
+        <v>5.241191307405374E-2</v>
       </c>
       <c r="F11" s="22">
         <v>5570572</v>
       </c>
       <c r="G11" s="46">
         <f t="shared" si="1"/>
-        <v>9.4194907384438373</v>
+        <v>9.4087129784973147</v>
       </c>
       <c r="H11" s="48">
         <f t="shared" si="2"/>
-        <v>0.17799839994558722</v>
+        <v>0.17250761880793952</v>
       </c>
       <c r="I11" s="48">
         <f t="shared" si="3"/>
         <v>7.9697282882384229E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -9173,29 +9195,30 @@
         <v>285</v>
       </c>
       <c r="D12" s="20">
-        <v>12772729.08670879</v>
+        <f>sa_all_tot!F14</f>
+        <v>12071398.906196009</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="0"/>
-        <v>1.2772729086708789E-2</v>
+        <v>1.2071398906196009E-2</v>
       </c>
       <c r="F12" s="22">
         <v>1327439</v>
       </c>
       <c r="G12" s="46">
         <f t="shared" si="1"/>
-        <v>9.6220836412888193</v>
+        <v>9.0937503766244703</v>
       </c>
       <c r="H12" s="48">
         <f t="shared" si="2"/>
-        <v>4.3328393196108067E-2</v>
+        <v>3.9731583123981125E-2</v>
       </c>
       <c r="I12" s="48">
         <f t="shared" si="3"/>
         <v>1.8991457518565281E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -9206,29 +9229,30 @@
         <v>285</v>
       </c>
       <c r="D13" s="20">
-        <v>282814663.09888661</v>
+        <f>sa_all_tot!F15</f>
+        <v>282179865.86761689</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="0"/>
-        <v>0.28281466309888659</v>
+        <v>0.2821798658676169</v>
       </c>
       <c r="F13" s="22">
         <v>46742697</v>
       </c>
       <c r="G13" s="46">
         <f t="shared" si="1"/>
-        <v>6.0504566755933364</v>
+        <v>6.0368760037020737</v>
       </c>
       <c r="H13" s="48">
         <f t="shared" si="2"/>
-        <v>0.95938032046140531</v>
+        <v>0.92876168567989659</v>
       </c>
       <c r="I13" s="48">
         <f t="shared" si="3"/>
         <v>0.6687402919295492</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
@@ -9239,29 +9263,30 @@
         <v>285</v>
       </c>
       <c r="D14" s="20">
-        <v>69242414.749683648</v>
+        <f>sa_all_tot!F16</f>
+        <v>82128969.216410249</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
-        <v>6.9242414749683651E-2</v>
+        <v>8.2128969216410247E-2</v>
       </c>
       <c r="F14" s="22">
         <v>5388272</v>
       </c>
       <c r="G14" s="46">
         <f t="shared" si="1"/>
-        <v>12.850578951783364</v>
+        <v>15.242172113139473</v>
       </c>
       <c r="H14" s="48">
         <f t="shared" si="2"/>
-        <v>0.23488813954757981</v>
+        <v>0.27031779768571806</v>
       </c>
       <c r="I14" s="48">
         <f t="shared" si="3"/>
         <v>7.7089145931733799E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>18</v>
       </c>
@@ -9272,29 +9297,30 @@
         <v>285</v>
       </c>
       <c r="D15" s="20">
-        <v>423361093.03921372</v>
+        <f>sa_all_tot!F17</f>
+        <v>429742207.59714329</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
-        <v>0.42336109303921371</v>
+        <v>0.42974220759714327</v>
       </c>
       <c r="F15" s="22">
         <v>65342776</v>
       </c>
       <c r="G15" s="46">
         <f t="shared" si="1"/>
-        <v>6.4790803047488179</v>
+        <v>6.5767363112510449</v>
       </c>
       <c r="H15" s="48">
         <f t="shared" si="2"/>
-        <v>1.4361500802694791</v>
+        <v>1.4144456972807959</v>
       </c>
       <c r="I15" s="48">
         <f t="shared" si="3"/>
         <v>0.93484864807281309</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
@@ -9305,29 +9331,30 @@
         <v>285</v>
       </c>
       <c r="D16" s="20">
-        <v>343935714.6380133</v>
+        <f>sa_all_tot!F18</f>
+        <v>342696173.40832651</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
-        <v>0.34393571463801331</v>
+        <v>0.34269617340832653</v>
       </c>
       <c r="F16" s="22">
         <v>63258918</v>
       </c>
       <c r="G16" s="46">
         <f t="shared" si="1"/>
-        <v>5.4369522197330866</v>
+        <v>5.4173574927147268</v>
       </c>
       <c r="H16" s="48">
         <f t="shared" si="2"/>
-        <v>1.1667187001975454</v>
+        <v>1.1279439612466475</v>
       </c>
       <c r="I16" s="48">
         <f t="shared" si="3"/>
         <v>0.90503522487090149</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>20</v>
       </c>
@@ -9338,29 +9365,30 @@
         <v>285</v>
       </c>
       <c r="D17" s="20">
-        <v>85746904.053285509</v>
+        <f>sa_all_tot!F19</f>
+        <v>75210900.98792477</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="0"/>
-        <v>8.5746904053285514E-2</v>
+        <v>7.5210900987924767E-2</v>
       </c>
       <c r="F17" s="22">
         <v>11104899</v>
       </c>
       <c r="G17" s="46">
         <f t="shared" si="1"/>
-        <v>7.7215383996995834</v>
+        <v>6.7727676755929762</v>
       </c>
       <c r="H17" s="48">
         <f t="shared" si="2"/>
-        <v>0.29087562641846026</v>
+        <v>0.24754779356164253</v>
       </c>
       <c r="I17" s="48">
         <f t="shared" si="3"/>
         <v>0.15887601434526036</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -9371,29 +9399,30 @@
         <v>285</v>
       </c>
       <c r="D18" s="20">
-        <v>18834048.20803339</v>
+        <f>sa_all_tot!F20</f>
+        <v>20155774.392564751</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>1.8834048208033392E-2</v>
+        <v>2.0155774392564753E-2</v>
       </c>
       <c r="F18" s="22">
         <v>4280622</v>
       </c>
       <c r="G18" s="46">
         <f t="shared" si="1"/>
-        <v>4.3998391374041876</v>
+        <v>4.7086087939006882</v>
       </c>
       <c r="H18" s="48">
         <f t="shared" si="2"/>
-        <v>6.3889951841325759E-2</v>
+        <v>6.6340349774652155E-2</v>
       </c>
       <c r="I18" s="48">
         <f t="shared" si="3"/>
         <v>6.12421744924143E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>22</v>
       </c>
@@ -9404,29 +9433,30 @@
         <v>285</v>
       </c>
       <c r="D19" s="20">
-        <v>34378619.569476753</v>
+        <f>sa_all_tot!F21</f>
+        <v>34644762.495037884</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
-        <v>3.4378619569476757E-2</v>
+        <v>3.4644762495037881E-2</v>
       </c>
       <c r="F19" s="22">
         <v>9971727</v>
       </c>
       <c r="G19" s="46">
         <f t="shared" si="1"/>
-        <v>3.4476093829561072</v>
+        <v>3.4742991354494444</v>
       </c>
       <c r="H19" s="48">
         <f t="shared" si="2"/>
-        <v>0.1166211493357156</v>
+        <v>0.11402914207198105</v>
       </c>
       <c r="I19" s="48">
         <f t="shared" si="3"/>
         <v>0.14266390373284982</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -9437,29 +9467,30 @@
         <v>285</v>
       </c>
       <c r="D20" s="20">
-        <v>48728718.076640829</v>
+        <f>sa_all_tot!F23</f>
+        <v>48414578.114542313</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="0"/>
-        <v>4.872871807664083E-2</v>
+        <v>4.8414578114542313E-2</v>
       </c>
       <c r="F20" s="22">
         <v>4576794</v>
       </c>
       <c r="G20" s="46">
         <f t="shared" si="1"/>
-        <v>10.646910932989519</v>
+        <v>10.578273375323931</v>
       </c>
       <c r="H20" s="48">
         <f t="shared" si="2"/>
-        <v>0.1653003866623958</v>
+        <v>0.15935086312018701</v>
       </c>
       <c r="I20" s="48">
         <f t="shared" si="3"/>
         <v>6.5479459939194545E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>26</v>
       </c>
@@ -9470,29 +9501,30 @@
         <v>285</v>
       </c>
       <c r="D21" s="20">
-        <v>380185201.39184368</v>
+        <f>sa_all_tot!F25</f>
+        <v>385968407.95946461</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="0"/>
-        <v>0.3801852013918437</v>
+        <v>0.38596840795946463</v>
       </c>
       <c r="F21" s="22">
         <v>59379449</v>
       </c>
       <c r="G21" s="46">
         <f t="shared" si="1"/>
-        <v>6.4026394281941501</v>
+        <v>6.5000335041752342</v>
       </c>
       <c r="H21" s="48">
         <f t="shared" si="2"/>
-        <v>1.2896863138190904</v>
+        <v>1.2703694081554133</v>
       </c>
       <c r="I21" s="48">
         <f t="shared" si="3"/>
         <v>0.84953228220604771</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
@@ -9503,29 +9535,30 @@
         <v>285</v>
       </c>
       <c r="D22" s="20">
-        <v>633298490.09926581</v>
+        <f>sa_all_tot!F26</f>
+        <v>648345996.24725461</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="0"/>
-        <v>0.63329849009926587</v>
+        <v>0.64834599624725464</v>
       </c>
       <c r="F22" s="22">
         <v>127833000</v>
       </c>
       <c r="G22" s="46">
         <f t="shared" si="1"/>
-        <v>4.9541080167035574</v>
+        <v>5.0718202361460234</v>
       </c>
       <c r="H22" s="48">
         <f t="shared" si="2"/>
-        <v>2.148311907599779</v>
+        <v>2.1339542370500371</v>
       </c>
       <c r="I22" s="48">
         <f t="shared" si="3"/>
         <v>1.8288862907981125</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
@@ -9536,29 +9569,30 @@
         <v>285</v>
       </c>
       <c r="D23" s="20">
-        <v>360972539.20595872</v>
+        <f>sa_all_tot!F27</f>
+        <v>363442892.33756542</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
-        <v>0.36097253920595873</v>
+        <v>0.36344289233756544</v>
       </c>
       <c r="F23" s="22">
         <v>49936638</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="1"/>
-        <v>7.2286111693374053</v>
+        <v>7.278080922018928</v>
       </c>
       <c r="H23" s="48">
         <f t="shared" si="2"/>
-        <v>1.2245120056596643</v>
+        <v>1.1962293351368132</v>
       </c>
       <c r="I23" s="48">
         <f t="shared" si="3"/>
         <v>0.71443549511274917</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
@@ -9569,29 +9603,30 @@
         <v>285</v>
       </c>
       <c r="D24" s="20">
-        <v>14492170.37266797</v>
+        <f>sa_all_tot!F28</f>
+        <v>14202793.34639835</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>1.449217037266797E-2</v>
+        <v>1.4202793346398349E-2</v>
       </c>
       <c r="F24" s="22">
         <v>3028115</v>
       </c>
       <c r="G24" s="46">
         <f t="shared" si="1"/>
-        <v>4.7858718617582126</v>
+        <v>4.6903084415216565</v>
       </c>
       <c r="H24" s="48">
         <f t="shared" si="2"/>
-        <v>4.916118175757421E-2</v>
+        <v>4.6746816074937962E-2</v>
       </c>
       <c r="I24" s="48">
         <f t="shared" si="3"/>
         <v>4.3322757116395036E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
@@ -9602,29 +9637,30 @@
         <v>285</v>
       </c>
       <c r="D25" s="20">
-        <v>10302245.38064893</v>
+        <f>sa_all_tot!F29</f>
+        <v>9922494.775849076</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>1.0302245380648929E-2</v>
+        <v>9.9224947758490764E-3</v>
       </c>
       <c r="F25" s="22">
         <v>518347</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="1"/>
-        <v>19.875190520344344</v>
+        <v>19.142572014208774</v>
       </c>
       <c r="H25" s="48">
         <f t="shared" si="2"/>
-        <v>3.4947874931446278E-2</v>
+        <v>3.2658719096886307E-2</v>
       </c>
       <c r="I25" s="48">
         <f t="shared" si="3"/>
         <v>7.4159076465101278E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>31</v>
       </c>
@@ -9635,29 +9671,30 @@
         <v>285</v>
       </c>
       <c r="D26" s="20">
-        <v>13012637.219805351</v>
+        <f>sa_all_tot!F30</f>
+        <v>12898672.5761442</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>1.301263721980535E-2</v>
+        <v>1.28986725761442E-2</v>
       </c>
       <c r="F26" s="22">
         <v>2059709</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="1"/>
-        <v>6.3177066371052177</v>
+        <v>6.2623761784524898</v>
       </c>
       <c r="H26" s="48">
         <f t="shared" si="2"/>
-        <v>4.4142223494330612E-2</v>
+        <v>4.2454456656638266E-2</v>
       </c>
       <c r="I26" s="48">
         <f t="shared" si="3"/>
         <v>2.9467927320281063E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>32</v>
       </c>
@@ -9668,29 +9705,30 @@
         <v>285</v>
       </c>
       <c r="D27" s="20">
-        <v>2055454.8250833149</v>
+        <f>sa_all_tot!F31</f>
+        <v>2041467.3933033559</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
-        <v>2.055454825083315E-3</v>
+        <v>2.041467393303356E-3</v>
       </c>
       <c r="F27" s="22">
         <v>416268</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="1"/>
-        <v>4.9378160826278137</v>
+        <v>4.9042140959750835</v>
       </c>
       <c r="H27" s="48">
         <f t="shared" si="2"/>
-        <v>6.9726331979218237E-3</v>
+        <v>6.7192487020122276E-3</v>
       </c>
       <c r="I27" s="48">
         <f t="shared" si="3"/>
         <v>5.9554797157068103E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>34</v>
       </c>
@@ -9701,29 +9739,30 @@
         <v>285</v>
       </c>
       <c r="D28" s="20">
-        <v>115635736.58471</v>
+        <f>sa_all_tot!F33</f>
+        <v>117017944.5745475</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>0.11563573658471001</v>
+        <v>0.11701794457454751</v>
       </c>
       <c r="F28" s="22">
         <v>16693074</v>
       </c>
       <c r="G28" s="46">
         <f t="shared" si="1"/>
-        <v>6.9271685122051219</v>
+        <v>7.0099697979262237</v>
       </c>
       <c r="H28" s="48">
         <f t="shared" si="2"/>
-        <v>0.39226625948542088</v>
+        <v>0.38515073754000895</v>
       </c>
       <c r="I28" s="48">
         <f t="shared" si="3"/>
         <v>0.23882514053396547</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>35</v>
       </c>
@@ -9734,29 +9773,30 @@
         <v>285</v>
       </c>
       <c r="D29" s="20">
-        <v>69248891.908132568</v>
+        <f>sa_all_tot!F34</f>
+        <v>73008136.784308568</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
-        <v>6.9248891908132562E-2</v>
+        <v>7.3008136784308564E-2</v>
       </c>
       <c r="F29" s="22">
         <v>4953088</v>
       </c>
       <c r="G29" s="46">
         <f t="shared" si="1"/>
-        <v>13.98095327765882</v>
+        <v>14.739923212409828</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="2"/>
-        <v>0.2349101117405358</v>
+        <v>0.24029765546757414</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="3"/>
         <v>7.0863038028651765E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>36</v>
       </c>
@@ -9767,29 +9807,30 @@
         <v>285</v>
       </c>
       <c r="D30" s="20">
-        <v>373776843.45659059</v>
+        <f>sa_all_tot!F35</f>
+        <v>375305395.37368208</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>0.37377684345659057</v>
+        <v>0.37530539537368207</v>
       </c>
       <c r="F30" s="22">
         <v>38063255</v>
       </c>
       <c r="G30" s="46">
         <f t="shared" si="1"/>
-        <v>9.8198864878106349</v>
+        <v>9.8600446907045143</v>
       </c>
       <c r="H30" s="48">
         <f t="shared" si="2"/>
-        <v>1.267947509960095</v>
+        <v>1.2352733621878973</v>
       </c>
       <c r="I30" s="48">
         <f t="shared" si="3"/>
         <v>0.54456490305830818</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>37</v>
       </c>
@@ -9800,29 +9841,30 @@
         <v>285</v>
       </c>
       <c r="D31" s="20">
-        <v>106646427.66591971</v>
+        <f>sa_all_tot!F36</f>
+        <v>107966856.9287084</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>0.10664642766591971</v>
+        <v>0.1079668569287084</v>
       </c>
       <c r="F31" s="22">
         <v>10557560</v>
       </c>
       <c r="G31" s="46">
         <f t="shared" si="1"/>
-        <v>10.101427570946289</v>
+        <v>10.226497119477266</v>
       </c>
       <c r="H31" s="48">
         <f t="shared" si="2"/>
-        <v>0.36177220384934472</v>
+        <v>0.35536015204469307</v>
       </c>
       <c r="I31" s="48">
         <f t="shared" si="3"/>
         <v>0.15104532279050417</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>40</v>
       </c>
@@ -9833,29 +9875,30 @@
         <v>285</v>
       </c>
       <c r="D32" s="20">
-        <v>102306980.303395</v>
+        <f>sa_all_tot!F39</f>
+        <v>108938064.3344537</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>0.10230698030339501</v>
+        <v>0.1089380643344537</v>
       </c>
       <c r="F32" s="22">
         <v>9449213</v>
       </c>
       <c r="G32" s="46">
         <f t="shared" si="1"/>
-        <v>10.827037162078472</v>
+        <v>11.528797618854998</v>
       </c>
       <c r="H32" s="48">
         <f t="shared" si="2"/>
-        <v>0.34705167855667735</v>
+        <v>0.35855676646128642</v>
       </c>
       <c r="I32" s="48">
         <f t="shared" si="3"/>
         <v>0.13518837948363335</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>41</v>
       </c>
@@ -9866,29 +9909,30 @@
         <v>285</v>
       </c>
       <c r="D33" s="20">
-        <v>15357358.397783039</v>
+        <f>sa_all_tot!F40</f>
+        <v>14090150.77847252</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>1.5357358397783039E-2</v>
+        <v>1.409015077847252E-2</v>
       </c>
       <c r="F33" s="22">
         <v>2052843</v>
       </c>
       <c r="G33" s="46">
         <f t="shared" si="1"/>
-        <v>7.481019443660835</v>
+        <v>6.8637254668148122</v>
       </c>
       <c r="H33" s="48">
         <f t="shared" si="2"/>
-        <v>5.209612280942498E-2</v>
+        <v>4.6376066372635714E-2</v>
       </c>
       <c r="I33" s="48">
         <f t="shared" si="3"/>
         <v>2.9369696556138629E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>42</v>
       </c>
@@ -9899,29 +9943,30 @@
         <v>285</v>
       </c>
       <c r="D34" s="20">
-        <v>38144230.556214146</v>
+        <f>sa_all_tot!F41</f>
+        <v>40594280.950588249</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>3.8144230556214145E-2</v>
+        <v>4.059428095058825E-2</v>
       </c>
       <c r="F34" s="22">
         <v>5398384</v>
       </c>
       <c r="G34" s="46">
         <f t="shared" si="1"/>
-        <v>7.0658609236049426</v>
+        <v>7.5197097780721505</v>
       </c>
       <c r="H34" s="48">
         <f t="shared" si="2"/>
-        <v>0.12939507355733892</v>
+        <v>0.1336112790638278</v>
       </c>
       <c r="I34" s="48">
         <f t="shared" si="3"/>
         <v>7.7233816698848323E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>44</v>
       </c>
@@ -9932,29 +9977,30 @@
         <v>285</v>
       </c>
       <c r="D35" s="20">
-        <v>2043292736.1426079</v>
+        <f>sa_all_tot!F43</f>
+        <v>2131730641.399236</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>2.0432927361426079</v>
+        <v>2.1317306413992361</v>
       </c>
       <c r="F35" s="22">
         <v>311663358</v>
       </c>
       <c r="G35" s="46">
         <f t="shared" si="1"/>
-        <v>6.556089073976441</v>
+        <v>6.8398500711759516</v>
       </c>
       <c r="H35" s="48">
         <f t="shared" si="2"/>
-        <v>6.9313762536829175</v>
+        <v>7.0163395174703451</v>
       </c>
       <c r="I35" s="48">
         <f t="shared" si="3"/>
         <v>4.4589178286538234</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
         <v>293</v>
       </c>
@@ -9962,11 +10008,11 @@
       <c r="C36" s="51"/>
       <c r="D36" s="52">
         <f>+SUM(D2:D35)</f>
-        <v>7226061265.9787159</v>
+        <v>7407513476.4643612</v>
       </c>
       <c r="E36" s="52">
         <f t="shared" ref="E36:F36" si="4">+SUM(E2:E35)</f>
-        <v>7.2260612659787142</v>
+        <v>7.4075134764643629</v>
       </c>
       <c r="F36" s="52">
         <f t="shared" si="4"/>
@@ -9974,18 +10020,18 @@
       </c>
       <c r="G36" s="53">
         <f t="shared" si="1"/>
-        <v>6.9291749449551583</v>
+        <v>7.1031721011270097</v>
       </c>
       <c r="H36" s="54">
         <f t="shared" si="2"/>
-        <v>24.512664573563619</v>
+        <v>24.380955324166251</v>
       </c>
       <c r="I36" s="54">
         <f t="shared" si="3"/>
         <v>14.919828684235229</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
         <v>10</v>
       </c>
@@ -9996,29 +10042,30 @@
         <v>286</v>
       </c>
       <c r="D37" s="52">
-        <v>13651427956.138</v>
+        <f>sa_all_tot!F9</f>
+        <v>13795948442.759291</v>
       </c>
       <c r="E37" s="55">
         <f t="shared" ref="E37:E45" si="5">+D37/1000000000</f>
-        <v>13.651427956138001</v>
+        <v>13.795948442759292</v>
       </c>
       <c r="F37" s="56">
         <v>1344130000</v>
       </c>
       <c r="G37" s="53">
         <f t="shared" si="1"/>
-        <v>10.156330084246315</v>
+        <v>10.263849808247187</v>
       </c>
       <c r="H37" s="54">
         <f t="shared" si="2"/>
-        <v>46.309166518484609</v>
+        <v>45.407734148053216</v>
       </c>
       <c r="I37" s="54">
         <f t="shared" si="3"/>
         <v>19.230252986712873</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>7</v>
       </c>
@@ -10029,29 +10076,30 @@
         <v>286</v>
       </c>
       <c r="D38" s="20">
-        <v>534910927.78213161</v>
+        <f>sa_all_tot!F6</f>
+        <v>553471945.23378599</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="5"/>
-        <v>0.53491092778213156</v>
+        <v>0.55347194523378596</v>
       </c>
       <c r="F38" s="22">
         <v>198686688</v>
       </c>
       <c r="G38" s="46">
         <f t="shared" si="1"/>
-        <v>2.6922333507423084</v>
+        <v>2.7856518763541218</v>
       </c>
       <c r="H38" s="48">
         <f t="shared" si="2"/>
-        <v>1.8145559062985848</v>
+        <v>1.8216875086085098</v>
       </c>
       <c r="I38" s="48">
         <f t="shared" si="3"/>
         <v>2.8425786756728062</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>33</v>
       </c>
@@ -10062,29 +10110,30 @@
         <v>286</v>
       </c>
       <c r="D39" s="20">
-        <v>262823259.1642558</v>
+        <f>sa_all_tot!F32</f>
+        <v>272770771.20221782</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="5"/>
-        <v>0.26282325916425581</v>
+        <v>0.27277077120221782</v>
       </c>
       <c r="F39" s="22">
         <v>119090017</v>
       </c>
       <c r="G39" s="46">
         <f t="shared" si="1"/>
-        <v>2.2069293949656235</v>
+        <v>2.2904587477069369</v>
       </c>
       <c r="H39" s="48">
         <f t="shared" si="2"/>
-        <v>0.89156431932792324</v>
+        <v>0.89779276238238004</v>
       </c>
       <c r="I39" s="48">
         <f t="shared" si="3"/>
         <v>1.703801830999931</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>38</v>
       </c>
@@ -10095,29 +10144,30 @@
         <v>286</v>
       </c>
       <c r="D40" s="20">
-        <v>101105324.6875743</v>
+        <f>sa_all_tot!F37</f>
+        <v>104495160.60823961</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="5"/>
-        <v>0.1011053246875743</v>
+        <v>0.1044951606082396</v>
       </c>
       <c r="F40" s="22">
         <v>20147528</v>
       </c>
       <c r="G40" s="46">
         <f t="shared" si="1"/>
-        <v>5.0182496178972578</v>
+        <v>5.1865003293823246</v>
       </c>
       <c r="H40" s="48">
         <f t="shared" si="2"/>
-        <v>0.34297535260823375</v>
+        <v>0.34393347382704875</v>
       </c>
       <c r="I40" s="48">
         <f t="shared" si="3"/>
         <v>0.28824746155273762</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>39</v>
       </c>
@@ -10128,29 +10178,30 @@
         <v>286</v>
       </c>
       <c r="D41" s="20">
-        <v>518133879.11002028</v>
+        <f>sa_all_tot!F38</f>
+        <v>527970892.55368721</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="5"/>
-        <v>0.51813387911002029</v>
+        <v>0.52797089255368723</v>
       </c>
       <c r="F41" s="22">
         <v>142960868</v>
       </c>
       <c r="G41" s="46">
         <f t="shared" si="1"/>
-        <v>3.6243056324337668</v>
+        <v>3.6931147658790602</v>
       </c>
       <c r="H41" s="48">
         <f t="shared" si="2"/>
-        <v>1.7576438277129747</v>
+        <v>1.7377538069570537</v>
       </c>
       <c r="I41" s="48">
         <f t="shared" si="3"/>
         <v>2.0453182793629074</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>43</v>
       </c>
@@ -10161,29 +10212,30 @@
         <v>286</v>
       </c>
       <c r="D42" s="20">
-        <v>357300139.14851749</v>
+        <f>sa_all_tot!F42</f>
+        <v>377571298.37313521</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="5"/>
-        <v>0.35730013914851749</v>
+        <v>0.37757129837313519</v>
       </c>
       <c r="F42" s="22">
         <v>73409455</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="1"/>
-        <v>4.8672223373476546</v>
+        <v>5.1433605980746648</v>
       </c>
       <c r="H42" s="48">
         <f t="shared" si="2"/>
-        <v>1.2120542769642517</v>
+        <v>1.242731314167882</v>
       </c>
       <c r="I42" s="48">
         <f t="shared" si="3"/>
         <v>1.0502573346824446</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>46</v>
       </c>
@@ -10194,29 +10246,30 @@
         <v>286</v>
       </c>
       <c r="D43" s="20">
-        <v>168602803.35740989</v>
+        <f>sa_all_tot!F45</f>
+        <v>193433124.08782101</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="5"/>
-        <v>0.1686028033574099</v>
+        <v>0.19343312408782101</v>
       </c>
       <c r="F43" s="22">
         <v>158263341</v>
       </c>
       <c r="G43" s="46">
         <f t="shared" si="1"/>
-        <v>1.0653307474243823</v>
+        <v>1.2222231810954944</v>
       </c>
       <c r="H43" s="48">
         <f t="shared" si="2"/>
-        <v>0.57194421867428291</v>
+        <v>0.63666227156836408</v>
       </c>
       <c r="I43" s="48">
         <f t="shared" si="3"/>
         <v>2.2642483137437659</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>48</v>
       </c>
@@ -10227,29 +10280,30 @@
         <v>286</v>
       </c>
       <c r="D44" s="20">
-        <v>738932671.19155633</v>
+        <f>sa_all_tot!F47</f>
+        <v>746797950.35494196</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="5"/>
-        <v>0.73893267119155637</v>
+        <v>0.74679795035494201</v>
       </c>
       <c r="F44" s="22">
         <v>285822469</v>
       </c>
       <c r="G44" s="46">
         <f t="shared" si="1"/>
-        <v>2.5852854528086677</v>
+        <v>2.6128035104019132</v>
       </c>
       <c r="H44" s="48">
         <f t="shared" si="2"/>
-        <v>2.5066503098507433</v>
+        <v>2.457997210755444</v>
       </c>
       <c r="I44" s="48">
         <f t="shared" si="3"/>
         <v>4.0892163616293793</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>50</v>
       </c>
@@ -10260,29 +10314,30 @@
         <v>286</v>
       </c>
       <c r="D45" s="29">
-        <v>113632661.05947959</v>
+        <f>sa_all_tot!F49</f>
+        <v>122102777.4418955</v>
       </c>
       <c r="E45" s="30">
         <f t="shared" si="5"/>
-        <v>0.1136326610594796</v>
+        <v>0.1221027774418955</v>
       </c>
       <c r="F45" s="31">
         <v>51729345.359999999</v>
       </c>
       <c r="G45" s="46">
         <f t="shared" si="1"/>
-        <v>2.1966769590582653</v>
+        <v>2.3604160576969555</v>
       </c>
       <c r="H45" s="48">
         <f t="shared" si="2"/>
-        <v>0.38547131038961674</v>
+        <v>0.40188686409091695</v>
       </c>
       <c r="I45" s="48">
         <f t="shared" si="3"/>
         <v>0.74008347266249674</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="49" t="s">
         <v>294</v>
       </c>
@@ -10290,11 +10345,11 @@
       <c r="C46" s="57"/>
       <c r="D46" s="53">
         <f>+SUM(D38:D45)</f>
-        <v>2795441665.5009456</v>
+        <v>2898613919.8557243</v>
       </c>
       <c r="E46" s="53">
         <f t="shared" ref="E46:F46" si="6">+SUM(E38:E45)</f>
-        <v>2.7954416655009453</v>
+        <v>2.8986139198557241</v>
       </c>
       <c r="F46" s="53">
         <f t="shared" si="6"/>
@@ -10302,18 +10357,18 @@
       </c>
       <c r="G46" s="53">
         <f t="shared" si="1"/>
-        <v>2.6620472463592031</v>
+        <v>2.7602962704741789</v>
       </c>
       <c r="H46" s="54">
         <f t="shared" si="2"/>
-        <v>9.4828595218266098</v>
+        <v>9.5404452123575982</v>
       </c>
       <c r="I46" s="54">
         <f t="shared" si="3"/>
         <v>15.02375173030647</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>45</v>
       </c>
@@ -10324,29 +10379,30 @@
         <v>288</v>
       </c>
       <c r="D47" s="20">
-        <v>1757429364.646868</v>
+        <f>sa_all_tot!F44</f>
+        <v>1726057111.111629</v>
       </c>
       <c r="E47" s="21">
         <f>+D47/1000000000</f>
-        <v>1.7574293646468679</v>
+        <v>1.726057111111629</v>
       </c>
       <c r="F47" s="22">
         <v>813751154</v>
       </c>
       <c r="G47" s="46">
         <f t="shared" si="1"/>
-        <v>2.1596643593169862</v>
+        <v>2.1211117214730599</v>
       </c>
       <c r="H47" s="48">
         <f t="shared" si="2"/>
-        <v>5.9616539275888556</v>
+        <v>5.6811130275605572</v>
       </c>
       <c r="I47" s="48">
         <f t="shared" si="3"/>
         <v>11.642207643345174</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>49</v>
       </c>
@@ -10357,29 +10413,30 @@
         <v>288</v>
       </c>
       <c r="D48" s="20">
-        <v>1615997994.45859</v>
+        <f>sa_all_tot!F48</f>
+        <v>1613080038.8132379</v>
       </c>
       <c r="E48" s="21">
         <f>+D48/1000000000</f>
-        <v>1.61599799445859</v>
+        <v>1.6130800388132378</v>
       </c>
       <c r="F48" s="22">
         <v>396156980</v>
       </c>
       <c r="G48" s="46">
         <f t="shared" si="1"/>
-        <v>4.0791859693058798</v>
+        <v>4.0718203142936868</v>
       </c>
       <c r="H48" s="48">
         <f t="shared" si="2"/>
-        <v>5.4818822220918078</v>
+        <v>5.3092623436415991</v>
       </c>
       <c r="I48" s="48">
         <f t="shared" si="3"/>
         <v>5.6677545682725272</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="49" t="s">
         <v>296</v>
       </c>
@@ -10387,11 +10444,11 @@
       <c r="C49" s="57"/>
       <c r="D49" s="53">
         <f>+SUM(D47:D48)</f>
-        <v>3373427359.1054583</v>
+        <v>3339137149.9248667</v>
       </c>
       <c r="E49" s="53">
         <f t="shared" ref="E49:F49" si="7">+SUM(E47:E48)</f>
-        <v>3.3734273591054578</v>
+        <v>3.3391371499248668</v>
       </c>
       <c r="F49" s="53">
         <f t="shared" si="7"/>
@@ -10399,20 +10456,20 @@
       </c>
       <c r="G49" s="53">
         <f t="shared" si="1"/>
-        <v>2.7881681793086104</v>
+        <v>2.7598270117298562</v>
       </c>
       <c r="H49" s="54">
         <f t="shared" si="2"/>
-        <v>11.443536149680662</v>
+        <v>10.990375371202157</v>
       </c>
       <c r="I49" s="54">
         <f t="shared" si="3"/>
         <v>17.309962211617702</v>
       </c>
-      <c r="K49" s="58"/>
-      <c r="L49" s="48"/>
-    </row>
-    <row r="50" spans="1:12" ht="15">
+      <c r="J49" s="58"/>
+      <c r="K49" s="48"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>23</v>
       </c>
@@ -10423,29 +10480,30 @@
         <v>287</v>
       </c>
       <c r="D50" s="20">
-        <v>335053913.60586298</v>
+        <f>sa_all_tot!F22</f>
+        <v>376956215.84006202</v>
       </c>
       <c r="E50" s="21">
         <f>+D50/1000000000</f>
-        <v>0.33505391360586295</v>
+        <v>0.376956215840062</v>
       </c>
       <c r="F50" s="22">
         <v>245707511</v>
       </c>
       <c r="G50" s="46">
         <f t="shared" si="1"/>
-        <v>1.3636291061768273</v>
+        <v>1.5341664335204714</v>
       </c>
       <c r="H50" s="48">
         <f t="shared" si="2"/>
-        <v>1.1365893390564668</v>
+        <v>1.2407068426894055</v>
       </c>
       <c r="I50" s="48">
         <f t="shared" si="3"/>
         <v>3.5152980718126496</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>25</v>
       </c>
@@ -10456,29 +10514,30 @@
         <v>287</v>
       </c>
       <c r="D51" s="20">
-        <v>1348813963.3698461</v>
+        <f>sa_all_tot!F24</f>
+        <v>1636484556.7544839</v>
       </c>
       <c r="E51" s="21">
         <f>+D51/1000000000</f>
-        <v>1.3488139633698462</v>
+        <v>1.6364845567544839</v>
       </c>
       <c r="F51" s="22">
         <v>1247236029</v>
       </c>
       <c r="G51" s="46">
         <f t="shared" si="1"/>
-        <v>1.0814424311100832</v>
+        <v>1.3120889059519656</v>
       </c>
       <c r="H51" s="48">
         <f t="shared" si="2"/>
-        <v>4.575525039054015</v>
+        <v>5.3862955489300122</v>
       </c>
       <c r="I51" s="48">
         <f t="shared" si="3"/>
         <v>17.844006436738375</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>47</v>
       </c>
@@ -10489,29 +10548,30 @@
         <v>289</v>
       </c>
       <c r="D52" s="20">
-        <v>748663224.67444539</v>
+        <f>sa_all_tot!F46</f>
+        <v>927722064.01983166</v>
       </c>
       <c r="E52" s="21">
         <f>+D52/1000000000</f>
-        <v>0.74866322467444535</v>
+        <v>0.9277220640198317</v>
       </c>
       <c r="F52" s="22">
         <v>849726410</v>
       </c>
       <c r="G52" s="46">
         <f t="shared" si="1"/>
-        <v>0.881063852863471</v>
+        <v>1.0917891371880881</v>
       </c>
       <c r="H52" s="48">
         <f t="shared" si="2"/>
-        <v>2.5396588583340192</v>
+        <v>3.0534875526013678</v>
       </c>
       <c r="I52" s="48">
         <f t="shared" si="3"/>
         <v>12.156899878576706</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="49" t="s">
         <v>297</v>
       </c>
@@ -10519,11 +10579,11 @@
       <c r="C53" s="57"/>
       <c r="D53" s="53">
         <f>+SUM(D50:D52)</f>
-        <v>2432531101.6501541</v>
+        <v>2941162836.6143775</v>
       </c>
       <c r="E53" s="53">
         <f t="shared" ref="E53:F53" si="8">+SUM(E50:E52)</f>
-        <v>2.4325311016501545</v>
+        <v>2.9411628366143776</v>
       </c>
       <c r="F53" s="53">
         <f t="shared" si="8"/>
@@ -10531,18 +10591,18 @@
       </c>
       <c r="G53" s="53">
         <f>+D53/F53</f>
-        <v>1.0383584344222943</v>
+        <v>1.2554746931441954</v>
       </c>
       <c r="H53" s="54">
         <f t="shared" si="2"/>
-        <v>8.2517732364445013</v>
+        <v>9.6804899442207866</v>
       </c>
       <c r="I53" s="54">
         <f t="shared" si="3"/>
         <v>33.516204387127736</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="59" t="s">
         <v>295</v>
       </c>
@@ -10550,11 +10610,11 @@
       <c r="C54" s="60"/>
       <c r="D54" s="61">
         <f>+D53+D49+D46+D37+D36</f>
-        <v>29478889348.373276</v>
+        <v>30382375825.618622</v>
       </c>
       <c r="E54" s="61">
         <f t="shared" ref="E54:F54" si="9">+E53+E49+E46+E37+E36</f>
-        <v>29.478889348373272</v>
+        <v>30.38237582561862</v>
       </c>
       <c r="F54" s="61">
         <f t="shared" si="9"/>
@@ -10562,7 +10622,7 @@
       </c>
       <c r="G54" s="62">
         <f t="shared" si="1"/>
-        <v>4.217497563007548</v>
+        <v>4.3467579286529991</v>
       </c>
       <c r="H54" s="63">
         <f t="shared" si="2"/>
@@ -10573,16 +10633,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="47"/>
       <c r="E55" s="58"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E56" s="58"/>
-      <c r="J56" s="8">
-        <f>40/74*100</f>
-        <v>54.054054054054056</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data_S2.xlsx
+++ b/Data_S2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22500638-7CB6-4370-AB88-ADE25390081E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95D40C-A8A8-4075-9BD2-D326EABA778F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="311">
   <si>
     <t>Stock additions (tonnes)</t>
   </si>
@@ -987,6 +987,9 @@
       </rPr>
       <t xml:space="preserve">Journal of Industrial Ecology. </t>
     </r>
+  </si>
+  <si>
+    <t>13/10/202</t>
   </si>
 </sst>
 </file>
@@ -1963,8 +1966,8 @@
       <c r="A12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="9">
-        <v>44084</v>
+      <c r="C12" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
@@ -2014,7 +2017,10 @@
   <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2076,18 +2082,18 @@
         <v>285</v>
       </c>
       <c r="F2">
-        <v>101389201.0326599</v>
+        <v>101272075.7867339</v>
       </c>
       <c r="G2" s="21">
         <f>+F2/1000000000</f>
-        <v>0.1013892010326599</v>
+        <v>0.10127207578673389</v>
       </c>
       <c r="H2" s="22">
         <v>8391643</v>
       </c>
       <c r="I2" s="23">
         <f>+F2/H2</f>
-        <v>12.08216329420352</v>
+        <v>12.068205926626513</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2107,18 +2113,18 @@
         <v>285</v>
       </c>
       <c r="F3">
-        <v>108249943.57428239</v>
+        <v>109021675.1835863</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G66" si="0">+F3/1000000000</f>
-        <v>0.10824994357428239</v>
+        <v>0.1090216751835863</v>
       </c>
       <c r="H3" s="22">
         <v>22340024</v>
       </c>
       <c r="I3" s="23">
         <f t="shared" ref="I3:I49" si="1">+F3/H3</f>
-        <v>4.8455607556322411</v>
+        <v>4.8801055533148174</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2138,18 +2144,18 @@
         <v>285</v>
       </c>
       <c r="F4">
-        <v>107443193.4190435</v>
+        <v>105802274.0149852</v>
       </c>
       <c r="G4" s="21">
         <f t="shared" si="0"/>
-        <v>0.1074431934190435</v>
+        <v>0.10580227401498521</v>
       </c>
       <c r="H4" s="22">
         <v>11047744</v>
       </c>
       <c r="I4" s="23">
         <f t="shared" si="1"/>
-        <v>9.7253514761967228</v>
+        <v>9.5768216583390426</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2169,18 +2175,18 @@
         <v>285</v>
       </c>
       <c r="F5">
-        <v>38671413.323814981</v>
+        <v>37979511.53022062</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="0"/>
-        <v>3.8671413323814983E-2</v>
+        <v>3.7979511530220618E-2</v>
       </c>
       <c r="H5" s="22">
         <v>7348328</v>
       </c>
       <c r="I5" s="23">
         <f t="shared" si="1"/>
-        <v>5.2626139339200675</v>
+        <v>5.1684562161923937</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2200,18 +2206,18 @@
         <v>286</v>
       </c>
       <c r="F6">
-        <v>553471945.23378599</v>
+        <v>550940375.47330797</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>0.55347194523378596</v>
+        <v>0.55094037547330799</v>
       </c>
       <c r="H6" s="22">
         <v>198686688</v>
       </c>
       <c r="I6" s="23">
         <f t="shared" si="1"/>
-        <v>2.7856518763541218</v>
+        <v>2.7729103596175904</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2231,18 +2237,18 @@
         <v>285</v>
       </c>
       <c r="F7">
-        <v>393587342.94323951</v>
+        <v>393306803.89212358</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="0"/>
-        <v>0.39358734294323949</v>
+        <v>0.39330680389212358</v>
       </c>
       <c r="H7" s="22">
         <v>34342780</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" si="1"/>
-        <v>11.460555695934911</v>
+        <v>11.452386903218772</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2262,18 +2268,18 @@
         <v>285</v>
       </c>
       <c r="F8">
-        <v>67808079.461859137</v>
+        <v>67714485.879250303</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>6.7808079461859141E-2</v>
+        <v>6.7714485879250302E-2</v>
       </c>
       <c r="H8" s="22">
         <v>7912398</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="1"/>
-        <v>8.5698519540926963</v>
+        <v>8.5580232287670945</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2293,18 +2299,18 @@
         <v>286</v>
       </c>
       <c r="F9">
-        <v>13795948442.759291</v>
+        <v>13826419724.27739</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="0"/>
-        <v>13.795948442759292</v>
+        <v>13.82641972427739</v>
       </c>
       <c r="H9" s="22">
         <v>1344130000</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="1"/>
-        <v>10.263849808247187</v>
+        <v>10.286519699937795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2324,18 +2330,18 @@
         <v>285</v>
       </c>
       <c r="F10">
-        <v>11578761.17694564</v>
+        <v>11579109.315412</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="0"/>
-        <v>1.157876117694564E-2</v>
+        <v>1.1579109315411999E-2</v>
       </c>
       <c r="H10" s="22">
         <v>1124835</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="1"/>
-        <v>10.293741906097907</v>
+        <v>10.294051407906048</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2355,18 +2361,18 @@
         <v>285</v>
       </c>
       <c r="F11">
-        <v>92349111.921214342</v>
+        <v>90337498.874392003</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="0"/>
-        <v>9.2349111921214339E-2</v>
+        <v>9.0337498874392005E-2</v>
       </c>
       <c r="H11" s="22">
         <v>10496088</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="1"/>
-        <v>8.79843156052182</v>
+        <v>8.6067779609309678</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2386,18 +2392,18 @@
         <v>285</v>
       </c>
       <c r="F12">
-        <v>701305689.79150891</v>
+        <v>700117418.71123314</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>0.70130568979150887</v>
+        <v>0.70011741871123312</v>
       </c>
       <c r="H12" s="22">
         <v>80274983</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="1"/>
-        <v>8.7362919751911861</v>
+        <v>8.7214894671635506</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2417,18 +2423,18 @@
         <v>285</v>
       </c>
       <c r="F13">
-        <v>52411913.074053742</v>
+        <v>52398711.876658797</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>5.241191307405374E-2</v>
+        <v>5.2398711876658795E-2</v>
       </c>
       <c r="H13" s="22">
         <v>5570572</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="1"/>
-        <v>9.4087129784973147</v>
+        <v>9.4063431684679415</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2448,18 +2454,18 @@
         <v>285</v>
       </c>
       <c r="F14">
-        <v>12071398.906196009</v>
+        <v>12108405.31857335</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>1.2071398906196009E-2</v>
+        <v>1.2108405318573351E-2</v>
       </c>
       <c r="H14" s="22">
         <v>1327439</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="1"/>
-        <v>9.0937503766244703</v>
+        <v>9.1216284278022197</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2479,18 +2485,18 @@
         <v>285</v>
       </c>
       <c r="F15">
-        <v>282179865.86761689</v>
+        <v>281205748.08100861</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="0"/>
-        <v>0.2821798658676169</v>
+        <v>0.28120574808100862</v>
       </c>
       <c r="H15" s="22">
         <v>46742697</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="1"/>
-        <v>6.0368760037020737</v>
+        <v>6.0160360041058096</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2510,18 +2516,18 @@
         <v>285</v>
       </c>
       <c r="F16">
-        <v>82128969.216410249</v>
+        <v>81850768.140337244</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="0"/>
-        <v>8.2128969216410247E-2</v>
+        <v>8.1850768140337246E-2</v>
       </c>
       <c r="H16" s="22">
         <v>5388272</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="1"/>
-        <v>15.242172113139473</v>
+        <v>15.190541260785878</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2541,18 +2547,18 @@
         <v>285</v>
       </c>
       <c r="F17">
-        <v>429742207.59714329</v>
+        <v>429102918.14303857</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v>0.42974220759714327</v>
+        <v>0.42910291814303858</v>
       </c>
       <c r="H17" s="22">
         <v>65342776</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="1"/>
-        <v>6.5767363112510449</v>
+        <v>6.5669526826200126</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2572,18 +2578,18 @@
         <v>285</v>
       </c>
       <c r="F18">
-        <v>342696173.40832651</v>
+        <v>343077724.11224473</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v>0.34269617340832653</v>
+        <v>0.34307772411224474</v>
       </c>
       <c r="H18" s="22">
         <v>63258918</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="1"/>
-        <v>5.4173574927147268</v>
+        <v>5.423389064483283</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2603,18 +2609,18 @@
         <v>285</v>
       </c>
       <c r="F19">
-        <v>75210900.98792477</v>
+        <v>75384562.434790298</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="0"/>
-        <v>7.5210900987924767E-2</v>
+        <v>7.5384562434790303E-2</v>
       </c>
       <c r="H19" s="22">
         <v>11104899</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="1"/>
-        <v>6.7727676755929762</v>
+        <v>6.7884059490131605</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2634,18 +2640,18 @@
         <v>285</v>
       </c>
       <c r="F20">
-        <v>20155774.392564751</v>
+        <v>20150230.748340368</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v>2.0155774392564753E-2</v>
+        <v>2.0150230748340367E-2</v>
       </c>
       <c r="H20" s="22">
         <v>4280622</v>
       </c>
       <c r="I20" s="23">
         <f t="shared" si="1"/>
-        <v>4.7086087939006882</v>
+        <v>4.7073137381297316</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2665,18 +2671,18 @@
         <v>285</v>
       </c>
       <c r="F21">
-        <v>34644762.495037884</v>
+        <v>34232179.177534357</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="0"/>
-        <v>3.4644762495037881E-2</v>
+        <v>3.4232179177534357E-2</v>
       </c>
       <c r="H21" s="22">
         <v>9971727</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="1"/>
-        <v>3.4742991354494444</v>
+        <v>3.4329238232789923</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2696,18 +2702,18 @@
         <v>287</v>
       </c>
       <c r="F22">
-        <v>376956215.84006202</v>
+        <v>376647416.63428497</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="0"/>
-        <v>0.376956215840062</v>
+        <v>0.37664741663428497</v>
       </c>
       <c r="H22" s="22">
         <v>245707511</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="1"/>
-        <v>1.5341664335204714</v>
+        <v>1.5329096579155246</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2727,18 +2733,18 @@
         <v>285</v>
       </c>
       <c r="F23">
-        <v>48414578.114542313</v>
+        <v>48438423.383421257</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="0"/>
-        <v>4.8414578114542313E-2</v>
+        <v>4.8438423383421254E-2</v>
       </c>
       <c r="H23" s="22">
         <v>4576794</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="1"/>
-        <v>10.578273375323931</v>
+        <v>10.58348341293518</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2758,18 +2764,18 @@
         <v>287</v>
       </c>
       <c r="F24">
-        <v>1636484556.7544839</v>
+        <v>1635958539.3553841</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="0"/>
-        <v>1.6364845567544839</v>
+        <v>1.6359585393553842</v>
       </c>
       <c r="H24" s="22">
         <v>1247236029</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="1"/>
-        <v>1.3120889059519656</v>
+        <v>1.311667159476664</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2789,18 +2795,18 @@
         <v>285</v>
       </c>
       <c r="F25">
-        <v>385968407.95946461</v>
+        <v>386988961.37466788</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="0"/>
-        <v>0.38596840795946463</v>
+        <v>0.38698896137466787</v>
       </c>
       <c r="H25" s="22">
         <v>59379449</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="1"/>
-        <v>6.5000335041752342</v>
+        <v>6.5172204843912898</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2820,18 +2826,18 @@
         <v>285</v>
       </c>
       <c r="F26">
-        <v>648345996.24725461</v>
+        <v>619006497.90629971</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="0"/>
-        <v>0.64834599624725464</v>
+        <v>0.61900649790629969</v>
       </c>
       <c r="H26" s="22">
         <v>127833000</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="1"/>
-        <v>5.0718202361460234</v>
+        <v>4.8423059609513954</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2851,18 +2857,18 @@
         <v>285</v>
       </c>
       <c r="F27">
-        <v>363442892.33756542</v>
+        <v>362022452.31414533</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="0"/>
-        <v>0.36344289233756544</v>
+        <v>0.36202245231414532</v>
       </c>
       <c r="H27" s="22">
         <v>49936638</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="1"/>
-        <v>7.278080922018928</v>
+        <v>7.2496360751027193</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2882,18 +2888,18 @@
         <v>285</v>
       </c>
       <c r="F28">
-        <v>14202793.34639835</v>
+        <v>14164988.95837347</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="0"/>
-        <v>1.4202793346398349E-2</v>
+        <v>1.4164988958373471E-2</v>
       </c>
       <c r="H28" s="22">
         <v>3028115</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="1"/>
-        <v>4.6903084415216565</v>
+        <v>4.6778239790673304</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2913,18 +2919,18 @@
         <v>285</v>
       </c>
       <c r="F29">
-        <v>9922494.775849076</v>
+        <v>9891764.5639806371</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="0"/>
-        <v>9.9224947758490764E-3</v>
+        <v>9.8917645639806373E-3</v>
       </c>
       <c r="H29" s="22">
         <v>518347</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="1"/>
-        <v>19.142572014208774</v>
+        <v>19.083286994967921</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2944,18 +2950,18 @@
         <v>285</v>
       </c>
       <c r="F30">
-        <v>12898672.5761442</v>
+        <v>12883649.050343711</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="0"/>
-        <v>1.28986725761442E-2</v>
+        <v>1.2883649050343711E-2</v>
       </c>
       <c r="H30" s="22">
         <v>2059709</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="1"/>
-        <v>6.2623761784524898</v>
+        <v>6.2550821743963398</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -2975,18 +2981,18 @@
         <v>285</v>
       </c>
       <c r="F31">
-        <v>2041467.3933033559</v>
+        <v>2047962.915295037</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="0"/>
-        <v>2.041467393303356E-3</v>
+        <v>2.0479629152950368E-3</v>
       </c>
       <c r="H31" s="22">
         <v>416268</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="1"/>
-        <v>4.9042140959750835</v>
+        <v>4.9198182788372806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3006,18 +3012,18 @@
         <v>286</v>
       </c>
       <c r="F32">
-        <v>272770771.20221782</v>
+        <v>262492713.06024149</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="0"/>
-        <v>0.27277077120221782</v>
+        <v>0.26249271306024147</v>
       </c>
       <c r="H32" s="22">
         <v>119090017</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="1"/>
-        <v>2.2904587477069369</v>
+        <v>2.2041537962014188</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3037,18 +3043,18 @@
         <v>285</v>
       </c>
       <c r="F33">
-        <v>117017944.5745475</v>
+        <v>115124385.7170886</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="0"/>
-        <v>0.11701794457454751</v>
+        <v>0.11512438571708859</v>
       </c>
       <c r="H33" s="22">
         <v>16693074</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="1"/>
-        <v>7.0099697979262237</v>
+        <v>6.8965359955325543</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3068,18 +3074,18 @@
         <v>285</v>
       </c>
       <c r="F34">
-        <v>73008136.784308568</v>
+        <v>73018685.88128984</v>
       </c>
       <c r="G34" s="21">
         <f t="shared" si="0"/>
-        <v>7.3008136784308564E-2</v>
+        <v>7.3018685881289846E-2</v>
       </c>
       <c r="H34" s="22">
         <v>4953088</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="1"/>
-        <v>14.739923212409828</v>
+        <v>14.742053014460845</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3099,18 +3105,18 @@
         <v>285</v>
       </c>
       <c r="F35">
-        <v>375305395.37368208</v>
+        <v>375166197.6098035</v>
       </c>
       <c r="G35" s="21">
         <f t="shared" si="0"/>
-        <v>0.37530539537368207</v>
+        <v>0.37516619760980352</v>
       </c>
       <c r="H35" s="22">
         <v>38063255</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="1"/>
-        <v>9.8600446907045143</v>
+        <v>9.8563876791357838</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3130,18 +3136,18 @@
         <v>285</v>
       </c>
       <c r="F36">
-        <v>107966856.9287084</v>
+        <v>107619974.0045954</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="0"/>
-        <v>0.1079668569287084</v>
+        <v>0.1076199740045954</v>
       </c>
       <c r="H36" s="22">
         <v>10557560</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="1"/>
-        <v>10.226497119477266</v>
+        <v>10.193640765915173</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3161,18 +3167,18 @@
         <v>286</v>
       </c>
       <c r="F37">
-        <v>104495160.60823961</v>
+        <v>101049621.6914745</v>
       </c>
       <c r="G37" s="21">
         <f t="shared" si="0"/>
-        <v>0.1044951606082396</v>
+        <v>0.10104962169147449</v>
       </c>
       <c r="H37" s="22">
         <v>20147528</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="1"/>
-        <v>5.1865003293823246</v>
+        <v>5.0154848620373924</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3192,18 +3198,18 @@
         <v>286</v>
       </c>
       <c r="F38">
-        <v>527970892.55368721</v>
+        <v>531933323.90010369</v>
       </c>
       <c r="G38" s="21">
         <f t="shared" si="0"/>
-        <v>0.52797089255368723</v>
+        <v>0.53193332390010373</v>
       </c>
       <c r="H38" s="22">
         <v>142960868</v>
       </c>
       <c r="I38" s="23">
         <f t="shared" si="1"/>
-        <v>3.6931147658790602</v>
+        <v>3.7208316607318284</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3223,18 +3229,18 @@
         <v>285</v>
       </c>
       <c r="F39">
-        <v>108938064.3344537</v>
+        <v>108692573.3013818</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" si="0"/>
-        <v>0.1089380643344537</v>
+        <v>0.1086925733013818</v>
       </c>
       <c r="H39" s="22">
         <v>9449213</v>
       </c>
       <c r="I39" s="23">
         <f t="shared" si="1"/>
-        <v>11.528797618854998</v>
+        <v>11.502817568127821</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3254,18 +3260,18 @@
         <v>285</v>
       </c>
       <c r="F40">
-        <v>14090150.77847252</v>
+        <v>13924634.445961369</v>
       </c>
       <c r="G40" s="21">
         <f t="shared" si="0"/>
-        <v>1.409015077847252E-2</v>
+        <v>1.3924634445961368E-2</v>
       </c>
       <c r="H40" s="22">
         <v>2052843</v>
       </c>
       <c r="I40" s="23">
         <f t="shared" si="1"/>
-        <v>6.8637254668148122</v>
+        <v>6.783097609491505</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3285,18 +3291,18 @@
         <v>285</v>
       </c>
       <c r="F41">
-        <v>40594280.950588249</v>
+        <v>38335311.195605762</v>
       </c>
       <c r="G41" s="21">
         <f t="shared" si="0"/>
-        <v>4.059428095058825E-2</v>
+        <v>3.8335311195605765E-2</v>
       </c>
       <c r="H41" s="22">
         <v>5398384</v>
       </c>
       <c r="I41" s="23">
         <f t="shared" si="1"/>
-        <v>7.5197097780721505</v>
+        <v>7.1012568197456432</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3316,18 +3322,18 @@
         <v>286</v>
       </c>
       <c r="F42">
-        <v>377571298.37313521</v>
+        <v>371948812.21830678</v>
       </c>
       <c r="G42" s="21">
         <f t="shared" si="0"/>
-        <v>0.37757129837313519</v>
+        <v>0.37194881221830678</v>
       </c>
       <c r="H42" s="22">
         <v>73409455</v>
       </c>
       <c r="I42" s="23">
         <f t="shared" si="1"/>
-        <v>5.1433605980746648</v>
+        <v>5.0667698352794854</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3347,18 +3353,18 @@
         <v>285</v>
       </c>
       <c r="F43">
-        <v>2131730641.399236</v>
+        <v>2134949211.4876561</v>
       </c>
       <c r="G43" s="21">
         <f t="shared" si="0"/>
-        <v>2.1317306413992361</v>
+        <v>2.134949211487656</v>
       </c>
       <c r="H43" s="22">
         <v>311663358</v>
       </c>
       <c r="I43" s="23">
         <f t="shared" si="1"/>
-        <v>6.8398500711759516</v>
+        <v>6.8501771436591401</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3378,18 +3384,18 @@
         <v>288</v>
       </c>
       <c r="F44">
-        <v>1726057111.111629</v>
+        <v>1728577979.9677351</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="0"/>
-        <v>1.726057111111629</v>
+        <v>1.728577979967735</v>
       </c>
       <c r="H44" s="22">
         <v>813751154</v>
       </c>
       <c r="I44" s="23">
         <f t="shared" si="1"/>
-        <v>2.1211117214730599</v>
+        <v>2.1242095589922014</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3409,18 +3415,18 @@
         <v>286</v>
       </c>
       <c r="F45">
-        <v>193433124.08782101</v>
+        <v>140108473.83452389</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="0"/>
-        <v>0.19343312408782101</v>
+        <v>0.14010847383452388</v>
       </c>
       <c r="H45" s="22">
         <v>158263341</v>
       </c>
       <c r="I45" s="23">
         <f t="shared" si="1"/>
-        <v>1.2222231810954944</v>
+        <v>0.88528697138097123</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3440,18 +3446,18 @@
         <v>289</v>
       </c>
       <c r="F46">
-        <v>927722064.01983166</v>
+        <v>920271693.76920414</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="0"/>
-        <v>0.9277220640198317</v>
+        <v>0.92027169376920415</v>
       </c>
       <c r="H46" s="22">
         <v>849726410</v>
       </c>
       <c r="I46" s="23">
         <f t="shared" si="1"/>
-        <v>1.0917891371880881</v>
+        <v>1.0830211735671533</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3471,18 +3477,18 @@
         <v>286</v>
       </c>
       <c r="F47">
-        <v>746797950.35494196</v>
+        <v>745233544.2525481</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="0"/>
-        <v>0.74679795035494201</v>
+        <v>0.74523354425254806</v>
       </c>
       <c r="H47" s="22">
         <v>285822469</v>
       </c>
       <c r="I47" s="23">
         <f t="shared" si="1"/>
-        <v>2.6128035104019132</v>
+        <v>2.6073301614805802</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3502,18 +3508,18 @@
         <v>288</v>
       </c>
       <c r="F48">
-        <v>1613080038.8132379</v>
+        <v>1615799926.6286709</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="0"/>
-        <v>1.6130800388132378</v>
+        <v>1.6157999266286709</v>
       </c>
       <c r="H48" s="22">
         <v>396156980</v>
       </c>
       <c r="I48" s="23">
         <f t="shared" si="1"/>
-        <v>4.0718203142936868</v>
+        <v>4.0786859962146087</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -3533,18 +3539,18 @@
         <v>286</v>
       </c>
       <c r="F49">
-        <v>122102777.4418955</v>
+        <v>119797068.6323203</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" si="0"/>
-        <v>0.1221027774418955</v>
+        <v>0.1197970686323203</v>
       </c>
       <c r="H49" s="31">
         <v>51729345.359999999</v>
       </c>
       <c r="I49" s="32">
         <f t="shared" si="1"/>
-        <v>2.3604160576969555</v>
+        <v>2.3158435081406239</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -8856,22 +8862,22 @@
       </c>
       <c r="D2" s="20">
         <f>sa_all_tot!F2</f>
-        <v>101389201.0326599</v>
+        <v>101272075.7867339</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" ref="E2:E35" si="0">+D2/1000000000</f>
-        <v>0.1013892010326599</v>
+        <v>0.10127207578673389</v>
       </c>
       <c r="F2" s="22">
         <v>8391643</v>
       </c>
       <c r="G2" s="46">
         <f>+D2/F2</f>
-        <v>12.08216329420352</v>
+        <v>12.068205926626513</v>
       </c>
       <c r="H2" s="48">
         <f>+E2/$E$54*100</f>
-        <v>0.33371057488916933</v>
+        <v>0.33427433185013106</v>
       </c>
       <c r="I2" s="48">
         <f>+F2/$F$54*100</f>
@@ -8890,22 +8896,22 @@
       </c>
       <c r="D3" s="20">
         <f>sa_all_tot!F3</f>
-        <v>108249943.57428239</v>
+        <v>109021675.1835863</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" si="0"/>
-        <v>0.10824994357428239</v>
+        <v>0.1090216751835863</v>
       </c>
       <c r="F3" s="22">
         <v>22340024</v>
       </c>
       <c r="G3" s="46">
         <f t="shared" ref="G3:G54" si="1">+D3/F3</f>
-        <v>4.8455607556322411</v>
+        <v>4.8801055533148174</v>
       </c>
       <c r="H3" s="48">
         <f t="shared" ref="H3:H54" si="2">+E3/$E$54*100</f>
-        <v>0.35629189828862995</v>
+        <v>0.35985386244002693</v>
       </c>
       <c r="I3" s="48">
         <f t="shared" ref="I3:I54" si="3">+F3/$F$54*100</f>
@@ -8924,22 +8930,22 @@
       </c>
       <c r="D4" s="20">
         <f>sa_all_tot!F4</f>
-        <v>107443193.4190435</v>
+        <v>105802274.0149852</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>0.1074431934190435</v>
+        <v>0.10580227401498521</v>
       </c>
       <c r="F4" s="22">
         <v>11047744</v>
       </c>
       <c r="G4" s="46">
         <f t="shared" si="1"/>
-        <v>9.7253514761967228</v>
+        <v>9.5768216583390426</v>
       </c>
       <c r="H4" s="48">
         <f t="shared" si="2"/>
-        <v>0.35363657547954724</v>
+        <v>0.3492274072574757</v>
       </c>
       <c r="I4" s="48">
         <f t="shared" si="3"/>
@@ -8958,22 +8964,22 @@
       </c>
       <c r="D5" s="20">
         <f>sa_all_tot!F5</f>
-        <v>38671413.323814981</v>
+        <v>37979511.53022062</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>3.8671413323814983E-2</v>
+        <v>3.7979511530220618E-2</v>
       </c>
       <c r="F5" s="22">
         <v>7348328</v>
       </c>
       <c r="G5" s="46">
         <f t="shared" si="1"/>
-        <v>5.2626139339200675</v>
+        <v>5.1684562161923937</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="2"/>
-        <v>0.12728238747941165</v>
+        <v>0.12536107058271534</v>
       </c>
       <c r="I5" s="48">
         <f t="shared" si="3"/>
@@ -8992,22 +8998,22 @@
       </c>
       <c r="D6" s="20">
         <f>sa_all_tot!F7</f>
-        <v>393587342.94323951</v>
+        <v>393306803.89212358</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>0.39358734294323949</v>
+        <v>0.39330680389212358</v>
       </c>
       <c r="F6" s="22">
         <v>34342780</v>
       </c>
       <c r="G6" s="46">
         <f t="shared" si="1"/>
-        <v>11.460555695934911</v>
+        <v>11.452386903218772</v>
       </c>
       <c r="H6" s="48">
         <f t="shared" si="2"/>
-        <v>1.2954462323889893</v>
+        <v>1.2982094823455006</v>
       </c>
       <c r="I6" s="48">
         <f t="shared" si="3"/>
@@ -9026,22 +9032,22 @@
       </c>
       <c r="D7" s="20">
         <f>sa_all_tot!F8</f>
-        <v>67808079.461859137</v>
+        <v>67714485.879250303</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>6.7808079461859141E-2</v>
+        <v>6.7714485879250302E-2</v>
       </c>
       <c r="F7" s="22">
         <v>7912398</v>
       </c>
       <c r="G7" s="46">
         <f t="shared" si="1"/>
-        <v>8.5698519540926963</v>
+        <v>8.5580232287670945</v>
       </c>
       <c r="H7" s="48">
         <f t="shared" si="2"/>
-        <v>0.22318228123780537</v>
+        <v>0.22350894210491362</v>
       </c>
       <c r="I7" s="48">
         <f t="shared" si="3"/>
@@ -9060,22 +9066,22 @@
       </c>
       <c r="D8" s="20">
         <f>sa_all_tot!F10</f>
-        <v>11578761.17694564</v>
+        <v>11579109.315412</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>1.157876117694564E-2</v>
+        <v>1.1579109315411999E-2</v>
       </c>
       <c r="F8" s="22">
         <v>1124835</v>
       </c>
       <c r="G8" s="46">
         <f t="shared" si="1"/>
-        <v>10.293741906097907</v>
+        <v>10.294051407906048</v>
       </c>
       <c r="H8" s="48">
         <f t="shared" si="2"/>
-        <v>3.8110124249013971E-2</v>
+        <v>3.8219805407958295E-2</v>
       </c>
       <c r="I8" s="48">
         <f t="shared" si="3"/>
@@ -9094,22 +9100,22 @@
       </c>
       <c r="D9" s="20">
         <f>sa_all_tot!F11</f>
-        <v>92349111.921214342</v>
+        <v>90337498.874392003</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="0"/>
-        <v>9.2349111921214339E-2</v>
+        <v>9.0337498874392005E-2</v>
       </c>
       <c r="F9" s="22">
         <v>10496088</v>
       </c>
       <c r="G9" s="46">
         <f t="shared" si="1"/>
-        <v>8.79843156052182</v>
+        <v>8.6067779609309678</v>
       </c>
       <c r="H9" s="48">
         <f t="shared" si="2"/>
-        <v>0.30395618977020539</v>
+        <v>0.29818197013006292</v>
       </c>
       <c r="I9" s="48">
         <f t="shared" si="3"/>
@@ -9128,22 +9134,22 @@
       </c>
       <c r="D10" s="20">
         <f>sa_all_tot!F12</f>
-        <v>701305689.79150891</v>
+        <v>700117418.71123314</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>0.70130568979150887</v>
+        <v>0.70011741871123312</v>
       </c>
       <c r="F10" s="22">
         <v>80274983</v>
       </c>
       <c r="G10" s="46">
         <f t="shared" si="1"/>
-        <v>8.7362919751911861</v>
+        <v>8.7214894671635506</v>
       </c>
       <c r="H10" s="48">
         <f t="shared" si="2"/>
-        <v>2.3082648105490264</v>
+        <v>2.3109162179036993</v>
       </c>
       <c r="I10" s="48">
         <f t="shared" si="3"/>
@@ -9162,22 +9168,22 @@
       </c>
       <c r="D11" s="20">
         <f>sa_all_tot!F13</f>
-        <v>52411913.074053742</v>
+        <v>52398711.876658797</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>5.241191307405374E-2</v>
+        <v>5.2398711876658795E-2</v>
       </c>
       <c r="F11" s="22">
         <v>5570572</v>
       </c>
       <c r="G11" s="46">
         <f t="shared" si="1"/>
-        <v>9.4087129784973147</v>
+        <v>9.4063431684679415</v>
       </c>
       <c r="H11" s="48">
         <f t="shared" si="2"/>
-        <v>0.17250761880793952</v>
+        <v>0.17295532126015814</v>
       </c>
       <c r="I11" s="48">
         <f t="shared" si="3"/>
@@ -9196,22 +9202,22 @@
       </c>
       <c r="D12" s="20">
         <f>sa_all_tot!F14</f>
-        <v>12071398.906196009</v>
+        <v>12108405.31857335</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="0"/>
-        <v>1.2071398906196009E-2</v>
+        <v>1.2108405318573351E-2</v>
       </c>
       <c r="F12" s="22">
         <v>1327439</v>
       </c>
       <c r="G12" s="46">
         <f t="shared" si="1"/>
-        <v>9.0937503766244703</v>
+        <v>9.1216284278022197</v>
       </c>
       <c r="H12" s="48">
         <f t="shared" si="2"/>
-        <v>3.9731583123981125E-2</v>
+        <v>3.9966881948388822E-2</v>
       </c>
       <c r="I12" s="48">
         <f t="shared" si="3"/>
@@ -9230,22 +9236,22 @@
       </c>
       <c r="D13" s="20">
         <f>sa_all_tot!F15</f>
-        <v>282179865.86761689</v>
+        <v>281205748.08100861</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="0"/>
-        <v>0.2821798658676169</v>
+        <v>0.28120574808100862</v>
       </c>
       <c r="F13" s="22">
         <v>46742697</v>
       </c>
       <c r="G13" s="46">
         <f t="shared" si="1"/>
-        <v>6.0368760037020737</v>
+        <v>6.0160360041058096</v>
       </c>
       <c r="H13" s="48">
         <f t="shared" si="2"/>
-        <v>0.92876168567989659</v>
+        <v>0.92819133825347067</v>
       </c>
       <c r="I13" s="48">
         <f t="shared" si="3"/>
@@ -9264,22 +9270,22 @@
       </c>
       <c r="D14" s="20">
         <f>sa_all_tot!F16</f>
-        <v>82128969.216410249</v>
+        <v>81850768.140337244</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
-        <v>8.2128969216410247E-2</v>
+        <v>8.1850768140337246E-2</v>
       </c>
       <c r="F14" s="22">
         <v>5388272</v>
       </c>
       <c r="G14" s="46">
         <f t="shared" si="1"/>
-        <v>15.242172113139473</v>
+        <v>15.190541260785878</v>
       </c>
       <c r="H14" s="48">
         <f t="shared" si="2"/>
-        <v>0.27031779768571806</v>
+        <v>0.2701693494379358</v>
       </c>
       <c r="I14" s="48">
         <f t="shared" si="3"/>
@@ -9298,22 +9304,22 @@
       </c>
       <c r="D15" s="20">
         <f>sa_all_tot!F17</f>
-        <v>429742207.59714329</v>
+        <v>429102918.14303857</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
-        <v>0.42974220759714327</v>
+        <v>0.42910291814303858</v>
       </c>
       <c r="F15" s="22">
         <v>65342776</v>
       </c>
       <c r="G15" s="46">
         <f t="shared" si="1"/>
-        <v>6.5767363112510449</v>
+        <v>6.5669526826200126</v>
       </c>
       <c r="H15" s="48">
         <f t="shared" si="2"/>
-        <v>1.4144456972807959</v>
+        <v>1.4163636929815486</v>
       </c>
       <c r="I15" s="48">
         <f t="shared" si="3"/>
@@ -9332,22 +9338,22 @@
       </c>
       <c r="D16" s="20">
         <f>sa_all_tot!F18</f>
-        <v>342696173.40832651</v>
+        <v>343077724.11224473</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
-        <v>0.34269617340832653</v>
+        <v>0.34307772411224474</v>
       </c>
       <c r="F16" s="22">
         <v>63258918</v>
       </c>
       <c r="G16" s="46">
         <f t="shared" si="1"/>
-        <v>5.4173574927147268</v>
+        <v>5.423389064483283</v>
       </c>
       <c r="H16" s="48">
         <f t="shared" si="2"/>
-        <v>1.1279439612466475</v>
+        <v>1.1324155855340623</v>
       </c>
       <c r="I16" s="48">
         <f t="shared" si="3"/>
@@ -9366,22 +9372,22 @@
       </c>
       <c r="D17" s="20">
         <f>sa_all_tot!F19</f>
-        <v>75210900.98792477</v>
+        <v>75384562.434790298</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="0"/>
-        <v>7.5210900987924767E-2</v>
+        <v>7.5384562434790303E-2</v>
       </c>
       <c r="F17" s="22">
         <v>11104899</v>
       </c>
       <c r="G17" s="46">
         <f t="shared" si="1"/>
-        <v>6.7727676755929762</v>
+        <v>6.7884059490131605</v>
       </c>
       <c r="H17" s="48">
         <f t="shared" si="2"/>
-        <v>0.24754779356164253</v>
+        <v>0.24882598726197899</v>
       </c>
       <c r="I17" s="48">
         <f t="shared" si="3"/>
@@ -9400,22 +9406,22 @@
       </c>
       <c r="D18" s="20">
         <f>sa_all_tot!F20</f>
-        <v>20155774.392564751</v>
+        <v>20150230.748340368</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>2.0155774392564753E-2</v>
+        <v>2.0150230748340367E-2</v>
       </c>
       <c r="F18" s="22">
         <v>4280622</v>
       </c>
       <c r="G18" s="46">
         <f t="shared" si="1"/>
-        <v>4.7086087939006882</v>
+        <v>4.7073137381297316</v>
       </c>
       <c r="H18" s="48">
         <f t="shared" si="2"/>
-        <v>6.6340349774652155E-2</v>
+        <v>6.6510979139125972E-2</v>
       </c>
       <c r="I18" s="48">
         <f t="shared" si="3"/>
@@ -9434,22 +9440,22 @@
       </c>
       <c r="D19" s="20">
         <f>sa_all_tot!F21</f>
-        <v>34644762.495037884</v>
+        <v>34232179.177534357</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
-        <v>3.4644762495037881E-2</v>
+        <v>3.4232179177534357E-2</v>
       </c>
       <c r="F19" s="22">
         <v>9971727</v>
       </c>
       <c r="G19" s="46">
         <f t="shared" si="1"/>
-        <v>3.4742991354494444</v>
+        <v>3.4329238232789923</v>
       </c>
       <c r="H19" s="48">
         <f t="shared" si="2"/>
-        <v>0.11402914207198105</v>
+        <v>0.11299204379341091</v>
       </c>
       <c r="I19" s="48">
         <f t="shared" si="3"/>
@@ -9468,22 +9474,22 @@
       </c>
       <c r="D20" s="20">
         <f>sa_all_tot!F23</f>
-        <v>48414578.114542313</v>
+        <v>48438423.383421257</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="0"/>
-        <v>4.8414578114542313E-2</v>
+        <v>4.8438423383421254E-2</v>
       </c>
       <c r="F20" s="22">
         <v>4576794</v>
       </c>
       <c r="G20" s="46">
         <f t="shared" si="1"/>
-        <v>10.578273375323931</v>
+        <v>10.58348341293518</v>
       </c>
       <c r="H20" s="48">
         <f t="shared" si="2"/>
-        <v>0.15935086312018701</v>
+        <v>0.15988337838028135</v>
       </c>
       <c r="I20" s="48">
         <f t="shared" si="3"/>
@@ -9502,22 +9508,22 @@
       </c>
       <c r="D21" s="20">
         <f>sa_all_tot!F25</f>
-        <v>385968407.95946461</v>
+        <v>386988961.37466788</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="0"/>
-        <v>0.38596840795946463</v>
+        <v>0.38698896137466787</v>
       </c>
       <c r="F21" s="22">
         <v>59379449</v>
       </c>
       <c r="G21" s="46">
         <f t="shared" si="1"/>
-        <v>6.5000335041752342</v>
+        <v>6.5172204843912898</v>
       </c>
       <c r="H21" s="48">
         <f t="shared" si="2"/>
-        <v>1.2703694081554133</v>
+        <v>1.2773558307357102</v>
       </c>
       <c r="I21" s="48">
         <f t="shared" si="3"/>
@@ -9536,22 +9542,22 @@
       </c>
       <c r="D22" s="20">
         <f>sa_all_tot!F26</f>
-        <v>648345996.24725461</v>
+        <v>619006497.90629971</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="0"/>
-        <v>0.64834599624725464</v>
+        <v>0.61900649790629969</v>
       </c>
       <c r="F22" s="22">
         <v>127833000</v>
       </c>
       <c r="G22" s="46">
         <f t="shared" si="1"/>
-        <v>5.0718202361460234</v>
+        <v>4.8423059609513954</v>
       </c>
       <c r="H22" s="48">
         <f t="shared" si="2"/>
-        <v>2.1339542370500371</v>
+        <v>2.0431889234132106</v>
       </c>
       <c r="I22" s="48">
         <f t="shared" si="3"/>
@@ -9570,22 +9576,22 @@
       </c>
       <c r="D23" s="20">
         <f>sa_all_tot!F27</f>
-        <v>363442892.33756542</v>
+        <v>362022452.31414533</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
-        <v>0.36344289233756544</v>
+        <v>0.36202245231414532</v>
       </c>
       <c r="F23" s="22">
         <v>49936638</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="1"/>
-        <v>7.278080922018928</v>
+        <v>7.2496360751027193</v>
       </c>
       <c r="H23" s="48">
         <f t="shared" si="2"/>
-        <v>1.1962293351368132</v>
+        <v>1.1949474958615309</v>
       </c>
       <c r="I23" s="48">
         <f t="shared" si="3"/>
@@ -9604,22 +9610,22 @@
       </c>
       <c r="D24" s="20">
         <f>sa_all_tot!F28</f>
-        <v>14202793.34639835</v>
+        <v>14164988.95837347</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>1.4202793346398349E-2</v>
+        <v>1.4164988958373471E-2</v>
       </c>
       <c r="F24" s="22">
         <v>3028115</v>
       </c>
       <c r="G24" s="46">
         <f t="shared" si="1"/>
-        <v>4.6903084415216565</v>
+        <v>4.6778239790673304</v>
       </c>
       <c r="H24" s="48">
         <f t="shared" si="2"/>
-        <v>4.6746816074937962E-2</v>
+        <v>4.6755161113672311E-2</v>
       </c>
       <c r="I24" s="48">
         <f t="shared" si="3"/>
@@ -9638,22 +9644,22 @@
       </c>
       <c r="D25" s="20">
         <f>sa_all_tot!F29</f>
-        <v>9922494.775849076</v>
+        <v>9891764.5639806371</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>9.9224947758490764E-3</v>
+        <v>9.8917645639806373E-3</v>
       </c>
       <c r="F25" s="22">
         <v>518347</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="1"/>
-        <v>19.142572014208774</v>
+        <v>19.083286994967921</v>
       </c>
       <c r="H25" s="48">
         <f t="shared" si="2"/>
-        <v>3.2658719096886307E-2</v>
+        <v>3.2650293427446193E-2</v>
       </c>
       <c r="I25" s="48">
         <f t="shared" si="3"/>
@@ -9672,22 +9678,22 @@
       </c>
       <c r="D26" s="20">
         <f>sa_all_tot!F30</f>
-        <v>12898672.5761442</v>
+        <v>12883649.050343711</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>1.28986725761442E-2</v>
+        <v>1.2883649050343711E-2</v>
       </c>
       <c r="F26" s="22">
         <v>2059709</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="1"/>
-        <v>6.2623761784524898</v>
+        <v>6.2550821743963398</v>
       </c>
       <c r="H26" s="48">
         <f t="shared" si="2"/>
-        <v>4.2454456656638266E-2</v>
+        <v>4.2525771735582127E-2</v>
       </c>
       <c r="I26" s="48">
         <f t="shared" si="3"/>
@@ -9706,22 +9712,22 @@
       </c>
       <c r="D27" s="20">
         <f>sa_all_tot!F31</f>
-        <v>2041467.3933033559</v>
+        <v>2047962.915295037</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
-        <v>2.041467393303356E-3</v>
+        <v>2.0479629152950368E-3</v>
       </c>
       <c r="F27" s="22">
         <v>416268</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="1"/>
-        <v>4.9042140959750835</v>
+        <v>4.9198182788372806</v>
       </c>
       <c r="H27" s="48">
         <f t="shared" si="2"/>
-        <v>6.7192487020122276E-3</v>
+        <v>6.7598242639534348E-3</v>
       </c>
       <c r="I27" s="48">
         <f t="shared" si="3"/>
@@ -9740,22 +9746,22 @@
       </c>
       <c r="D28" s="20">
         <f>sa_all_tot!F33</f>
-        <v>117017944.5745475</v>
+        <v>115124385.7170886</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>0.11701794457454751</v>
+        <v>0.11512438571708859</v>
       </c>
       <c r="F28" s="22">
         <v>16693074</v>
       </c>
       <c r="G28" s="46">
         <f t="shared" si="1"/>
-        <v>7.0099697979262237</v>
+        <v>6.8965359955325543</v>
       </c>
       <c r="H28" s="48">
         <f t="shared" si="2"/>
-        <v>0.38515073754000895</v>
+        <v>0.37999741603279791</v>
       </c>
       <c r="I28" s="48">
         <f t="shared" si="3"/>
@@ -9774,22 +9780,22 @@
       </c>
       <c r="D29" s="20">
         <f>sa_all_tot!F34</f>
-        <v>73008136.784308568</v>
+        <v>73018685.88128984</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
-        <v>7.3008136784308564E-2</v>
+        <v>7.3018685881289846E-2</v>
       </c>
       <c r="F29" s="22">
         <v>4953088</v>
       </c>
       <c r="G29" s="46">
         <f t="shared" si="1"/>
-        <v>14.739923212409828</v>
+        <v>14.742053014460845</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="2"/>
-        <v>0.24029765546757414</v>
+        <v>0.2410168079001706</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="3"/>
@@ -9808,22 +9814,22 @@
       </c>
       <c r="D30" s="20">
         <f>sa_all_tot!F35</f>
-        <v>375305395.37368208</v>
+        <v>375166197.6098035</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>0.37530539537368207</v>
+        <v>0.37516619760980352</v>
       </c>
       <c r="F30" s="22">
         <v>38063255</v>
       </c>
       <c r="G30" s="46">
         <f t="shared" si="1"/>
-        <v>9.8600446907045143</v>
+        <v>9.8563876791357838</v>
       </c>
       <c r="H30" s="48">
         <f t="shared" si="2"/>
-        <v>1.2352733621878973</v>
+        <v>1.2383317816341151</v>
       </c>
       <c r="I30" s="48">
         <f t="shared" si="3"/>
@@ -9842,22 +9848,22 @@
       </c>
       <c r="D31" s="20">
         <f>sa_all_tot!F36</f>
-        <v>107966856.9287084</v>
+        <v>107619974.0045954</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>0.1079668569287084</v>
+        <v>0.1076199740045954</v>
       </c>
       <c r="F31" s="22">
         <v>10557560</v>
       </c>
       <c r="G31" s="46">
         <f t="shared" si="1"/>
-        <v>10.226497119477266</v>
+        <v>10.193640765915173</v>
       </c>
       <c r="H31" s="48">
         <f t="shared" si="2"/>
-        <v>0.35536015204469307</v>
+        <v>0.35522718996964686</v>
       </c>
       <c r="I31" s="48">
         <f t="shared" si="3"/>
@@ -9876,22 +9882,22 @@
       </c>
       <c r="D32" s="20">
         <f>sa_all_tot!F39</f>
-        <v>108938064.3344537</v>
+        <v>108692573.3013818</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>0.1089380643344537</v>
+        <v>0.1086925733013818</v>
       </c>
       <c r="F32" s="22">
         <v>9449213</v>
       </c>
       <c r="G32" s="46">
         <f t="shared" si="1"/>
-        <v>11.528797618854998</v>
+        <v>11.502817568127821</v>
       </c>
       <c r="H32" s="48">
         <f t="shared" si="2"/>
-        <v>0.35855676646128642</v>
+        <v>0.35876757768749362</v>
       </c>
       <c r="I32" s="48">
         <f t="shared" si="3"/>
@@ -9910,22 +9916,22 @@
       </c>
       <c r="D33" s="20">
         <f>sa_all_tot!F40</f>
-        <v>14090150.77847252</v>
+        <v>13924634.445961369</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>1.409015077847252E-2</v>
+        <v>1.3924634445961368E-2</v>
       </c>
       <c r="F33" s="22">
         <v>2052843</v>
       </c>
       <c r="G33" s="46">
         <f t="shared" si="1"/>
-        <v>6.8637254668148122</v>
+        <v>6.783097609491505</v>
       </c>
       <c r="H33" s="48">
         <f t="shared" si="2"/>
-        <v>4.6376066372635714E-2</v>
+        <v>4.5961809704415976E-2</v>
       </c>
       <c r="I33" s="48">
         <f t="shared" si="3"/>
@@ -9944,22 +9950,22 @@
       </c>
       <c r="D34" s="20">
         <f>sa_all_tot!F41</f>
-        <v>40594280.950588249</v>
+        <v>38335311.195605762</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>4.059428095058825E-2</v>
+        <v>3.8335311195605765E-2</v>
       </c>
       <c r="F34" s="22">
         <v>5398384</v>
       </c>
       <c r="G34" s="46">
         <f t="shared" si="1"/>
-        <v>7.5197097780721505</v>
+        <v>7.1012568197456432</v>
       </c>
       <c r="H34" s="48">
         <f t="shared" si="2"/>
-        <v>0.1336112790638278</v>
+        <v>0.12653547818219599</v>
       </c>
       <c r="I34" s="48">
         <f t="shared" si="3"/>
@@ -9978,22 +9984,22 @@
       </c>
       <c r="D35" s="20">
         <f>sa_all_tot!F43</f>
-        <v>2131730641.399236</v>
+        <v>2134949211.4876561</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>2.1317306413992361</v>
+        <v>2.134949211487656</v>
       </c>
       <c r="F35" s="22">
         <v>311663358</v>
       </c>
       <c r="G35" s="46">
         <f t="shared" si="1"/>
-        <v>6.8398500711759516</v>
+        <v>6.8501771436591401</v>
       </c>
       <c r="H35" s="48">
         <f t="shared" si="2"/>
-        <v>7.0163395174703451</v>
+        <v>7.0469447343695686</v>
       </c>
       <c r="I35" s="48">
         <f t="shared" si="3"/>
@@ -10008,11 +10014,11 @@
       <c r="C36" s="51"/>
       <c r="D36" s="52">
         <f>+SUM(D2:D35)</f>
-        <v>7407513476.4643612</v>
+        <v>7368917775.3303719</v>
       </c>
       <c r="E36" s="52">
         <f t="shared" ref="E36:F36" si="4">+SUM(E2:E35)</f>
-        <v>7.4075134764643629</v>
+        <v>7.3689177753303721</v>
       </c>
       <c r="F36" s="52">
         <f t="shared" si="4"/>
@@ -10020,11 +10026,11 @@
       </c>
       <c r="G36" s="53">
         <f t="shared" si="1"/>
-        <v>7.1031721011270097</v>
+        <v>7.0661621235698382</v>
       </c>
       <c r="H36" s="54">
         <f t="shared" si="2"/>
-        <v>24.380955324166251</v>
+        <v>24.322993744044354</v>
       </c>
       <c r="I36" s="54">
         <f t="shared" si="3"/>
@@ -10043,22 +10049,22 @@
       </c>
       <c r="D37" s="52">
         <f>sa_all_tot!F9</f>
-        <v>13795948442.759291</v>
+        <v>13826419724.27739</v>
       </c>
       <c r="E37" s="55">
         <f t="shared" ref="E37:E45" si="5">+D37/1000000000</f>
-        <v>13.795948442759292</v>
+        <v>13.82641972427739</v>
       </c>
       <c r="F37" s="56">
         <v>1344130000</v>
       </c>
       <c r="G37" s="53">
         <f t="shared" si="1"/>
-        <v>10.263849808247187</v>
+        <v>10.286519699937795</v>
       </c>
       <c r="H37" s="54">
         <f t="shared" si="2"/>
-        <v>45.407734148053216</v>
+        <v>45.637626950051427</v>
       </c>
       <c r="I37" s="54">
         <f t="shared" si="3"/>
@@ -10077,22 +10083,22 @@
       </c>
       <c r="D38" s="20">
         <f>sa_all_tot!F6</f>
-        <v>553471945.23378599</v>
+        <v>550940375.47330797</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="5"/>
-        <v>0.55347194523378596</v>
+        <v>0.55094037547330799</v>
       </c>
       <c r="F38" s="22">
         <v>198686688</v>
       </c>
       <c r="G38" s="46">
         <f t="shared" si="1"/>
-        <v>2.7856518763541218</v>
+        <v>2.7729103596175904</v>
       </c>
       <c r="H38" s="48">
         <f t="shared" si="2"/>
-        <v>1.8216875086085098</v>
+        <v>1.8185193151212671</v>
       </c>
       <c r="I38" s="48">
         <f t="shared" si="3"/>
@@ -10111,22 +10117,22 @@
       </c>
       <c r="D39" s="20">
         <f>sa_all_tot!F32</f>
-        <v>272770771.20221782</v>
+        <v>262492713.06024149</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="5"/>
-        <v>0.27277077120221782</v>
+        <v>0.26249271306024147</v>
       </c>
       <c r="F39" s="22">
         <v>119090017</v>
       </c>
       <c r="G39" s="46">
         <f t="shared" si="1"/>
-        <v>2.2904587477069369</v>
+        <v>2.2041537962014188</v>
       </c>
       <c r="H39" s="48">
         <f t="shared" si="2"/>
-        <v>0.89779276238238004</v>
+        <v>0.86642419040090879</v>
       </c>
       <c r="I39" s="48">
         <f t="shared" si="3"/>
@@ -10145,22 +10151,22 @@
       </c>
       <c r="D40" s="20">
         <f>sa_all_tot!F37</f>
-        <v>104495160.60823961</v>
+        <v>101049621.6914745</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="5"/>
-        <v>0.1044951606082396</v>
+        <v>0.10104962169147449</v>
       </c>
       <c r="F40" s="22">
         <v>20147528</v>
       </c>
       <c r="G40" s="46">
         <f t="shared" si="1"/>
-        <v>5.1865003293823246</v>
+        <v>5.0154848620373924</v>
       </c>
       <c r="H40" s="48">
         <f t="shared" si="2"/>
-        <v>0.34393347382704875</v>
+        <v>0.33354006533606495</v>
       </c>
       <c r="I40" s="48">
         <f t="shared" si="3"/>
@@ -10179,22 +10185,22 @@
       </c>
       <c r="D41" s="20">
         <f>sa_all_tot!F38</f>
-        <v>527970892.55368721</v>
+        <v>531933323.90010369</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="5"/>
-        <v>0.52797089255368723</v>
+        <v>0.53193332390010373</v>
       </c>
       <c r="F41" s="22">
         <v>142960868</v>
       </c>
       <c r="G41" s="46">
         <f t="shared" si="1"/>
-        <v>3.6931147658790602</v>
+        <v>3.7208316607318284</v>
       </c>
       <c r="H41" s="48">
         <f t="shared" si="2"/>
-        <v>1.7377538069570537</v>
+        <v>1.75578169060122</v>
       </c>
       <c r="I41" s="48">
         <f t="shared" si="3"/>
@@ -10213,22 +10219,22 @@
       </c>
       <c r="D42" s="20">
         <f>sa_all_tot!F42</f>
-        <v>377571298.37313521</v>
+        <v>371948812.21830678</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="5"/>
-        <v>0.37757129837313519</v>
+        <v>0.37194881221830678</v>
       </c>
       <c r="F42" s="22">
         <v>73409455</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="1"/>
-        <v>5.1433605980746648</v>
+        <v>5.0667698352794854</v>
       </c>
       <c r="H42" s="48">
         <f t="shared" si="2"/>
-        <v>1.242731314167882</v>
+        <v>1.2277119800383445</v>
       </c>
       <c r="I42" s="48">
         <f t="shared" si="3"/>
@@ -10247,22 +10253,22 @@
       </c>
       <c r="D43" s="20">
         <f>sa_all_tot!F45</f>
-        <v>193433124.08782101</v>
+        <v>140108473.83452389</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="5"/>
-        <v>0.19343312408782101</v>
+        <v>0.14010847383452388</v>
       </c>
       <c r="F43" s="22">
         <v>158263341</v>
       </c>
       <c r="G43" s="46">
         <f t="shared" si="1"/>
-        <v>1.2222231810954944</v>
+        <v>0.88528697138097123</v>
       </c>
       <c r="H43" s="48">
         <f t="shared" si="2"/>
-        <v>0.63666227156836408</v>
+        <v>0.46246377507068076</v>
       </c>
       <c r="I43" s="48">
         <f t="shared" si="3"/>
@@ -10281,22 +10287,22 @@
       </c>
       <c r="D44" s="20">
         <f>sa_all_tot!F47</f>
-        <v>746797950.35494196</v>
+        <v>745233544.2525481</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="5"/>
-        <v>0.74679795035494201</v>
+        <v>0.74523354425254806</v>
       </c>
       <c r="F44" s="22">
         <v>285822469</v>
       </c>
       <c r="G44" s="46">
         <f t="shared" si="1"/>
-        <v>2.6128035104019132</v>
+        <v>2.6073301614805802</v>
       </c>
       <c r="H44" s="48">
         <f t="shared" si="2"/>
-        <v>2.457997210755444</v>
+        <v>2.4598335043701947</v>
       </c>
       <c r="I44" s="48">
         <f t="shared" si="3"/>
@@ -10315,22 +10321,22 @@
       </c>
       <c r="D45" s="29">
         <f>sa_all_tot!F49</f>
-        <v>122102777.4418955</v>
+        <v>119797068.6323203</v>
       </c>
       <c r="E45" s="30">
         <f t="shared" si="5"/>
-        <v>0.1221027774418955</v>
+        <v>0.1197970686323203</v>
       </c>
       <c r="F45" s="31">
         <v>51729345.359999999</v>
       </c>
       <c r="G45" s="46">
         <f t="shared" si="1"/>
-        <v>2.3604160576969555</v>
+        <v>2.3158435081406239</v>
       </c>
       <c r="H45" s="48">
         <f t="shared" si="2"/>
-        <v>0.40188686409091695</v>
+        <v>0.39542079851313616</v>
       </c>
       <c r="I45" s="48">
         <f t="shared" si="3"/>
@@ -10345,11 +10351,11 @@
       <c r="C46" s="57"/>
       <c r="D46" s="53">
         <f>+SUM(D38:D45)</f>
-        <v>2898613919.8557243</v>
+        <v>2823503933.0628271</v>
       </c>
       <c r="E46" s="53">
         <f t="shared" ref="E46:F46" si="6">+SUM(E38:E45)</f>
-        <v>2.8986139198557241</v>
+        <v>2.8235039330628271</v>
       </c>
       <c r="F46" s="53">
         <f t="shared" si="6"/>
@@ -10357,11 +10363,11 @@
       </c>
       <c r="G46" s="53">
         <f t="shared" si="1"/>
-        <v>2.7602962704741789</v>
+        <v>2.6887704232409195</v>
       </c>
       <c r="H46" s="54">
         <f t="shared" si="2"/>
-        <v>9.5404452123575982</v>
+        <v>9.3196953194518173</v>
       </c>
       <c r="I46" s="54">
         <f t="shared" si="3"/>
@@ -10380,22 +10386,22 @@
       </c>
       <c r="D47" s="20">
         <f>sa_all_tot!F44</f>
-        <v>1726057111.111629</v>
+        <v>1728577979.9677351</v>
       </c>
       <c r="E47" s="21">
         <f>+D47/1000000000</f>
-        <v>1.726057111111629</v>
+        <v>1.728577979967735</v>
       </c>
       <c r="F47" s="22">
         <v>813751154</v>
       </c>
       <c r="G47" s="46">
         <f t="shared" si="1"/>
-        <v>2.1211117214730599</v>
+        <v>2.1242095589922014</v>
       </c>
       <c r="H47" s="48">
         <f t="shared" si="2"/>
-        <v>5.6811130275605572</v>
+        <v>5.7056127744569753</v>
       </c>
       <c r="I47" s="48">
         <f t="shared" si="3"/>
@@ -10414,22 +10420,22 @@
       </c>
       <c r="D48" s="20">
         <f>sa_all_tot!F48</f>
-        <v>1613080038.8132379</v>
+        <v>1615799926.6286709</v>
       </c>
       <c r="E48" s="21">
         <f>+D48/1000000000</f>
-        <v>1.6130800388132378</v>
+        <v>1.6157999266286709</v>
       </c>
       <c r="F48" s="22">
         <v>396156980</v>
       </c>
       <c r="G48" s="46">
         <f t="shared" si="1"/>
-        <v>4.0718203142936868</v>
+        <v>4.0786859962146087</v>
       </c>
       <c r="H48" s="48">
         <f t="shared" si="2"/>
-        <v>5.3092623436415991</v>
+        <v>5.3333600272469441</v>
       </c>
       <c r="I48" s="48">
         <f t="shared" si="3"/>
@@ -10444,11 +10450,11 @@
       <c r="C49" s="57"/>
       <c r="D49" s="53">
         <f>+SUM(D47:D48)</f>
-        <v>3339137149.9248667</v>
+        <v>3344377906.596406</v>
       </c>
       <c r="E49" s="53">
         <f t="shared" ref="E49:F49" si="7">+SUM(E47:E48)</f>
-        <v>3.3391371499248668</v>
+        <v>3.3443779065964057</v>
       </c>
       <c r="F49" s="53">
         <f t="shared" si="7"/>
@@ -10456,11 +10462,11 @@
       </c>
       <c r="G49" s="53">
         <f t="shared" si="1"/>
-        <v>2.7598270117298562</v>
+        <v>2.7641585444506203</v>
       </c>
       <c r="H49" s="54">
         <f t="shared" si="2"/>
-        <v>10.990375371202157</v>
+        <v>11.03897280170392</v>
       </c>
       <c r="I49" s="54">
         <f t="shared" si="3"/>
@@ -10481,22 +10487,22 @@
       </c>
       <c r="D50" s="20">
         <f>sa_all_tot!F22</f>
-        <v>376956215.84006202</v>
+        <v>376647416.63428497</v>
       </c>
       <c r="E50" s="21">
         <f>+D50/1000000000</f>
-        <v>0.376956215840062</v>
+        <v>0.37664741663428497</v>
       </c>
       <c r="F50" s="22">
         <v>245707511</v>
       </c>
       <c r="G50" s="46">
         <f t="shared" si="1"/>
-        <v>1.5341664335204714</v>
+        <v>1.5329096579155246</v>
       </c>
       <c r="H50" s="48">
         <f t="shared" si="2"/>
-        <v>1.2407068426894055</v>
+        <v>1.2432209230473406</v>
       </c>
       <c r="I50" s="48">
         <f t="shared" si="3"/>
@@ -10515,22 +10521,22 @@
       </c>
       <c r="D51" s="20">
         <f>sa_all_tot!F24</f>
-        <v>1636484556.7544839</v>
+        <v>1635958539.3553841</v>
       </c>
       <c r="E51" s="21">
         <f>+D51/1000000000</f>
-        <v>1.6364845567544839</v>
+        <v>1.6359585393553842</v>
       </c>
       <c r="F51" s="22">
         <v>1247236029</v>
       </c>
       <c r="G51" s="46">
         <f t="shared" si="1"/>
-        <v>1.3120889059519656</v>
+        <v>1.311667159476664</v>
       </c>
       <c r="H51" s="48">
         <f t="shared" si="2"/>
-        <v>5.3862955489300122</v>
+        <v>5.3998986732448611</v>
       </c>
       <c r="I51" s="48">
         <f t="shared" si="3"/>
@@ -10549,22 +10555,22 @@
       </c>
       <c r="D52" s="20">
         <f>sa_all_tot!F46</f>
-        <v>927722064.01983166</v>
+        <v>920271693.76920414</v>
       </c>
       <c r="E52" s="21">
         <f>+D52/1000000000</f>
-        <v>0.9277220640198317</v>
+        <v>0.92027169376920415</v>
       </c>
       <c r="F52" s="22">
         <v>849726410</v>
       </c>
       <c r="G52" s="46">
         <f t="shared" si="1"/>
-        <v>1.0917891371880881</v>
+        <v>1.0830211735671533</v>
       </c>
       <c r="H52" s="48">
         <f t="shared" si="2"/>
-        <v>3.0534875526013678</v>
+        <v>3.0375915884562734</v>
       </c>
       <c r="I52" s="48">
         <f t="shared" si="3"/>
@@ -10579,11 +10585,11 @@
       <c r="C53" s="57"/>
       <c r="D53" s="53">
         <f>+SUM(D50:D52)</f>
-        <v>2941162836.6143775</v>
+        <v>2932877649.758873</v>
       </c>
       <c r="E53" s="53">
         <f t="shared" ref="E53:F53" si="8">+SUM(E50:E52)</f>
-        <v>2.9411628366143776</v>
+        <v>2.9328776497588729</v>
       </c>
       <c r="F53" s="53">
         <f t="shared" si="8"/>
@@ -10591,11 +10597,11 @@
       </c>
       <c r="G53" s="53">
         <f>+D53/F53</f>
-        <v>1.2554746931441954</v>
+        <v>1.2519380503253874</v>
       </c>
       <c r="H53" s="54">
         <f t="shared" si="2"/>
-        <v>9.6804899442207866</v>
+        <v>9.680711184748473</v>
       </c>
       <c r="I53" s="54">
         <f t="shared" si="3"/>
@@ -10610,11 +10616,11 @@
       <c r="C54" s="60"/>
       <c r="D54" s="61">
         <f>+D53+D49+D46+D37+D36</f>
-        <v>30382375825.618622</v>
+        <v>30296096989.025867</v>
       </c>
       <c r="E54" s="61">
         <f t="shared" ref="E54:F54" si="9">+E53+E49+E46+E37+E36</f>
-        <v>30.38237582561862</v>
+        <v>30.29609698902587</v>
       </c>
       <c r="F54" s="61">
         <f t="shared" si="9"/>
@@ -10622,7 +10628,7 @@
       </c>
       <c r="G54" s="62">
         <f t="shared" si="1"/>
-        <v>4.3467579286529991</v>
+        <v>4.3344141534595435</v>
       </c>
       <c r="H54" s="63">
         <f t="shared" si="2"/>

--- a/Data_S2.xlsx
+++ b/Data_S2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D95D40C-A8A8-4075-9BD2-D326EABA778F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240621ED-C615-4702-9310-E4C569636A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="310">
   <si>
     <t>Stock additions (tonnes)</t>
   </si>
@@ -987,9 +987,6 @@
       </rPr>
       <t xml:space="preserve">Journal of Industrial Ecology. </t>
     </r>
-  </si>
-  <si>
-    <t>13/10/202</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +1963,8 @@
       <c r="A12" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>310</v>
+      <c r="C12" s="9">
+        <v>43872</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
@@ -2065,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
@@ -2081,22 +2078,22 @@
       <c r="E2" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F2">
-        <v>101272075.7867339</v>
+      <c r="F2" s="8">
+        <v>100017445.1636125</v>
       </c>
       <c r="G2" s="21">
         <f>+F2/1000000000</f>
-        <v>0.10127207578673389</v>
+        <v>0.1000174451636125</v>
       </c>
       <c r="H2" s="22">
         <v>8391643</v>
       </c>
       <c r="I2" s="23">
         <f>+F2/H2</f>
-        <v>12.068205926626513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>11.918696393973445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -2112,22 +2109,22 @@
       <c r="E3" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F3">
-        <v>109021675.1835863</v>
+      <c r="F3" s="8">
+        <v>106298643.6820022</v>
       </c>
       <c r="G3" s="21">
         <f t="shared" ref="G3:G66" si="0">+F3/1000000000</f>
-        <v>0.1090216751835863</v>
+        <v>0.1062986436820022</v>
       </c>
       <c r="H3" s="22">
         <v>22340024</v>
       </c>
       <c r="I3" s="23">
         <f t="shared" ref="I3:I49" si="1">+F3/H3</f>
-        <v>4.8801055533148174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>4.7582152858028355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2143,22 +2140,22 @@
       <c r="E4" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F4">
-        <v>105802274.0149852</v>
+      <c r="F4" s="8">
+        <v>106443874.80832499</v>
       </c>
       <c r="G4" s="21">
         <f t="shared" si="0"/>
-        <v>0.10580227401498521</v>
+        <v>0.106443874808325</v>
       </c>
       <c r="H4" s="22">
         <v>11047744</v>
       </c>
       <c r="I4" s="23">
         <f t="shared" si="1"/>
-        <v>9.5768216583390426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>9.6348969353675269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
@@ -2174,22 +2171,22 @@
       <c r="E5" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F5">
-        <v>37979511.53022062</v>
+      <c r="F5" s="8">
+        <v>38221683.543860734</v>
       </c>
       <c r="G5" s="21">
         <f t="shared" si="0"/>
-        <v>3.7979511530220618E-2</v>
+        <v>3.8221683543860734E-2</v>
       </c>
       <c r="H5" s="22">
         <v>7348328</v>
       </c>
       <c r="I5" s="23">
         <f t="shared" si="1"/>
-        <v>5.1684562161923937</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.2014122864222632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -2205,22 +2202,22 @@
       <c r="E6" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F6">
-        <v>550940375.47330797</v>
+      <c r="F6" s="8">
+        <v>553065039.60840642</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="0"/>
-        <v>0.55094037547330799</v>
+        <v>0.55306503960840647</v>
       </c>
       <c r="H6" s="22">
         <v>198686688</v>
       </c>
       <c r="I6" s="23">
         <f t="shared" si="1"/>
-        <v>2.7729103596175904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2.783603900068063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -2236,22 +2233,22 @@
       <c r="E7" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F7">
-        <v>393306803.89212358</v>
+      <c r="F7" s="8">
+        <v>392357947.85977751</v>
       </c>
       <c r="G7" s="21">
         <f t="shared" si="0"/>
-        <v>0.39330680389212358</v>
+        <v>0.39235794785977751</v>
       </c>
       <c r="H7" s="22">
         <v>34342780</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" si="1"/>
-        <v>11.452386903218772</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>11.424757921745925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -2267,22 +2264,22 @@
       <c r="E8" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F8">
-        <v>67714485.879250303</v>
+      <c r="F8" s="8">
+        <v>64860705.785781913</v>
       </c>
       <c r="G8" s="21">
         <f t="shared" si="0"/>
-        <v>6.7714485879250302E-2</v>
+        <v>6.4860705785781916E-2</v>
       </c>
       <c r="H8" s="22">
         <v>7912398</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="1"/>
-        <v>8.5580232287670945</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.1973512689556198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
@@ -2298,22 +2295,22 @@
       <c r="E9" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F9">
-        <v>13826419724.27739</v>
+      <c r="F9" s="8">
+        <v>13972337415.664881</v>
       </c>
       <c r="G9" s="21">
         <f t="shared" si="0"/>
-        <v>13.82641972427739</v>
+        <v>13.972337415664882</v>
       </c>
       <c r="H9" s="22">
         <v>1344130000</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="1"/>
-        <v>10.286519699937795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>10.395078910272726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
@@ -2329,22 +2326,22 @@
       <c r="E10" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F10">
-        <v>11579109.315412</v>
+      <c r="F10" s="8">
+        <v>11549774.61997688</v>
       </c>
       <c r="G10" s="21">
         <f t="shared" si="0"/>
-        <v>1.1579109315411999E-2</v>
+        <v>1.1549774619976879E-2</v>
       </c>
       <c r="H10" s="22">
         <v>1124835</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="1"/>
-        <v>10.294051407906048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>10.267972298138732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -2360,22 +2357,22 @@
       <c r="E11" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F11">
-        <v>90337498.874392003</v>
+      <c r="F11" s="8">
+        <v>91774596.56463705</v>
       </c>
       <c r="G11" s="21">
         <f t="shared" si="0"/>
-        <v>9.0337498874392005E-2</v>
+        <v>9.1774596564637045E-2</v>
       </c>
       <c r="H11" s="22">
         <v>10496088</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="1"/>
-        <v>8.6067779609309678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.7436954191539797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
@@ -2391,22 +2388,22 @@
       <c r="E12" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F12">
-        <v>700117418.71123314</v>
+      <c r="F12" s="8">
+        <v>700656399.86290944</v>
       </c>
       <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v>0.70011741871123312</v>
+        <v>0.7006563998629094</v>
       </c>
       <c r="H12" s="22">
         <v>80274983</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="1"/>
-        <v>8.7214894671635506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.7282036529725513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
@@ -2422,22 +2419,22 @@
       <c r="E13" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F13">
-        <v>52398711.876658797</v>
+      <c r="F13" s="8">
+        <v>52222075.784433663</v>
       </c>
       <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v>5.2398711876658795E-2</v>
+        <v>5.2222075784433664E-2</v>
       </c>
       <c r="H13" s="22">
         <v>5570572</v>
       </c>
       <c r="I13" s="23">
         <f t="shared" si="1"/>
-        <v>9.4063431684679415</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>9.3746343794557649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -2453,22 +2450,22 @@
       <c r="E14" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F14">
-        <v>12108405.31857335</v>
+      <c r="F14" s="8">
+        <v>12003488.616244361</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v>1.2108405318573351E-2</v>
+        <v>1.2003488616244361E-2</v>
       </c>
       <c r="H14" s="22">
         <v>1327439</v>
       </c>
       <c r="I14" s="23">
         <f t="shared" si="1"/>
-        <v>9.1216284278022197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>9.0425914985504878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>16</v>
       </c>
@@ -2484,22 +2481,22 @@
       <c r="E15" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F15">
-        <v>281205748.08100861</v>
+      <c r="F15" s="8">
+        <v>282258108.13105428</v>
       </c>
       <c r="G15" s="21">
         <f t="shared" si="0"/>
-        <v>0.28120574808100862</v>
+        <v>0.28225810813105429</v>
       </c>
       <c r="H15" s="22">
         <v>46742697</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="1"/>
-        <v>6.0160360041058096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.0385498964908741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -2515,22 +2512,22 @@
       <c r="E16" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F16">
-        <v>81850768.140337244</v>
+      <c r="F16" s="8">
+        <v>82105216.118441164</v>
       </c>
       <c r="G16" s="21">
         <f t="shared" si="0"/>
-        <v>8.1850768140337246E-2</v>
+        <v>8.2105216118441168E-2</v>
       </c>
       <c r="H16" s="22">
         <v>5388272</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="1"/>
-        <v>15.190541260785878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>15.237763817127489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -2546,22 +2543,22 @@
       <c r="E17" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F17">
-        <v>429102918.14303857</v>
+      <c r="F17" s="8">
+        <v>428761167.17649448</v>
       </c>
       <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v>0.42910291814303858</v>
+        <v>0.42876116717649448</v>
       </c>
       <c r="H17" s="22">
         <v>65342776</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="1"/>
-        <v>6.5669526826200126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.5617225563923771</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
@@ -2577,22 +2574,22 @@
       <c r="E18" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F18">
-        <v>343077724.11224473</v>
+      <c r="F18" s="8">
+        <v>341969516.72053099</v>
       </c>
       <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v>0.34307772411224474</v>
+        <v>0.341969516720531</v>
       </c>
       <c r="H18" s="22">
         <v>63258918</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="1"/>
-        <v>5.423389064483283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.4058704690543555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>20</v>
       </c>
@@ -2608,22 +2605,22 @@
       <c r="E19" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F19">
-        <v>75384562.434790298</v>
+      <c r="F19" s="8">
+        <v>67669214.883245558</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" si="0"/>
-        <v>7.5384562434790303E-2</v>
+        <v>6.7669214883245551E-2</v>
       </c>
       <c r="H19" s="22">
         <v>11104899</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="1"/>
-        <v>6.7884059490131605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.0936362305722511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
@@ -2639,22 +2636,22 @@
       <c r="E20" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F20">
-        <v>20150230.748340368</v>
+      <c r="F20" s="8">
+        <v>23171201.136430159</v>
       </c>
       <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v>2.0150230748340367E-2</v>
+        <v>2.3171201136430158E-2</v>
       </c>
       <c r="H20" s="22">
         <v>4280622</v>
       </c>
       <c r="I20" s="23">
         <f t="shared" si="1"/>
-        <v>4.7073137381297316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.4130453790197217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>22</v>
       </c>
@@ -2670,22 +2667,22 @@
       <c r="E21" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F21">
-        <v>34232179.177534357</v>
+      <c r="F21" s="8">
+        <v>34261412.749802783</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="0"/>
-        <v>3.4232179177534357E-2</v>
+        <v>3.426141274980278E-2</v>
       </c>
       <c r="H21" s="22">
         <v>9971727</v>
       </c>
       <c r="I21" s="23">
         <f t="shared" si="1"/>
-        <v>3.4329238232789923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>3.4358554691482008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>23</v>
       </c>
@@ -2701,22 +2698,22 @@
       <c r="E22" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="F22">
-        <v>376647416.63428497</v>
+      <c r="F22" s="8">
+        <v>374741182.86960781</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="0"/>
-        <v>0.37664741663428497</v>
+        <v>0.37474118286960778</v>
       </c>
       <c r="H22" s="22">
         <v>245707511</v>
       </c>
       <c r="I22" s="23">
         <f t="shared" si="1"/>
-        <v>1.5329096579155246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1.5251515158997635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>24</v>
       </c>
@@ -2732,22 +2729,22 @@
       <c r="E23" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F23">
-        <v>48438423.383421257</v>
+      <c r="F23" s="8">
+        <v>48380324.546188213</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" si="0"/>
-        <v>4.8438423383421254E-2</v>
+        <v>4.8380324546188215E-2</v>
       </c>
       <c r="H23" s="22">
         <v>4576794</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="1"/>
-        <v>10.58348341293518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>10.570789191339662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
@@ -2763,22 +2760,22 @@
       <c r="E24" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="F24">
-        <v>1635958539.3553841</v>
+      <c r="F24" s="8">
+        <v>1624889226.9504061</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" si="0"/>
-        <v>1.6359585393553842</v>
+        <v>1.6248892269504061</v>
       </c>
       <c r="H24" s="22">
         <v>1247236029</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="1"/>
-        <v>1.311667159476664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1.3027920851943302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
@@ -2794,22 +2791,22 @@
       <c r="E25" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F25">
-        <v>386988961.37466788</v>
+      <c r="F25" s="8">
+        <v>384603366.55867982</v>
       </c>
       <c r="G25" s="21">
         <f t="shared" si="0"/>
-        <v>0.38698896137466787</v>
+        <v>0.38460336655867983</v>
       </c>
       <c r="H25" s="22">
         <v>59379449</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="1"/>
-        <v>6.5172204843912898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.4770450557511881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
@@ -2825,22 +2822,22 @@
       <c r="E26" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F26">
-        <v>619006497.90629971</v>
+      <c r="F26" s="8">
+        <v>634255754.61794639</v>
       </c>
       <c r="G26" s="21">
         <f t="shared" si="0"/>
-        <v>0.61900649790629969</v>
+        <v>0.63425575461794637</v>
       </c>
       <c r="H26" s="22">
         <v>127833000</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="1"/>
-        <v>4.8423059609513954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>4.9615964157764143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
@@ -2856,22 +2853,22 @@
       <c r="E27" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F27">
-        <v>362022452.31414533</v>
+      <c r="F27" s="8">
+        <v>358978748.83680642</v>
       </c>
       <c r="G27" s="21">
         <f t="shared" si="0"/>
-        <v>0.36202245231414532</v>
+        <v>0.35897874883680642</v>
       </c>
       <c r="H27" s="22">
         <v>49936638</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="1"/>
-        <v>7.2496360751027193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>7.1886847656185111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>29</v>
       </c>
@@ -2887,22 +2884,22 @@
       <c r="E28" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F28">
-        <v>14164988.95837347</v>
+      <c r="F28" s="8">
+        <v>14095331.6287286</v>
       </c>
       <c r="G28" s="21">
         <f t="shared" si="0"/>
-        <v>1.4164988958373471E-2</v>
+        <v>1.40953316287286E-2</v>
       </c>
       <c r="H28" s="22">
         <v>3028115</v>
       </c>
       <c r="I28" s="23">
         <f t="shared" si="1"/>
-        <v>4.6778239790673304</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>4.6548204505867838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>30</v>
       </c>
@@ -2918,22 +2915,22 @@
       <c r="E29" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F29">
-        <v>9891764.5639806371</v>
+      <c r="F29" s="8">
+        <v>9885001.0605341773</v>
       </c>
       <c r="G29" s="21">
         <f t="shared" si="0"/>
-        <v>9.8917645639806373E-3</v>
+        <v>9.8850010605341775E-3</v>
       </c>
       <c r="H29" s="22">
         <v>518347</v>
       </c>
       <c r="I29" s="23">
         <f t="shared" si="1"/>
-        <v>19.083286994967921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>19.070238779300695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
@@ -2949,22 +2946,22 @@
       <c r="E30" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F30">
-        <v>12883649.050343711</v>
+      <c r="F30" s="8">
+        <v>13339518.422678489</v>
       </c>
       <c r="G30" s="21">
         <f t="shared" si="0"/>
-        <v>1.2883649050343711E-2</v>
+        <v>1.3339518422678489E-2</v>
       </c>
       <c r="H30" s="22">
         <v>2059709</v>
       </c>
       <c r="I30" s="23">
         <f t="shared" si="1"/>
-        <v>6.2550821743963398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.4764092513449665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>32</v>
       </c>
@@ -2980,22 +2977,22 @@
       <c r="E31" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F31">
-        <v>2047962.915295037</v>
+      <c r="F31" s="8">
+        <v>2072384.2807455731</v>
       </c>
       <c r="G31" s="21">
         <f t="shared" si="0"/>
-        <v>2.0479629152950368E-3</v>
+        <v>2.0723842807455731E-3</v>
       </c>
       <c r="H31" s="22">
         <v>416268</v>
       </c>
       <c r="I31" s="23">
         <f t="shared" si="1"/>
-        <v>4.9198182788372806</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>4.9784856888965114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>33</v>
       </c>
@@ -3011,22 +3008,22 @@
       <c r="E32" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F32">
-        <v>262492713.06024149</v>
+      <c r="F32" s="8">
+        <v>265799909.30403939</v>
       </c>
       <c r="G32" s="21">
         <f t="shared" si="0"/>
-        <v>0.26249271306024147</v>
+        <v>0.26579990930403941</v>
       </c>
       <c r="H32" s="22">
         <v>119090017</v>
       </c>
       <c r="I32" s="23">
         <f t="shared" si="1"/>
-        <v>2.2041537962014188</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2.2319243543649789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>34</v>
       </c>
@@ -3042,22 +3039,22 @@
       <c r="E33" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F33">
-        <v>115124385.7170886</v>
+      <c r="F33" s="8">
+        <v>116868040.2482132</v>
       </c>
       <c r="G33" s="21">
         <f t="shared" si="0"/>
-        <v>0.11512438571708859</v>
+        <v>0.11686804024821321</v>
       </c>
       <c r="H33" s="22">
         <v>16693074</v>
       </c>
       <c r="I33" s="23">
         <f t="shared" si="1"/>
-        <v>6.8965359955325543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>7.0009897666668941</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>35</v>
       </c>
@@ -3073,22 +3070,22 @@
       <c r="E34" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F34">
-        <v>73018685.88128984</v>
+      <c r="F34" s="8">
+        <v>73018917.938560098</v>
       </c>
       <c r="G34" s="21">
         <f t="shared" si="0"/>
-        <v>7.3018685881289846E-2</v>
+        <v>7.3018917938560093E-2</v>
       </c>
       <c r="H34" s="22">
         <v>4953088</v>
       </c>
       <c r="I34" s="23">
         <f t="shared" si="1"/>
-        <v>14.742053014460845</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>14.742099865489992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>36</v>
       </c>
@@ -3104,22 +3101,22 @@
       <c r="E35" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F35">
-        <v>375166197.6098035</v>
+      <c r="F35" s="8">
+        <v>372687684.84123462</v>
       </c>
       <c r="G35" s="21">
         <f t="shared" si="0"/>
-        <v>0.37516619760980352</v>
+        <v>0.3726876848412346</v>
       </c>
       <c r="H35" s="22">
         <v>38063255</v>
       </c>
       <c r="I35" s="23">
         <f t="shared" si="1"/>
-        <v>9.8563876791357838</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>9.7912720507280486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
         <v>37</v>
       </c>
@@ -3135,22 +3132,22 @@
       <c r="E36" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F36">
-        <v>107619974.0045954</v>
+      <c r="F36" s="8">
+        <v>107918644.1539456</v>
       </c>
       <c r="G36" s="21">
         <f t="shared" si="0"/>
-        <v>0.1076199740045954</v>
+        <v>0.1079186441539456</v>
       </c>
       <c r="H36" s="22">
         <v>10557560</v>
       </c>
       <c r="I36" s="23">
         <f t="shared" si="1"/>
-        <v>10.193640765915173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>10.221930460631585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>38</v>
       </c>
@@ -3166,22 +3163,22 @@
       <c r="E37" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F37">
-        <v>101049621.6914745</v>
+      <c r="F37" s="8">
+        <v>105170903.47280011</v>
       </c>
       <c r="G37" s="21">
         <f t="shared" si="0"/>
-        <v>0.10104962169147449</v>
+        <v>0.1051709034728001</v>
       </c>
       <c r="H37" s="22">
         <v>20147528</v>
       </c>
       <c r="I37" s="23">
         <f t="shared" si="1"/>
-        <v>5.0154848620373924</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.2200400700671619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>39</v>
       </c>
@@ -3197,22 +3194,22 @@
       <c r="E38" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F38">
-        <v>531933323.90010369</v>
+      <c r="F38" s="8">
+        <v>528615755.16888589</v>
       </c>
       <c r="G38" s="21">
         <f t="shared" si="0"/>
-        <v>0.53193332390010373</v>
+        <v>0.52861575516888593</v>
       </c>
       <c r="H38" s="22">
         <v>142960868</v>
       </c>
       <c r="I38" s="23">
         <f t="shared" si="1"/>
-        <v>3.7208316607318284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>3.6976255290285862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>40</v>
       </c>
@@ -3228,22 +3225,22 @@
       <c r="E39" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F39">
-        <v>108692573.3013818</v>
+      <c r="F39" s="8">
+        <v>108785996.03378139</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" si="0"/>
-        <v>0.1086925733013818</v>
+        <v>0.10878599603378139</v>
       </c>
       <c r="H39" s="22">
         <v>9449213</v>
       </c>
       <c r="I39" s="23">
         <f t="shared" si="1"/>
-        <v>11.502817568127821</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>11.512704394935472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
@@ -3259,22 +3256,22 @@
       <c r="E40" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F40">
-        <v>13924634.445961369</v>
+      <c r="F40" s="8">
+        <v>13836481.88611367</v>
       </c>
       <c r="G40" s="21">
         <f t="shared" si="0"/>
-        <v>1.3924634445961368E-2</v>
+        <v>1.383648188611367E-2</v>
       </c>
       <c r="H40" s="22">
         <v>2052843</v>
       </c>
       <c r="I40" s="23">
         <f t="shared" si="1"/>
-        <v>6.783097609491505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.7401559135860216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>42</v>
       </c>
@@ -3290,22 +3287,22 @@
       <c r="E41" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F41">
-        <v>38335311.195605762</v>
+      <c r="F41" s="8">
+        <v>38790991.565392204</v>
       </c>
       <c r="G41" s="21">
         <f t="shared" si="0"/>
-        <v>3.8335311195605765E-2</v>
+        <v>3.8790991565392202E-2</v>
       </c>
       <c r="H41" s="22">
         <v>5398384</v>
       </c>
       <c r="I41" s="23">
         <f t="shared" si="1"/>
-        <v>7.1012568197456432</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>7.1856673340377792</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>43</v>
       </c>
@@ -3321,22 +3318,22 @@
       <c r="E42" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F42">
-        <v>371948812.21830678</v>
+      <c r="F42" s="8">
+        <v>367177909.36214811</v>
       </c>
       <c r="G42" s="21">
         <f t="shared" si="0"/>
-        <v>0.37194881221830678</v>
+        <v>0.36717790936214811</v>
       </c>
       <c r="H42" s="22">
         <v>73409455</v>
       </c>
       <c r="I42" s="23">
         <f t="shared" si="1"/>
-        <v>5.0667698352794854</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>5.0017795304725814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>44</v>
       </c>
@@ -3352,22 +3349,22 @@
       <c r="E43" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="F43">
-        <v>2134949211.4876561</v>
+      <c r="F43" s="8">
+        <v>2108904091.805475</v>
       </c>
       <c r="G43" s="21">
         <f t="shared" si="0"/>
-        <v>2.134949211487656</v>
+        <v>2.1089040918054751</v>
       </c>
       <c r="H43" s="22">
         <v>311663358</v>
       </c>
       <c r="I43" s="23">
         <f t="shared" si="1"/>
-        <v>6.8501771436591401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>6.7666090275696602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>45</v>
       </c>
@@ -3383,22 +3380,22 @@
       <c r="E44" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F44">
-        <v>1728577979.9677351</v>
+      <c r="F44" s="8">
+        <v>1723851404.0443709</v>
       </c>
       <c r="G44" s="21">
         <f t="shared" si="0"/>
-        <v>1.728577979967735</v>
+        <v>1.7238514040443709</v>
       </c>
       <c r="H44" s="22">
         <v>813751154</v>
       </c>
       <c r="I44" s="23">
         <f t="shared" si="1"/>
-        <v>2.1242095589922014</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2.1184011789977393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>46</v>
       </c>
@@ -3414,22 +3411,22 @@
       <c r="E45" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F45">
-        <v>140108473.83452389</v>
+      <c r="F45" s="8">
+        <v>138937105.51078349</v>
       </c>
       <c r="G45" s="21">
         <f t="shared" si="0"/>
-        <v>0.14010847383452388</v>
+        <v>0.1389371055107835</v>
       </c>
       <c r="H45" s="22">
         <v>158263341</v>
       </c>
       <c r="I45" s="23">
         <f t="shared" si="1"/>
-        <v>0.88528697138097123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.87788558381807125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>47</v>
       </c>
@@ -3445,22 +3442,22 @@
       <c r="E46" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="F46">
-        <v>920271693.76920414</v>
+      <c r="F46" s="8">
+        <v>912527170.95464969</v>
       </c>
       <c r="G46" s="21">
         <f t="shared" si="0"/>
-        <v>0.92027169376920415</v>
+        <v>0.91252717095464964</v>
       </c>
       <c r="H46" s="22">
         <v>849726410</v>
       </c>
       <c r="I46" s="23">
         <f t="shared" si="1"/>
-        <v>1.0830211735671533</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1.0739070366833128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>48</v>
       </c>
@@ -3476,22 +3473,22 @@
       <c r="E47" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="F47">
-        <v>745233544.2525481</v>
+      <c r="F47" s="8">
+        <v>736665252.97333908</v>
       </c>
       <c r="G47" s="21">
         <f t="shared" si="0"/>
-        <v>0.74523354425254806</v>
+        <v>0.73666525297333907</v>
       </c>
       <c r="H47" s="22">
         <v>285822469</v>
       </c>
       <c r="I47" s="23">
         <f t="shared" si="1"/>
-        <v>2.6073301614805802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>2.5773524927927869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>49</v>
       </c>
@@ -3507,22 +3504,22 @@
       <c r="E48" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="F48">
-        <v>1615799926.6286709</v>
+      <c r="F48" s="8">
+        <v>1598293183.760381</v>
       </c>
       <c r="G48" s="21">
         <f t="shared" si="0"/>
-        <v>1.6157999266286709</v>
+        <v>1.5982931837603809</v>
       </c>
       <c r="H48" s="22">
         <v>396156980</v>
       </c>
       <c r="I48" s="23">
         <f t="shared" si="1"/>
-        <v>4.0786859962146087</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+        <v>4.0344945676847122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>50</v>
       </c>
@@ -3538,19 +3535,19 @@
       <c r="E49" s="28" t="s">
         <v>286</v>
       </c>
-      <c r="F49">
-        <v>119797068.6323203</v>
+      <c r="F49" s="8">
+        <v>121880591.05360229</v>
       </c>
       <c r="G49" s="30">
         <f t="shared" si="0"/>
-        <v>0.1197970686323203</v>
+        <v>0.1218805910536023</v>
       </c>
       <c r="H49" s="31">
         <v>51729345.359999999</v>
       </c>
       <c r="I49" s="32">
         <f t="shared" si="1"/>
-        <v>2.3158435081406239</v>
+        <v>2.356120886614721</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -8862,22 +8859,22 @@
       </c>
       <c r="D2" s="20">
         <f>sa_all_tot!F2</f>
-        <v>101272075.7867339</v>
+        <v>100017445.1636125</v>
       </c>
       <c r="E2" s="21">
         <f t="shared" ref="E2:E35" si="0">+D2/1000000000</f>
-        <v>0.10127207578673389</v>
+        <v>0.1000174451636125</v>
       </c>
       <c r="F2" s="22">
         <v>8391643</v>
       </c>
       <c r="G2" s="46">
         <f>+D2/F2</f>
-        <v>12.068205926626513</v>
+        <v>11.918696393973445</v>
       </c>
       <c r="H2" s="48">
         <f>+E2/$E$54*100</f>
-        <v>0.33427433185013106</v>
+        <v>0.32936254770531165</v>
       </c>
       <c r="I2" s="48">
         <f>+F2/$F$54*100</f>
@@ -8896,22 +8893,22 @@
       </c>
       <c r="D3" s="20">
         <f>sa_all_tot!F3</f>
-        <v>109021675.1835863</v>
+        <v>106298643.6820022</v>
       </c>
       <c r="E3" s="21">
         <f t="shared" si="0"/>
-        <v>0.1090216751835863</v>
+        <v>0.1062986436820022</v>
       </c>
       <c r="F3" s="22">
         <v>22340024</v>
       </c>
       <c r="G3" s="46">
         <f t="shared" ref="G3:G54" si="1">+D3/F3</f>
-        <v>4.8801055533148174</v>
+        <v>4.7582152858028355</v>
       </c>
       <c r="H3" s="48">
         <f t="shared" ref="H3:H54" si="2">+E3/$E$54*100</f>
-        <v>0.35985386244002693</v>
+        <v>0.3500468547607003</v>
       </c>
       <c r="I3" s="48">
         <f t="shared" ref="I3:I54" si="3">+F3/$F$54*100</f>
@@ -8930,22 +8927,22 @@
       </c>
       <c r="D4" s="20">
         <f>sa_all_tot!F4</f>
-        <v>105802274.0149852</v>
+        <v>106443874.80832499</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>0.10580227401498521</v>
+        <v>0.106443874808325</v>
       </c>
       <c r="F4" s="22">
         <v>11047744</v>
       </c>
       <c r="G4" s="46">
         <f t="shared" si="1"/>
-        <v>9.5768216583390426</v>
+        <v>9.6348969353675269</v>
       </c>
       <c r="H4" s="48">
         <f t="shared" si="2"/>
-        <v>0.3492274072574757</v>
+        <v>0.35052510826631167</v>
       </c>
       <c r="I4" s="48">
         <f t="shared" si="3"/>
@@ -8964,22 +8961,22 @@
       </c>
       <c r="D5" s="20">
         <f>sa_all_tot!F5</f>
-        <v>37979511.53022062</v>
+        <v>38221683.543860734</v>
       </c>
       <c r="E5" s="21">
         <f t="shared" si="0"/>
-        <v>3.7979511530220618E-2</v>
+        <v>3.8221683543860734E-2</v>
       </c>
       <c r="F5" s="22">
         <v>7348328</v>
       </c>
       <c r="G5" s="46">
         <f t="shared" si="1"/>
-        <v>5.1684562161923937</v>
+        <v>5.2014122864222632</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="2"/>
-        <v>0.12536107058271534</v>
+        <v>0.12586595317445784</v>
       </c>
       <c r="I5" s="48">
         <f t="shared" si="3"/>
@@ -8998,22 +8995,22 @@
       </c>
       <c r="D6" s="20">
         <f>sa_all_tot!F7</f>
-        <v>393306803.89212358</v>
+        <v>392357947.85977751</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>0.39330680389212358</v>
+        <v>0.39235794785977751</v>
       </c>
       <c r="F6" s="22">
         <v>34342780</v>
       </c>
       <c r="G6" s="46">
         <f t="shared" si="1"/>
-        <v>11.452386903218772</v>
+        <v>11.424757921745925</v>
       </c>
       <c r="H6" s="48">
         <f t="shared" si="2"/>
-        <v>1.2982094823455006</v>
+        <v>1.2920547321332578</v>
       </c>
       <c r="I6" s="48">
         <f t="shared" si="3"/>
@@ -9032,22 +9029,22 @@
       </c>
       <c r="D7" s="20">
         <f>sa_all_tot!F8</f>
-        <v>67714485.879250303</v>
+        <v>64860705.785781913</v>
       </c>
       <c r="E7" s="21">
         <f t="shared" si="0"/>
-        <v>6.7714485879250302E-2</v>
+        <v>6.4860705785781916E-2</v>
       </c>
       <c r="F7" s="22">
         <v>7912398</v>
       </c>
       <c r="G7" s="46">
         <f t="shared" si="1"/>
-        <v>8.5580232287670945</v>
+        <v>8.1973512689556198</v>
       </c>
       <c r="H7" s="48">
         <f t="shared" si="2"/>
-        <v>0.22350894210491362</v>
+        <v>0.21358961197842885</v>
       </c>
       <c r="I7" s="48">
         <f t="shared" si="3"/>
@@ -9066,22 +9063,22 @@
       </c>
       <c r="D8" s="20">
         <f>sa_all_tot!F10</f>
-        <v>11579109.315412</v>
+        <v>11549774.61997688</v>
       </c>
       <c r="E8" s="21">
         <f t="shared" si="0"/>
-        <v>1.1579109315411999E-2</v>
+        <v>1.1549774619976879E-2</v>
       </c>
       <c r="F8" s="22">
         <v>1124835</v>
       </c>
       <c r="G8" s="46">
         <f t="shared" si="1"/>
-        <v>10.294051407906048</v>
+        <v>10.267972298138732</v>
       </c>
       <c r="H8" s="48">
         <f t="shared" si="2"/>
-        <v>3.8219805407958295E-2</v>
+        <v>3.8033996849598538E-2</v>
       </c>
       <c r="I8" s="48">
         <f t="shared" si="3"/>
@@ -9100,22 +9097,22 @@
       </c>
       <c r="D9" s="20">
         <f>sa_all_tot!F11</f>
-        <v>90337498.874392003</v>
+        <v>91774596.56463705</v>
       </c>
       <c r="E9" s="21">
         <f t="shared" si="0"/>
-        <v>9.0337498874392005E-2</v>
+        <v>9.1774596564637045E-2</v>
       </c>
       <c r="F9" s="22">
         <v>10496088</v>
       </c>
       <c r="G9" s="46">
         <f t="shared" si="1"/>
-        <v>8.6067779609309678</v>
+        <v>8.7436954191539797</v>
       </c>
       <c r="H9" s="48">
         <f t="shared" si="2"/>
-        <v>0.29818197013006292</v>
+        <v>0.30221842689252143</v>
       </c>
       <c r="I9" s="48">
         <f t="shared" si="3"/>
@@ -9134,22 +9131,22 @@
       </c>
       <c r="D10" s="20">
         <f>sa_all_tot!F12</f>
-        <v>700117418.71123314</v>
+        <v>700656399.86290944</v>
       </c>
       <c r="E10" s="21">
         <f t="shared" si="0"/>
-        <v>0.70011741871123312</v>
+        <v>0.7006563998629094</v>
       </c>
       <c r="F10" s="22">
         <v>80274983</v>
       </c>
       <c r="G10" s="46">
         <f t="shared" si="1"/>
-        <v>8.7214894671635506</v>
+        <v>8.7282036529725513</v>
       </c>
       <c r="H10" s="48">
         <f t="shared" si="2"/>
-        <v>2.3109162179036993</v>
+        <v>2.3072972574672024</v>
       </c>
       <c r="I10" s="48">
         <f t="shared" si="3"/>
@@ -9168,22 +9165,22 @@
       </c>
       <c r="D11" s="20">
         <f>sa_all_tot!F13</f>
-        <v>52398711.876658797</v>
+        <v>52222075.784433663</v>
       </c>
       <c r="E11" s="21">
         <f t="shared" si="0"/>
-        <v>5.2398711876658795E-2</v>
+        <v>5.2222075784433664E-2</v>
       </c>
       <c r="F11" s="22">
         <v>5570572</v>
       </c>
       <c r="G11" s="46">
         <f t="shared" si="1"/>
-        <v>9.4063431684679415</v>
+        <v>9.3746343794557649</v>
       </c>
       <c r="H11" s="48">
         <f t="shared" si="2"/>
-        <v>0.17295532126015814</v>
+        <v>0.17196995882752752</v>
       </c>
       <c r="I11" s="48">
         <f t="shared" si="3"/>
@@ -9202,22 +9199,22 @@
       </c>
       <c r="D12" s="20">
         <f>sa_all_tot!F14</f>
-        <v>12108405.31857335</v>
+        <v>12003488.616244361</v>
       </c>
       <c r="E12" s="21">
         <f t="shared" si="0"/>
-        <v>1.2108405318573351E-2</v>
+        <v>1.2003488616244361E-2</v>
       </c>
       <c r="F12" s="22">
         <v>1327439</v>
       </c>
       <c r="G12" s="46">
         <f t="shared" si="1"/>
-        <v>9.1216284278022197</v>
+        <v>9.0425914985504878</v>
       </c>
       <c r="H12" s="48">
         <f t="shared" si="2"/>
-        <v>3.9966881948388822E-2</v>
+        <v>3.9528100178230482E-2</v>
       </c>
       <c r="I12" s="48">
         <f t="shared" si="3"/>
@@ -9236,22 +9233,22 @@
       </c>
       <c r="D13" s="20">
         <f>sa_all_tot!F15</f>
-        <v>281205748.08100861</v>
+        <v>282258108.13105428</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="0"/>
-        <v>0.28120574808100862</v>
+        <v>0.28225810813105429</v>
       </c>
       <c r="F13" s="22">
         <v>46742697</v>
       </c>
       <c r="G13" s="46">
         <f t="shared" si="1"/>
-        <v>6.0160360041058096</v>
+        <v>6.0385498964908741</v>
       </c>
       <c r="H13" s="48">
         <f t="shared" si="2"/>
-        <v>0.92819133825347067</v>
+        <v>0.92949034493381766</v>
       </c>
       <c r="I13" s="48">
         <f t="shared" si="3"/>
@@ -9270,22 +9267,22 @@
       </c>
       <c r="D14" s="20">
         <f>sa_all_tot!F16</f>
-        <v>81850768.140337244</v>
+        <v>82105216.118441164</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
-        <v>8.1850768140337246E-2</v>
+        <v>8.2105216118441168E-2</v>
       </c>
       <c r="F14" s="22">
         <v>5388272</v>
       </c>
       <c r="G14" s="46">
         <f t="shared" si="1"/>
-        <v>15.190541260785878</v>
+        <v>15.237763817127489</v>
       </c>
       <c r="H14" s="48">
         <f t="shared" si="2"/>
-        <v>0.2701693494379358</v>
+        <v>0.270376663955253</v>
       </c>
       <c r="I14" s="48">
         <f t="shared" si="3"/>
@@ -9304,22 +9301,22 @@
       </c>
       <c r="D15" s="20">
         <f>sa_all_tot!F17</f>
-        <v>429102918.14303857</v>
+        <v>428761167.17649448</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
-        <v>0.42910291814303858</v>
+        <v>0.42876116717649448</v>
       </c>
       <c r="F15" s="22">
         <v>65342776</v>
       </c>
       <c r="G15" s="46">
         <f t="shared" si="1"/>
-        <v>6.5669526826200126</v>
+        <v>6.5617225563923771</v>
       </c>
       <c r="H15" s="48">
         <f t="shared" si="2"/>
-        <v>1.4163636929815486</v>
+        <v>1.4119323898680223</v>
       </c>
       <c r="I15" s="48">
         <f t="shared" si="3"/>
@@ -9338,22 +9335,22 @@
       </c>
       <c r="D16" s="20">
         <f>sa_all_tot!F18</f>
-        <v>343077724.11224473</v>
+        <v>341969516.72053099</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
-        <v>0.34307772411224474</v>
+        <v>0.341969516720531</v>
       </c>
       <c r="F16" s="22">
         <v>63258918</v>
       </c>
       <c r="G16" s="46">
         <f t="shared" si="1"/>
-        <v>5.423389064483283</v>
+        <v>5.4058704690543555</v>
       </c>
       <c r="H16" s="48">
         <f t="shared" si="2"/>
-        <v>1.1324155855340623</v>
+        <v>1.1261230586362254</v>
       </c>
       <c r="I16" s="48">
         <f t="shared" si="3"/>
@@ -9372,22 +9369,22 @@
       </c>
       <c r="D17" s="20">
         <f>sa_all_tot!F19</f>
-        <v>75384562.434790298</v>
+        <v>67669214.883245558</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="0"/>
-        <v>7.5384562434790303E-2</v>
+        <v>6.7669214883245551E-2</v>
       </c>
       <c r="F17" s="22">
         <v>11104899</v>
       </c>
       <c r="G17" s="46">
         <f t="shared" si="1"/>
-        <v>6.7884059490131605</v>
+        <v>6.0936362305722511</v>
       </c>
       <c r="H17" s="48">
         <f t="shared" si="2"/>
-        <v>0.24882598726197899</v>
+        <v>0.22283817566730321</v>
       </c>
       <c r="I17" s="48">
         <f t="shared" si="3"/>
@@ -9406,22 +9403,22 @@
       </c>
       <c r="D18" s="20">
         <f>sa_all_tot!F20</f>
-        <v>20150230.748340368</v>
+        <v>23171201.136430159</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>2.0150230748340367E-2</v>
+        <v>2.3171201136430158E-2</v>
       </c>
       <c r="F18" s="22">
         <v>4280622</v>
       </c>
       <c r="G18" s="46">
         <f t="shared" si="1"/>
-        <v>4.7073137381297316</v>
+        <v>5.4130453790197217</v>
       </c>
       <c r="H18" s="48">
         <f t="shared" si="2"/>
-        <v>6.6510979139125972E-2</v>
+        <v>7.6303947048463092E-2</v>
       </c>
       <c r="I18" s="48">
         <f t="shared" si="3"/>
@@ -9440,22 +9437,22 @@
       </c>
       <c r="D19" s="20">
         <f>sa_all_tot!F21</f>
-        <v>34232179.177534357</v>
+        <v>34261412.749802783</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
-        <v>3.4232179177534357E-2</v>
+        <v>3.426141274980278E-2</v>
       </c>
       <c r="F19" s="22">
         <v>9971727</v>
       </c>
       <c r="G19" s="46">
         <f t="shared" si="1"/>
-        <v>3.4329238232789923</v>
+        <v>3.4358554691482008</v>
       </c>
       <c r="H19" s="48">
         <f t="shared" si="2"/>
-        <v>0.11299204379341091</v>
+        <v>0.1128245794800975</v>
       </c>
       <c r="I19" s="48">
         <f t="shared" si="3"/>
@@ -9474,22 +9471,22 @@
       </c>
       <c r="D20" s="20">
         <f>sa_all_tot!F23</f>
-        <v>48438423.383421257</v>
+        <v>48380324.546188213</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="0"/>
-        <v>4.8438423383421254E-2</v>
+        <v>4.8380324546188215E-2</v>
       </c>
       <c r="F20" s="22">
         <v>4576794</v>
       </c>
       <c r="G20" s="46">
         <f t="shared" si="1"/>
-        <v>10.58348341293518</v>
+        <v>10.570789191339662</v>
       </c>
       <c r="H20" s="48">
         <f t="shared" si="2"/>
-        <v>0.15988337838028135</v>
+        <v>0.15931887607482689</v>
       </c>
       <c r="I20" s="48">
         <f t="shared" si="3"/>
@@ -9508,22 +9505,22 @@
       </c>
       <c r="D21" s="20">
         <f>sa_all_tot!F25</f>
-        <v>386988961.37466788</v>
+        <v>384603366.55867982</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="0"/>
-        <v>0.38698896137466787</v>
+        <v>0.38460336655867983</v>
       </c>
       <c r="F21" s="22">
         <v>59379449</v>
       </c>
       <c r="G21" s="46">
         <f t="shared" si="1"/>
-        <v>6.5172204843912898</v>
+        <v>6.4770450557511881</v>
       </c>
       <c r="H21" s="48">
         <f t="shared" si="2"/>
-        <v>1.2773558307357102</v>
+        <v>1.2665185004334831</v>
       </c>
       <c r="I21" s="48">
         <f t="shared" si="3"/>
@@ -9542,22 +9539,22 @@
       </c>
       <c r="D22" s="20">
         <f>sa_all_tot!F26</f>
-        <v>619006497.90629971</v>
+        <v>634255754.61794639</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="0"/>
-        <v>0.61900649790629969</v>
+        <v>0.63425575461794637</v>
       </c>
       <c r="F22" s="22">
         <v>127833000</v>
       </c>
       <c r="G22" s="46">
         <f t="shared" si="1"/>
-        <v>4.8423059609513954</v>
+        <v>4.9615964157764143</v>
       </c>
       <c r="H22" s="48">
         <f t="shared" si="2"/>
-        <v>2.0431889234132106</v>
+        <v>2.0886365463144427</v>
       </c>
       <c r="I22" s="48">
         <f t="shared" si="3"/>
@@ -9576,22 +9573,22 @@
       </c>
       <c r="D23" s="20">
         <f>sa_all_tot!F27</f>
-        <v>362022452.31414533</v>
+        <v>358978748.83680642</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
-        <v>0.36202245231414532</v>
+        <v>0.35897874883680642</v>
       </c>
       <c r="F23" s="22">
         <v>49936638</v>
       </c>
       <c r="G23" s="46">
         <f t="shared" si="1"/>
-        <v>7.2496360751027193</v>
+        <v>7.1886847656185111</v>
       </c>
       <c r="H23" s="48">
         <f t="shared" si="2"/>
-        <v>1.1949474958615309</v>
+        <v>1.182135327447563</v>
       </c>
       <c r="I23" s="48">
         <f t="shared" si="3"/>
@@ -9610,22 +9607,22 @@
       </c>
       <c r="D24" s="20">
         <f>sa_all_tot!F28</f>
-        <v>14164988.95837347</v>
+        <v>14095331.6287286</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>1.4164988958373471E-2</v>
+        <v>1.40953316287286E-2</v>
       </c>
       <c r="F24" s="22">
         <v>3028115</v>
       </c>
       <c r="G24" s="46">
         <f t="shared" si="1"/>
-        <v>4.6778239790673304</v>
+        <v>4.6548204505867838</v>
       </c>
       <c r="H24" s="48">
         <f t="shared" si="2"/>
-        <v>4.6755161113672311E-2</v>
+        <v>4.6416645900072412E-2</v>
       </c>
       <c r="I24" s="48">
         <f t="shared" si="3"/>
@@ -9644,22 +9641,22 @@
       </c>
       <c r="D25" s="20">
         <f>sa_all_tot!F29</f>
-        <v>9891764.5639806371</v>
+        <v>9885001.0605341773</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>9.8917645639806373E-3</v>
+        <v>9.8850010605341775E-3</v>
       </c>
       <c r="F25" s="22">
         <v>518347</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="1"/>
-        <v>19.083286994967921</v>
+        <v>19.070238779300695</v>
       </c>
       <c r="H25" s="48">
         <f t="shared" si="2"/>
-        <v>3.2650293427446193E-2</v>
+        <v>3.2551812616702619E-2</v>
       </c>
       <c r="I25" s="48">
         <f t="shared" si="3"/>
@@ -9678,22 +9675,22 @@
       </c>
       <c r="D26" s="20">
         <f>sa_all_tot!F30</f>
-        <v>12883649.050343711</v>
+        <v>13339518.422678489</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>1.2883649050343711E-2</v>
+        <v>1.3339518422678489E-2</v>
       </c>
       <c r="F26" s="22">
         <v>2059709</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="1"/>
-        <v>6.2550821743963398</v>
+        <v>6.4764092513449665</v>
       </c>
       <c r="H26" s="48">
         <f t="shared" si="2"/>
-        <v>4.2525771735582127E-2</v>
+        <v>4.3927714466893295E-2</v>
       </c>
       <c r="I26" s="48">
         <f t="shared" si="3"/>
@@ -9712,22 +9709,22 @@
       </c>
       <c r="D27" s="20">
         <f>sa_all_tot!F31</f>
-        <v>2047962.915295037</v>
+        <v>2072384.2807455731</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
-        <v>2.0479629152950368E-3</v>
+        <v>2.0723842807455731E-3</v>
       </c>
       <c r="F27" s="22">
         <v>416268</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="1"/>
-        <v>4.9198182788372806</v>
+        <v>4.9784856888965114</v>
       </c>
       <c r="H27" s="48">
         <f t="shared" si="2"/>
-        <v>6.7598242639534348E-3</v>
+        <v>6.8244671258522313E-3</v>
       </c>
       <c r="I27" s="48">
         <f t="shared" si="3"/>
@@ -9746,22 +9743,22 @@
       </c>
       <c r="D28" s="20">
         <f>sa_all_tot!F33</f>
-        <v>115124385.7170886</v>
+        <v>116868040.2482132</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>0.11512438571708859</v>
+        <v>0.11686804024821321</v>
       </c>
       <c r="F28" s="22">
         <v>16693074</v>
       </c>
       <c r="G28" s="46">
         <f t="shared" si="1"/>
-        <v>6.8965359955325543</v>
+        <v>7.0009897666668941</v>
       </c>
       <c r="H28" s="48">
         <f t="shared" si="2"/>
-        <v>0.37999741603279791</v>
+        <v>0.38485241668102738</v>
       </c>
       <c r="I28" s="48">
         <f t="shared" si="3"/>
@@ -9780,22 +9777,22 @@
       </c>
       <c r="D29" s="20">
         <f>sa_all_tot!F34</f>
-        <v>73018685.88128984</v>
+        <v>73018917.938560098</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
-        <v>7.3018685881289846E-2</v>
+        <v>7.3018917938560093E-2</v>
       </c>
       <c r="F29" s="22">
         <v>4953088</v>
       </c>
       <c r="G29" s="46">
         <f t="shared" si="1"/>
-        <v>14.742053014460845</v>
+        <v>14.742099865489992</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="2"/>
-        <v>0.2410168079001706</v>
+        <v>0.24045502065752419</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="3"/>
@@ -9814,22 +9811,22 @@
       </c>
       <c r="D30" s="20">
         <f>sa_all_tot!F35</f>
-        <v>375166197.6098035</v>
+        <v>372687684.84123462</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>0.37516619760980352</v>
+        <v>0.3726876848412346</v>
       </c>
       <c r="F30" s="22">
         <v>38063255</v>
       </c>
       <c r="G30" s="46">
         <f t="shared" si="1"/>
-        <v>9.8563876791357838</v>
+        <v>9.7912720507280486</v>
       </c>
       <c r="H30" s="48">
         <f t="shared" si="2"/>
-        <v>1.2383317816341151</v>
+        <v>1.2272795528510552</v>
       </c>
       <c r="I30" s="48">
         <f t="shared" si="3"/>
@@ -9848,22 +9845,22 @@
       </c>
       <c r="D31" s="20">
         <f>sa_all_tot!F36</f>
-        <v>107619974.0045954</v>
+        <v>107918644.1539456</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>0.1076199740045954</v>
+        <v>0.1079186441539456</v>
       </c>
       <c r="F31" s="22">
         <v>10557560</v>
       </c>
       <c r="G31" s="46">
         <f t="shared" si="1"/>
-        <v>10.193640765915173</v>
+        <v>10.221930460631585</v>
       </c>
       <c r="H31" s="48">
         <f t="shared" si="2"/>
-        <v>0.35522718996964686</v>
+        <v>0.35538159893308202</v>
       </c>
       <c r="I31" s="48">
         <f t="shared" si="3"/>
@@ -9882,22 +9879,22 @@
       </c>
       <c r="D32" s="20">
         <f>sa_all_tot!F39</f>
-        <v>108692573.3013818</v>
+        <v>108785996.03378139</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>0.1086925733013818</v>
+        <v>0.10878599603378139</v>
       </c>
       <c r="F32" s="22">
         <v>9449213</v>
       </c>
       <c r="G32" s="46">
         <f t="shared" si="1"/>
-        <v>11.502817568127821</v>
+        <v>11.512704394935472</v>
       </c>
       <c r="H32" s="48">
         <f t="shared" si="2"/>
-        <v>0.35876757768749362</v>
+        <v>0.35823783290738909</v>
       </c>
       <c r="I32" s="48">
         <f t="shared" si="3"/>
@@ -9916,22 +9913,22 @@
       </c>
       <c r="D33" s="20">
         <f>sa_all_tot!F40</f>
-        <v>13924634.445961369</v>
+        <v>13836481.88611367</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>1.3924634445961368E-2</v>
+        <v>1.383648188611367E-2</v>
       </c>
       <c r="F33" s="22">
         <v>2052843</v>
       </c>
       <c r="G33" s="46">
         <f t="shared" si="1"/>
-        <v>6.783097609491505</v>
+        <v>6.7401559135860216</v>
       </c>
       <c r="H33" s="48">
         <f t="shared" si="2"/>
-        <v>4.5961809704415976E-2</v>
+        <v>4.5564240496584515E-2</v>
       </c>
       <c r="I33" s="48">
         <f t="shared" si="3"/>
@@ -9950,22 +9947,22 @@
       </c>
       <c r="D34" s="20">
         <f>sa_all_tot!F41</f>
-        <v>38335311.195605762</v>
+        <v>38790991.565392204</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>3.8335311195605765E-2</v>
+        <v>3.8790991565392202E-2</v>
       </c>
       <c r="F34" s="22">
         <v>5398384</v>
       </c>
       <c r="G34" s="46">
         <f t="shared" si="1"/>
-        <v>7.1012568197456432</v>
+        <v>7.1856673340377792</v>
       </c>
       <c r="H34" s="48">
         <f t="shared" si="2"/>
-        <v>0.12653547818219599</v>
+        <v>0.12774071352345434</v>
       </c>
       <c r="I34" s="48">
         <f t="shared" si="3"/>
@@ -9984,22 +9981,22 @@
       </c>
       <c r="D35" s="20">
         <f>sa_all_tot!F43</f>
-        <v>2134949211.4876561</v>
+        <v>2108904091.805475</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>2.134949211487656</v>
+        <v>2.1089040918054751</v>
       </c>
       <c r="F35" s="22">
         <v>311663358</v>
       </c>
       <c r="G35" s="46">
         <f t="shared" si="1"/>
-        <v>6.8501771436591401</v>
+        <v>6.7666090275696602</v>
       </c>
       <c r="H35" s="48">
         <f t="shared" si="2"/>
-        <v>7.0469447343695686</v>
+        <v>6.9447287261433566</v>
       </c>
       <c r="I35" s="48">
         <f t="shared" si="3"/>
@@ -10014,11 +10011,11 @@
       <c r="C36" s="51"/>
       <c r="D36" s="52">
         <f>+SUM(D2:D35)</f>
-        <v>7368917775.3303719</v>
+        <v>7343023751.6325855</v>
       </c>
       <c r="E36" s="52">
         <f t="shared" ref="E36:F36" si="4">+SUM(E2:E35)</f>
-        <v>7.3689177753303721</v>
+        <v>7.3430237516325843</v>
       </c>
       <c r="F36" s="52">
         <f t="shared" si="4"/>
@@ -10026,11 +10023,11 @@
       </c>
       <c r="G36" s="53">
         <f t="shared" si="1"/>
-        <v>7.0661621235698382</v>
+        <v>7.0413319687141733</v>
       </c>
       <c r="H36" s="54">
         <f t="shared" si="2"/>
-        <v>24.322993744044354</v>
+        <v>24.18095170039604</v>
       </c>
       <c r="I36" s="54">
         <f t="shared" si="3"/>
@@ -10049,22 +10046,22 @@
       </c>
       <c r="D37" s="52">
         <f>sa_all_tot!F9</f>
-        <v>13826419724.27739</v>
+        <v>13972337415.664881</v>
       </c>
       <c r="E37" s="55">
         <f t="shared" ref="E37:E45" si="5">+D37/1000000000</f>
-        <v>13.82641972427739</v>
+        <v>13.972337415664882</v>
       </c>
       <c r="F37" s="56">
         <v>1344130000</v>
       </c>
       <c r="G37" s="53">
         <f t="shared" si="1"/>
-        <v>10.286519699937795</v>
+        <v>10.395078910272726</v>
       </c>
       <c r="H37" s="54">
         <f t="shared" si="2"/>
-        <v>45.637626950051427</v>
+        <v>46.01161968388174</v>
       </c>
       <c r="I37" s="54">
         <f t="shared" si="3"/>
@@ -10083,22 +10080,22 @@
       </c>
       <c r="D38" s="20">
         <f>sa_all_tot!F6</f>
-        <v>550940375.47330797</v>
+        <v>553065039.60840642</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="5"/>
-        <v>0.55094037547330799</v>
+        <v>0.55306503960840647</v>
       </c>
       <c r="F38" s="22">
         <v>198686688</v>
       </c>
       <c r="G38" s="46">
         <f t="shared" si="1"/>
-        <v>2.7729103596175904</v>
+        <v>2.783603900068063</v>
       </c>
       <c r="H38" s="48">
         <f t="shared" si="2"/>
-        <v>1.8185193151212671</v>
+        <v>1.8212713811493693</v>
       </c>
       <c r="I38" s="48">
         <f t="shared" si="3"/>
@@ -10117,22 +10114,22 @@
       </c>
       <c r="D39" s="20">
         <f>sa_all_tot!F32</f>
-        <v>262492713.06024149</v>
+        <v>265799909.30403939</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="5"/>
-        <v>0.26249271306024147</v>
+        <v>0.26579990930403941</v>
       </c>
       <c r="F39" s="22">
         <v>119090017</v>
       </c>
       <c r="G39" s="46">
         <f t="shared" si="1"/>
-        <v>2.2041537962014188</v>
+        <v>2.2319243543649789</v>
       </c>
       <c r="H39" s="48">
         <f t="shared" si="2"/>
-        <v>0.86642419040090879</v>
+        <v>0.87529265684611679</v>
       </c>
       <c r="I39" s="48">
         <f t="shared" si="3"/>
@@ -10151,22 +10148,22 @@
       </c>
       <c r="D40" s="20">
         <f>sa_all_tot!F37</f>
-        <v>101049621.6914745</v>
+        <v>105170903.47280011</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="5"/>
-        <v>0.10104962169147449</v>
+        <v>0.1051709034728001</v>
       </c>
       <c r="F40" s="22">
         <v>20147528</v>
       </c>
       <c r="G40" s="46">
         <f t="shared" si="1"/>
-        <v>5.0154848620373924</v>
+        <v>5.2200400700671619</v>
       </c>
       <c r="H40" s="48">
         <f t="shared" si="2"/>
-        <v>0.33354006533606495</v>
+        <v>0.34633314873826676</v>
       </c>
       <c r="I40" s="48">
         <f t="shared" si="3"/>
@@ -10185,22 +10182,22 @@
       </c>
       <c r="D41" s="20">
         <f>sa_all_tot!F38</f>
-        <v>531933323.90010369</v>
+        <v>528615755.16888589</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="5"/>
-        <v>0.53193332390010373</v>
+        <v>0.52861575516888593</v>
       </c>
       <c r="F41" s="22">
         <v>142960868</v>
       </c>
       <c r="G41" s="46">
         <f t="shared" si="1"/>
-        <v>3.7208316607318284</v>
+        <v>3.6976255290285862</v>
       </c>
       <c r="H41" s="48">
         <f t="shared" si="2"/>
-        <v>1.75578169060122</v>
+        <v>1.7407586406029634</v>
       </c>
       <c r="I41" s="48">
         <f t="shared" si="3"/>
@@ -10219,22 +10216,22 @@
       </c>
       <c r="D42" s="20">
         <f>sa_all_tot!F42</f>
-        <v>371948812.21830678</v>
+        <v>367177909.36214811</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="5"/>
-        <v>0.37194881221830678</v>
+        <v>0.36717790936214811</v>
       </c>
       <c r="F42" s="22">
         <v>73409455</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="1"/>
-        <v>5.0667698352794854</v>
+        <v>5.0017795304725814</v>
       </c>
       <c r="H42" s="48">
         <f t="shared" si="2"/>
-        <v>1.2277119800383445</v>
+        <v>1.2091355812058326</v>
       </c>
       <c r="I42" s="48">
         <f t="shared" si="3"/>
@@ -10253,22 +10250,22 @@
       </c>
       <c r="D43" s="20">
         <f>sa_all_tot!F45</f>
-        <v>140108473.83452389</v>
+        <v>138937105.51078349</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="5"/>
-        <v>0.14010847383452388</v>
+        <v>0.1389371055107835</v>
       </c>
       <c r="F43" s="22">
         <v>158263341</v>
       </c>
       <c r="G43" s="46">
         <f t="shared" si="1"/>
-        <v>0.88528697138097123</v>
+        <v>0.87788558381807125</v>
       </c>
       <c r="H43" s="48">
         <f t="shared" si="2"/>
-        <v>0.46246377507068076</v>
+        <v>0.45752697408913229</v>
       </c>
       <c r="I43" s="48">
         <f t="shared" si="3"/>
@@ -10287,22 +10284,22 @@
       </c>
       <c r="D44" s="20">
         <f>sa_all_tot!F47</f>
-        <v>745233544.2525481</v>
+        <v>736665252.97333908</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="5"/>
-        <v>0.74523354425254806</v>
+        <v>0.73666525297333907</v>
       </c>
       <c r="F44" s="22">
         <v>285822469</v>
       </c>
       <c r="G44" s="46">
         <f t="shared" si="1"/>
-        <v>2.6073301614805802</v>
+        <v>2.5773524927927869</v>
       </c>
       <c r="H44" s="48">
         <f t="shared" si="2"/>
-        <v>2.4598335043701947</v>
+        <v>2.4258762471724125</v>
       </c>
       <c r="I44" s="48">
         <f t="shared" si="3"/>
@@ -10321,22 +10318,22 @@
       </c>
       <c r="D45" s="29">
         <f>sa_all_tot!F49</f>
-        <v>119797068.6323203</v>
+        <v>121880591.05360229</v>
       </c>
       <c r="E45" s="30">
         <f t="shared" si="5"/>
-        <v>0.1197970686323203</v>
+        <v>0.1218805910536023</v>
       </c>
       <c r="F45" s="31">
         <v>51729345.359999999</v>
       </c>
       <c r="G45" s="46">
         <f t="shared" si="1"/>
-        <v>2.3158435081406239</v>
+        <v>2.356120886614721</v>
       </c>
       <c r="H45" s="48">
         <f t="shared" si="2"/>
-        <v>0.39542079851313616</v>
+        <v>0.40135900211784364</v>
       </c>
       <c r="I45" s="48">
         <f t="shared" si="3"/>
@@ -10351,11 +10348,11 @@
       <c r="C46" s="57"/>
       <c r="D46" s="53">
         <f>+SUM(D38:D45)</f>
-        <v>2823503933.0628271</v>
+        <v>2817312466.4540043</v>
       </c>
       <c r="E46" s="53">
         <f t="shared" ref="E46:F46" si="6">+SUM(E38:E45)</f>
-        <v>2.8235039330628271</v>
+        <v>2.817312466454005</v>
       </c>
       <c r="F46" s="53">
         <f t="shared" si="6"/>
@@ -10363,11 +10360,11 @@
       </c>
       <c r="G46" s="53">
         <f t="shared" si="1"/>
-        <v>2.6887704232409195</v>
+        <v>2.6828744044327473</v>
       </c>
       <c r="H46" s="54">
         <f t="shared" si="2"/>
-        <v>9.3196953194518173</v>
+        <v>9.277553631921938</v>
       </c>
       <c r="I46" s="54">
         <f t="shared" si="3"/>
@@ -10386,22 +10383,22 @@
       </c>
       <c r="D47" s="20">
         <f>sa_all_tot!F44</f>
-        <v>1728577979.9677351</v>
+        <v>1723851404.0443709</v>
       </c>
       <c r="E47" s="21">
         <f>+D47/1000000000</f>
-        <v>1.728577979967735</v>
+        <v>1.7238514040443709</v>
       </c>
       <c r="F47" s="22">
         <v>813751154</v>
       </c>
       <c r="G47" s="46">
         <f t="shared" si="1"/>
-        <v>2.1242095589922014</v>
+        <v>2.1184011789977393</v>
       </c>
       <c r="H47" s="48">
         <f t="shared" si="2"/>
-        <v>5.7056127744569753</v>
+        <v>5.6767305880753947</v>
       </c>
       <c r="I47" s="48">
         <f t="shared" si="3"/>
@@ -10420,22 +10417,22 @@
       </c>
       <c r="D48" s="20">
         <f>sa_all_tot!F48</f>
-        <v>1615799926.6286709</v>
+        <v>1598293183.760381</v>
       </c>
       <c r="E48" s="21">
         <f>+D48/1000000000</f>
-        <v>1.6157999266286709</v>
+        <v>1.5982931837603809</v>
       </c>
       <c r="F48" s="22">
         <v>396156980</v>
       </c>
       <c r="G48" s="46">
         <f t="shared" si="1"/>
-        <v>4.0786859962146087</v>
+        <v>4.0344945676847122</v>
       </c>
       <c r="H48" s="48">
         <f t="shared" si="2"/>
-        <v>5.3333600272469441</v>
+        <v>5.2632609653467703</v>
       </c>
       <c r="I48" s="48">
         <f t="shared" si="3"/>
@@ -10450,11 +10447,11 @@
       <c r="C49" s="57"/>
       <c r="D49" s="53">
         <f>+SUM(D47:D48)</f>
-        <v>3344377906.596406</v>
+        <v>3322144587.8047519</v>
       </c>
       <c r="E49" s="53">
         <f t="shared" ref="E49:F49" si="7">+SUM(E47:E48)</f>
-        <v>3.3443779065964057</v>
+        <v>3.3221445878047517</v>
       </c>
       <c r="F49" s="53">
         <f t="shared" si="7"/>
@@ -10462,11 +10459,11 @@
       </c>
       <c r="G49" s="53">
         <f t="shared" si="1"/>
-        <v>2.7641585444506203</v>
+        <v>2.7457825056697667</v>
       </c>
       <c r="H49" s="54">
         <f t="shared" si="2"/>
-        <v>11.03897280170392</v>
+        <v>10.939991553422166</v>
       </c>
       <c r="I49" s="54">
         <f t="shared" si="3"/>
@@ -10487,22 +10484,22 @@
       </c>
       <c r="D50" s="20">
         <f>sa_all_tot!F22</f>
-        <v>376647416.63428497</v>
+        <v>374741182.86960781</v>
       </c>
       <c r="E50" s="21">
         <f>+D50/1000000000</f>
-        <v>0.37664741663428497</v>
+        <v>0.37474118286960778</v>
       </c>
       <c r="F50" s="22">
         <v>245707511</v>
       </c>
       <c r="G50" s="46">
         <f t="shared" si="1"/>
-        <v>1.5329096579155246</v>
+        <v>1.5251515158997635</v>
       </c>
       <c r="H50" s="48">
         <f t="shared" si="2"/>
-        <v>1.2432209230473406</v>
+        <v>1.2340418265846667</v>
       </c>
       <c r="I50" s="48">
         <f t="shared" si="3"/>
@@ -10521,22 +10518,22 @@
       </c>
       <c r="D51" s="20">
         <f>sa_all_tot!F24</f>
-        <v>1635958539.3553841</v>
+        <v>1624889226.9504061</v>
       </c>
       <c r="E51" s="21">
         <f>+D51/1000000000</f>
-        <v>1.6359585393553842</v>
+        <v>1.6248892269504061</v>
       </c>
       <c r="F51" s="22">
         <v>1247236029</v>
       </c>
       <c r="G51" s="46">
         <f t="shared" si="1"/>
-        <v>1.311667159476664</v>
+        <v>1.3027920851943302</v>
       </c>
       <c r="H51" s="48">
         <f t="shared" si="2"/>
-        <v>5.3998986732448611</v>
+        <v>5.3508430919409635</v>
       </c>
       <c r="I51" s="48">
         <f t="shared" si="3"/>
@@ -10555,22 +10552,22 @@
       </c>
       <c r="D52" s="20">
         <f>sa_all_tot!F46</f>
-        <v>920271693.76920414</v>
+        <v>912527170.95464969</v>
       </c>
       <c r="E52" s="21">
         <f>+D52/1000000000</f>
-        <v>0.92027169376920415</v>
+        <v>0.91252717095464964</v>
       </c>
       <c r="F52" s="22">
         <v>849726410</v>
       </c>
       <c r="G52" s="46">
         <f t="shared" si="1"/>
-        <v>1.0830211735671533</v>
+        <v>1.0739070366833128</v>
       </c>
       <c r="H52" s="48">
         <f t="shared" si="2"/>
-        <v>3.0375915884562734</v>
+        <v>3.0049985118524929</v>
       </c>
       <c r="I52" s="48">
         <f t="shared" si="3"/>
@@ -10585,11 +10582,11 @@
       <c r="C53" s="57"/>
       <c r="D53" s="53">
         <f>+SUM(D50:D52)</f>
-        <v>2932877649.758873</v>
+        <v>2912157580.7746639</v>
       </c>
       <c r="E53" s="53">
         <f t="shared" ref="E53:F53" si="8">+SUM(E50:E52)</f>
-        <v>2.9328776497588729</v>
+        <v>2.9121575807746636</v>
       </c>
       <c r="F53" s="53">
         <f t="shared" si="8"/>
@@ -10597,11 +10594,11 @@
       </c>
       <c r="G53" s="53">
         <f>+D53/F53</f>
-        <v>1.2519380503253874</v>
+        <v>1.2430934117606554</v>
       </c>
       <c r="H53" s="54">
         <f t="shared" si="2"/>
-        <v>9.680711184748473</v>
+        <v>9.5898834303781229</v>
       </c>
       <c r="I53" s="54">
         <f t="shared" si="3"/>
@@ -10616,11 +10613,11 @@
       <c r="C54" s="60"/>
       <c r="D54" s="61">
         <f>+D53+D49+D46+D37+D36</f>
-        <v>30296096989.025867</v>
+        <v>30366975802.330887</v>
       </c>
       <c r="E54" s="61">
         <f t="shared" ref="E54:F54" si="9">+E53+E49+E46+E37+E36</f>
-        <v>30.29609698902587</v>
+        <v>30.366975802330884</v>
       </c>
       <c r="F54" s="61">
         <f t="shared" si="9"/>
@@ -10628,7 +10625,7 @@
       </c>
       <c r="G54" s="62">
         <f t="shared" si="1"/>
-        <v>4.3344141534595435</v>
+        <v>4.344554671945505</v>
       </c>
       <c r="H54" s="63">
         <f t="shared" si="2"/>

--- a/Data_S2.xlsx
+++ b/Data_S2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240621ED-C615-4702-9310-E4C569636A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B87FE2-F779-4EFE-8440-DD97371722FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,7 +975,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Merciai, S., Rodrigues, J.F.D &amp; Tukker, A. (2020.) Global distribution of material inflows to capital formation and its implications for a circularity transition. </t>
+      <t xml:space="preserve">Aguilar-Hernandez, G.A., Deetman, S., Merciai, S., Rodrigues, J.F.D &amp; Tukker, A. (2021) Global distribution of material inflows to capital formation and its implications for a circularity transition. </t>
     </r>
     <r>
       <rPr>
@@ -1964,7 +1964,7 @@
         <v>300</v>
       </c>
       <c r="C12" s="9">
-        <v>43872</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="14" x14ac:dyDescent="0.3"/>
